--- a/Projeto-Documentacao/Planilhas/Plano de UAT - Homol 1 Semestre 2019 v1.xlsx
+++ b/Projeto-Documentacao/Planilhas/Plano de UAT - Homol 1 Semestre 2019 v1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\grupo3-sa\Projeto-Documentacao\Planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -410,9 +410,6 @@
     <t>Indicadores de Data e Tempo do Monitoramento por meio de tabelas</t>
   </si>
   <si>
-    <t>Kaio César</t>
-  </si>
-  <si>
     <t>Alerta</t>
   </si>
   <si>
@@ -473,9 +470,6 @@
     <t>Após ser feito o cadastro de usuario o usuario pode ter acesso ao sistema</t>
   </si>
   <si>
-    <t xml:space="preserve">deve conter campos de digitação + botão de cadastrar ao sietema e botão de canselar preenchimento de campos  </t>
-  </si>
-  <si>
     <t>RF1.0-02</t>
   </si>
   <si>
@@ -488,10 +482,16 @@
     <t>fazer o armazenamento dos dados importantes</t>
   </si>
   <si>
-    <t xml:space="preserve">campos como nome completo, email, senha e CRF são obrigatorios o preenchimento e devem ser validos </t>
-  </si>
-  <si>
     <t xml:space="preserve">confirmando se os dados são validos, tem acesso ao sistem, caso contrario dois tipos de alerta devem ser emitidos, 1 caso (campos obrigatorios não preenchidos) 2 caso (dados não são validos) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">deve conter campos de digitação + botão de cadastrar ao sistema e botão de canselar preenchimento de campos  </t>
+  </si>
+  <si>
+    <t>Campos como nome completo, email, senha e CRF são obrigatorios o preenchimento e devem ser validos para login de usuário.</t>
+  </si>
+  <si>
+    <t>Caio César</t>
   </si>
 </sst>
 </file>
@@ -1337,6 +1337,109 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="33" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="33" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1360,74 +1463,17 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -1459,52 +1505,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="33" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="33" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -2021,8 +2021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2059,13 +2059,13 @@
     </row>
     <row r="2" spans="1:20" s="22" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="53"/>
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="105"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="57"/>
       <c r="H2" s="57"/>
       <c r="I2" s="57"/>
@@ -2075,11 +2075,11 @@
     </row>
     <row r="3" spans="1:20" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="53"/>
-      <c r="B3" s="106"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="108"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="94"/>
       <c r="G3" s="57"/>
       <c r="H3" s="57"/>
       <c r="I3" s="57"/>
@@ -2106,10 +2106,10 @@
       <c r="B5" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="101" t="s">
+      <c r="C5" s="95" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="102"/>
+      <c r="D5" s="96"/>
       <c r="E5" s="28"/>
       <c r="F5" s="29"/>
       <c r="G5" s="28"/>
@@ -2124,8 +2124,8 @@
       <c r="B6" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="101"/>
-      <c r="D6" s="102"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="96"/>
       <c r="E6" s="28"/>
       <c r="F6" s="29"/>
       <c r="G6" s="28"/>
@@ -2140,8 +2140,8 @@
       <c r="B7" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="101"/>
-      <c r="D7" s="102"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="96"/>
       <c r="E7" s="28"/>
       <c r="F7" s="29"/>
       <c r="G7" s="28"/>
@@ -2156,8 +2156,8 @@
       <c r="B8" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="102"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="96"/>
       <c r="E8" s="28"/>
       <c r="F8" s="29"/>
       <c r="G8" s="28"/>
@@ -2172,8 +2172,8 @@
       <c r="B9" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="101"/>
-      <c r="D9" s="102"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="96"/>
       <c r="E9" s="28"/>
       <c r="F9" s="29"/>
       <c r="G9" s="28"/>
@@ -2199,16 +2199,16 @@
     </row>
     <row r="11" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24"/>
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="111" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="83"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="113"/>
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
       <c r="L11" s="24"/>
@@ -2220,14 +2220,14 @@
       <c r="B12" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="98" t="s">
+      <c r="C12" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="99"/>
-      <c r="E12" s="98" t="s">
+      <c r="D12" s="107"/>
+      <c r="E12" s="106" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="99"/>
+      <c r="F12" s="107"/>
       <c r="G12" s="72" t="s">
         <v>25</v>
       </c>
@@ -2250,21 +2250,21 @@
       <c r="B13" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="C13" s="121" t="s">
+      <c r="C13" s="97" t="s">
         <v>110</v>
       </c>
-      <c r="D13" s="122"/>
-      <c r="E13" s="92" t="s">
+      <c r="D13" s="98"/>
+      <c r="E13" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="F13" s="100"/>
-      <c r="G13" s="119" t="s">
+      <c r="F13" s="108"/>
+      <c r="G13" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="H13" s="120">
+      <c r="H13" s="82">
         <v>43608</v>
       </c>
-      <c r="I13" s="119" t="s">
+      <c r="I13" s="81" t="s">
         <v>105</v>
       </c>
       <c r="J13" s="62"/>
@@ -2277,24 +2277,24 @@
     </row>
     <row r="14" spans="1:20" s="4" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="54"/>
-      <c r="B14" s="123" t="s">
+      <c r="B14" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="124" t="s">
+      <c r="C14" s="119" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="125"/>
-      <c r="E14" s="126" t="s">
+      <c r="D14" s="120"/>
+      <c r="E14" s="109" t="s">
         <v>113</v>
       </c>
-      <c r="F14" s="127"/>
-      <c r="G14" s="128" t="s">
+      <c r="F14" s="110"/>
+      <c r="G14" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="H14" s="129">
+      <c r="H14" s="85">
         <v>43610</v>
       </c>
-      <c r="I14" s="128" t="s">
+      <c r="I14" s="84" t="s">
         <v>114</v>
       </c>
       <c r="J14" s="62"/>
@@ -2310,21 +2310,21 @@
       <c r="B15" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="C15" s="121" t="s">
+      <c r="C15" s="97" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="122"/>
-      <c r="E15" s="88" t="s">
+      <c r="D15" s="98"/>
+      <c r="E15" s="87" t="s">
         <v>118</v>
       </c>
-      <c r="F15" s="91"/>
-      <c r="G15" s="119" t="s">
+      <c r="F15" s="99"/>
+      <c r="G15" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="H15" s="120">
+      <c r="H15" s="82">
         <v>43617</v>
       </c>
-      <c r="I15" s="119" t="s">
+      <c r="I15" s="81" t="s">
         <v>115</v>
       </c>
       <c r="J15" s="62"/>
@@ -2340,21 +2340,21 @@
       <c r="B16" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="121" t="s">
+      <c r="C16" s="97" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="122"/>
-      <c r="E16" s="88" t="s">
+      <c r="D16" s="98"/>
+      <c r="E16" s="87" t="s">
         <v>119</v>
       </c>
-      <c r="F16" s="91"/>
-      <c r="G16" s="119" t="s">
-        <v>120</v>
-      </c>
-      <c r="H16" s="120">
+      <c r="F16" s="99"/>
+      <c r="G16" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="H16" s="82">
         <v>43612</v>
       </c>
-      <c r="I16" s="119" t="s">
+      <c r="I16" s="81" t="s">
         <v>114</v>
       </c>
       <c r="J16" s="62"/>
@@ -2368,23 +2368,23 @@
     <row r="17" spans="1:21" s="4" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="54"/>
       <c r="B17" s="63" t="s">
-        <v>144</v>
-      </c>
-      <c r="C17" s="121" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="97" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="98"/>
+      <c r="E17" s="87" t="s">
         <v>121</v>
       </c>
-      <c r="D17" s="122"/>
-      <c r="E17" s="88" t="s">
+      <c r="F17" s="99"/>
+      <c r="G17" s="81" t="s">
         <v>122</v>
       </c>
-      <c r="F17" s="91"/>
-      <c r="G17" s="119" t="s">
-        <v>123</v>
-      </c>
-      <c r="H17" s="120">
+      <c r="H17" s="82">
         <v>43611</v>
       </c>
-      <c r="I17" s="119" t="s">
+      <c r="I17" s="81" t="s">
         <v>115</v>
       </c>
       <c r="J17" s="62"/>
@@ -2415,17 +2415,17 @@
     </row>
     <row r="19" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="55"/>
-      <c r="B19" s="84" t="s">
+      <c r="B19" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="85"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="85"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="115"/>
+      <c r="J19" s="115"/>
       <c r="K19" s="24"/>
       <c r="L19" s="24"/>
     </row>
@@ -2434,18 +2434,18 @@
       <c r="B20" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="94" t="s">
+      <c r="C20" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="95"/>
-      <c r="E20" s="94" t="s">
+      <c r="D20" s="103"/>
+      <c r="E20" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="95"/>
-      <c r="G20" s="94" t="s">
+      <c r="F20" s="103"/>
+      <c r="G20" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="95"/>
+      <c r="H20" s="103"/>
       <c r="I20" s="71" t="s">
         <v>27</v>
       </c>
@@ -2462,25 +2462,25 @@
     <row r="21" spans="1:21" s="4" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="54"/>
       <c r="B21" s="63" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" s="87" t="s">
         <v>138</v>
       </c>
-      <c r="C21" s="88" t="s">
+      <c r="D21" s="88"/>
+      <c r="E21" s="87" t="s">
+        <v>145</v>
+      </c>
+      <c r="F21" s="88"/>
+      <c r="G21" s="87" t="s">
         <v>139</v>
       </c>
-      <c r="D21" s="89"/>
-      <c r="E21" s="88" t="s">
-        <v>141</v>
-      </c>
-      <c r="F21" s="89"/>
-      <c r="G21" s="88" t="s">
-        <v>140</v>
-      </c>
-      <c r="H21" s="89"/>
+      <c r="H21" s="88"/>
       <c r="I21" s="65" t="s">
+        <v>130</v>
+      </c>
+      <c r="J21" s="64" t="s">
         <v>131</v>
-      </c>
-      <c r="J21" s="64" t="s">
-        <v>132</v>
       </c>
       <c r="K21" s="27"/>
       <c r="L21" s="27"/>
@@ -2492,25 +2492,25 @@
     <row r="22" spans="1:21" s="4" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="54"/>
       <c r="B22" s="63" t="s">
-        <v>142</v>
-      </c>
-      <c r="C22" s="88" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" s="87" t="s">
         <v>146</v>
       </c>
-      <c r="D22" s="90"/>
-      <c r="E22" s="92" t="s">
-        <v>145</v>
-      </c>
-      <c r="F22" s="93"/>
-      <c r="G22" s="96" t="s">
-        <v>147</v>
-      </c>
-      <c r="H22" s="97"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="100" t="s">
+        <v>143</v>
+      </c>
+      <c r="F22" s="101"/>
+      <c r="G22" s="104" t="s">
+        <v>144</v>
+      </c>
+      <c r="H22" s="105"/>
       <c r="I22" s="66" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J22" s="64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K22" s="27"/>
       <c r="L22" s="27"/>
@@ -2522,14 +2522,14 @@
     <row r="23" spans="1:21" s="4" customFormat="1" ht="77.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="54"/>
       <c r="B23" s="63" t="s">
-        <v>143</v>
-      </c>
-      <c r="C23" s="88"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="97"/>
+        <v>141</v>
+      </c>
+      <c r="C23" s="87"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="105"/>
       <c r="I23" s="66"/>
       <c r="J23" s="64"/>
       <c r="K23" s="27"/>
@@ -2542,25 +2542,25 @@
     <row r="24" spans="1:21" s="4" customFormat="1" ht="77.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="54"/>
       <c r="B24" s="63" t="s">
-        <v>136</v>
-      </c>
-      <c r="C24" s="88" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="87" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" s="88"/>
+      <c r="E24" s="87" t="s">
         <v>124</v>
       </c>
-      <c r="D24" s="89"/>
-      <c r="E24" s="88" t="s">
-        <v>125</v>
-      </c>
-      <c r="F24" s="89"/>
-      <c r="G24" s="88" t="s">
+      <c r="F24" s="88"/>
+      <c r="G24" s="87" t="s">
+        <v>129</v>
+      </c>
+      <c r="H24" s="88"/>
+      <c r="I24" s="76" t="s">
         <v>130</v>
       </c>
-      <c r="H24" s="89"/>
-      <c r="I24" s="76" t="s">
+      <c r="J24" s="64" t="s">
         <v>131</v>
-      </c>
-      <c r="J24" s="64" t="s">
-        <v>132</v>
       </c>
       <c r="K24" s="27"/>
       <c r="L24" s="27"/>
@@ -2572,25 +2572,25 @@
     <row r="25" spans="1:21" s="4" customFormat="1" ht="77.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="54"/>
       <c r="B25" s="63" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C25" s="75" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D25" s="80"/>
       <c r="E25" s="73" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F25" s="74"/>
       <c r="G25" s="77" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H25" s="78"/>
       <c r="I25" s="79" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J25" s="64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K25" s="27"/>
       <c r="L25" s="27"/>
@@ -2602,25 +2602,25 @@
     <row r="26" spans="1:21" s="4" customFormat="1" ht="77.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="54"/>
       <c r="B26" s="63" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C26" s="75" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D26" s="80"/>
       <c r="E26" s="73" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F26" s="74"/>
       <c r="G26" s="77" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H26" s="78"/>
       <c r="I26" s="79" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J26" s="64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K26" s="27"/>
       <c r="L26" s="27"/>
@@ -2632,12 +2632,12 @@
     <row r="27" spans="1:21" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="54"/>
       <c r="B27" s="63"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="87"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="116"/>
+      <c r="H27" s="117"/>
       <c r="I27" s="66"/>
       <c r="J27" s="64"/>
       <c r="K27" s="27"/>
@@ -2684,7 +2684,7 @@
       <c r="B30" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="130">
+      <c r="C30" s="86">
         <v>43598</v>
       </c>
       <c r="D30" s="28"/>
@@ -2783,6 +2783,29 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E17:F17"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="G24:H24"/>
@@ -2799,29 +2822,6 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I13:I17">
@@ -2952,10 +2952,10 @@
       <c r="A15" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="109" t="s">
+      <c r="B15" s="121" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="109"/>
+      <c r="C15" s="121"/>
       <c r="D15" s="41"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
@@ -3299,20 +3299,20 @@
     <row r="1" spans="1:6" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:6" s="17" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="68"/>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="112"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="124"/>
     </row>
     <row r="3" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="113"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="115"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="127"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="8"/>
@@ -3507,30 +3507,30 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="14"/>
-      <c r="C22" s="116"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="116"/>
+      <c r="C22" s="128"/>
+      <c r="D22" s="128"/>
+      <c r="E22" s="128"/>
       <c r="F22" s="15"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="117" t="s">
+      <c r="B23" s="129" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="118"/>
-      <c r="E23" s="118"/>
-      <c r="F23" s="118"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="130"/>
+      <c r="F23" s="130"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="117"/>
+      <c r="B24" s="129"/>
       <c r="C24" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="118"/>
-      <c r="E24" s="118"/>
-      <c r="F24" s="118"/>
+      <c r="D24" s="130"/>
+      <c r="E24" s="130"/>
+      <c r="F24" s="130"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B27" s="12"/>

--- a/Projeto-Documentacao/Planilhas/Plano de UAT - Homol 1 Semestre 2019 v1.xlsx
+++ b/Projeto-Documentacao/Planilhas/Plano de UAT - Homol 1 Semestre 2019 v1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\grupo3-sa\Projeto-Documentacao\Planilhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\REGINALDO\Desktop\grupo3-sa\Projeto-Documentacao\Planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825666E2-5BF2-4308-A724-5AF3DCCF14A6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" tabRatio="503"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="503" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plano de Homologação" sheetId="5" r:id="rId1"/>
@@ -21,12 +22,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>move0011</author>
   </authors>
   <commentList>
-    <comment ref="I20" authorId="0" shapeId="0">
+    <comment ref="I20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="157">
   <si>
     <t xml:space="preserve">Projeto: </t>
   </si>
@@ -425,18 +426,6 @@
     <t>deve conter campos de digitação + um botão para autenticar usuário no sistema.</t>
   </si>
   <si>
-    <t xml:space="preserve">autenticar no sistema somente usuarios cadatrados </t>
-  </si>
-  <si>
-    <t>Nome de usuario valido</t>
-  </si>
-  <si>
-    <t>senha de usuario valida</t>
-  </si>
-  <si>
-    <t>senha de de usuario com dados válidos.</t>
-  </si>
-  <si>
     <t>Após confirmação de validação o usuario é direcionado a tela do sistema</t>
   </si>
   <si>
@@ -449,33 +438,12 @@
     <t>Importante</t>
   </si>
   <si>
-    <t>senha valida, direcionar ao sistema caso contrario emitir alerta (senha não encontrada)</t>
-  </si>
-  <si>
-    <t>nome valido, direcionar ao sistema caso contrario emitir alerta (nome não encontrado)</t>
-  </si>
-  <si>
-    <t>RF1.1-01</t>
-  </si>
-  <si>
-    <t>RF1.1-02</t>
-  </si>
-  <si>
-    <t>RF1.0-01</t>
-  </si>
-  <si>
     <t>Cadastro deve conter os campos (nome Completo e de usuario, email, senha e confirmar senha, CRF, telefone/celular, notificação e administrador)</t>
   </si>
   <si>
     <t>Após ser feito o cadastro de usuario o usuario pode ter acesso ao sistema</t>
   </si>
   <si>
-    <t>RF1.0-02</t>
-  </si>
-  <si>
-    <t>RF1.0-03</t>
-  </si>
-  <si>
     <t>2.2</t>
   </si>
   <si>
@@ -492,16 +460,76 @@
   </si>
   <si>
     <t>Caio César</t>
+  </si>
+  <si>
+    <t>RF-7-1.0</t>
+  </si>
+  <si>
+    <t>RF10-1.1</t>
+  </si>
+  <si>
+    <t>RF13-2.0</t>
+  </si>
+  <si>
+    <t>Os dados do sensor deve ser armazenados em nuvem, tendo assim acesso aos graficos.</t>
+  </si>
+  <si>
+    <t>Testado - OK</t>
+  </si>
+  <si>
+    <t>Nome de usuario valido e senha de usuario valida</t>
+  </si>
+  <si>
+    <t>autenticar no sistema somente usuarios cadatrados e senha de de usuario com dados válidos.</t>
+  </si>
+  <si>
+    <t>nome valido e senha valida, direcionar ao sistema caso contrario emitir alerta (nome não encontrado) ou (senha não encontrada)</t>
+  </si>
+  <si>
+    <t>RF14-2.1</t>
+  </si>
+  <si>
+    <t>Graficos deve aparcer e indicar ao usuario taxas tempereturas e umidades</t>
+  </si>
+  <si>
+    <t>Historico deve conter uma tabela com dados</t>
+  </si>
+  <si>
+    <t>Os dados do sensor deve ser armazenados em nuvem, tendo assim acesso as tabelas.</t>
+  </si>
+  <si>
+    <t>as taxas de temperatura e umidade devem ser visualizadas pelo usuario em tempo real ao acessar o sistema.</t>
+  </si>
+  <si>
+    <t>Testado- NÃO OK</t>
+  </si>
+  <si>
+    <t>os dados de temperatura e umidade devem ser visualizados pelo usuario diariamente ao acessar o sistema.</t>
+  </si>
+  <si>
+    <t>RF15-2.2</t>
+  </si>
+  <si>
+    <t>Alerta deve ser enviado ao usuario em caso de risco</t>
+  </si>
+  <si>
+    <t>o usuario deve receber o alerta via SMS antes que ocorra um insidente</t>
+  </si>
+  <si>
+    <t>alerta será emitido ao usuario por SMS em caso de atenção e emergencia das taxas de temperatura e umidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grupo 3 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00;[Red]\-[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -723,6 +751,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -786,7 +828,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1021,6 +1063,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0">
@@ -1069,7 +1137,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1277,20 +1345,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1306,66 +1360,70 @@
     <xf numFmtId="0" fontId="30" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="33" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="33" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="33" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="33" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1391,90 +1449,6 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1506,23 +1480,88 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="15">
-    <cellStyle name="Background" xfId="1"/>
-    <cellStyle name="Card" xfId="2"/>
-    <cellStyle name="Card B" xfId="3"/>
-    <cellStyle name="Card BL" xfId="4"/>
-    <cellStyle name="Card BR" xfId="5"/>
-    <cellStyle name="Card L" xfId="6"/>
-    <cellStyle name="Card R" xfId="7"/>
-    <cellStyle name="Card T" xfId="8"/>
-    <cellStyle name="Card TL" xfId="9"/>
-    <cellStyle name="Card TR" xfId="10"/>
-    <cellStyle name="Column Header" xfId="11"/>
+    <cellStyle name="Background" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Card" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Card B" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Card BL" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Card BR" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Card L" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Card R" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Card T" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Card TL" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Card TR" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Column Header" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Hiperlink" xfId="12" builtinId="8"/>
-    <cellStyle name="Input" xfId="13"/>
+    <cellStyle name="Input" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="14"/>
+    <cellStyle name="Normal 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1808,6 +1847,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1843,6 +1899,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2018,11 +2091,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20:F20"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2059,13 +2132,13 @@
     </row>
     <row r="2" spans="1:20" s="22" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="53"/>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="91"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="57"/>
       <c r="H2" s="57"/>
       <c r="I2" s="57"/>
@@ -2075,11 +2148,11 @@
     </row>
     <row r="3" spans="1:20" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="53"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="94"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="93"/>
       <c r="G3" s="57"/>
       <c r="H3" s="57"/>
       <c r="I3" s="57"/>
@@ -2106,10 +2179,10 @@
       <c r="B5" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="95" t="s">
+      <c r="C5" s="94" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="96"/>
+      <c r="D5" s="95"/>
       <c r="E5" s="28"/>
       <c r="F5" s="29"/>
       <c r="G5" s="28"/>
@@ -2124,8 +2197,8 @@
       <c r="B6" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="95"/>
-      <c r="D6" s="96"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="95"/>
       <c r="E6" s="28"/>
       <c r="F6" s="29"/>
       <c r="G6" s="28"/>
@@ -2140,8 +2213,8 @@
       <c r="B7" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="95"/>
-      <c r="D7" s="96"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="95"/>
       <c r="E7" s="28"/>
       <c r="F7" s="29"/>
       <c r="G7" s="28"/>
@@ -2156,8 +2229,10 @@
       <c r="B8" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="95"/>
-      <c r="D8" s="96"/>
+      <c r="C8" s="94" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="95"/>
       <c r="E8" s="28"/>
       <c r="F8" s="29"/>
       <c r="G8" s="28"/>
@@ -2172,8 +2247,8 @@
       <c r="B9" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="95"/>
-      <c r="D9" s="96"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="95"/>
       <c r="E9" s="28"/>
       <c r="F9" s="29"/>
       <c r="G9" s="28"/>
@@ -2199,16 +2274,16 @@
     </row>
     <row r="11" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24"/>
-      <c r="B11" s="111" t="s">
+      <c r="B11" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="113"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="77"/>
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
       <c r="L11" s="24"/>
@@ -2217,24 +2292,24 @@
     </row>
     <row r="12" spans="1:20" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A12" s="54"/>
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="106" t="s">
+      <c r="C12" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="107"/>
-      <c r="E12" s="106" t="s">
+      <c r="D12" s="87"/>
+      <c r="E12" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="107"/>
-      <c r="G12" s="72" t="s">
+      <c r="F12" s="87"/>
+      <c r="G12" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="72" t="s">
+      <c r="H12" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="72" t="s">
+      <c r="I12" s="68" t="s">
         <v>30</v>
       </c>
       <c r="J12" s="62"/>
@@ -2250,21 +2325,21 @@
       <c r="B13" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="C13" s="97" t="s">
+      <c r="C13" s="82" t="s">
         <v>110</v>
       </c>
-      <c r="D13" s="98"/>
-      <c r="E13" s="100" t="s">
+      <c r="D13" s="111"/>
+      <c r="E13" s="109" t="s">
         <v>112</v>
       </c>
-      <c r="F13" s="108"/>
-      <c r="G13" s="81" t="s">
+      <c r="F13" s="110"/>
+      <c r="G13" s="69" t="s">
         <v>102</v>
       </c>
-      <c r="H13" s="82">
+      <c r="H13" s="70">
         <v>43608</v>
       </c>
-      <c r="I13" s="81" t="s">
+      <c r="I13" s="69" t="s">
         <v>105</v>
       </c>
       <c r="J13" s="62"/>
@@ -2277,24 +2352,24 @@
     </row>
     <row r="14" spans="1:20" s="4" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="54"/>
-      <c r="B14" s="83" t="s">
+      <c r="B14" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="119" t="s">
+      <c r="C14" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="120"/>
-      <c r="E14" s="109" t="s">
+      <c r="D14" s="81"/>
+      <c r="E14" s="119" t="s">
         <v>113</v>
       </c>
-      <c r="F14" s="110"/>
-      <c r="G14" s="84" t="s">
+      <c r="F14" s="120"/>
+      <c r="G14" s="72" t="s">
         <v>116</v>
       </c>
-      <c r="H14" s="85">
+      <c r="H14" s="73">
         <v>43610</v>
       </c>
-      <c r="I14" s="84" t="s">
+      <c r="I14" s="72" t="s">
         <v>114</v>
       </c>
       <c r="J14" s="62"/>
@@ -2310,21 +2385,21 @@
       <c r="B15" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="C15" s="97" t="s">
+      <c r="C15" s="82" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="98"/>
-      <c r="E15" s="87" t="s">
+      <c r="D15" s="111"/>
+      <c r="E15" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="F15" s="99"/>
-      <c r="G15" s="81" t="s">
+      <c r="F15" s="111"/>
+      <c r="G15" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="H15" s="82">
+      <c r="H15" s="70">
         <v>43617</v>
       </c>
-      <c r="I15" s="81" t="s">
+      <c r="I15" s="69" t="s">
         <v>115</v>
       </c>
       <c r="J15" s="62"/>
@@ -2340,21 +2415,21 @@
       <c r="B16" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="97" t="s">
+      <c r="C16" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="98"/>
-      <c r="E16" s="87" t="s">
+      <c r="D16" s="111"/>
+      <c r="E16" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="F16" s="99"/>
-      <c r="G16" s="81" t="s">
-        <v>147</v>
-      </c>
-      <c r="H16" s="82">
+      <c r="F16" s="111"/>
+      <c r="G16" s="69" t="s">
+        <v>136</v>
+      </c>
+      <c r="H16" s="70">
         <v>43612</v>
       </c>
-      <c r="I16" s="81" t="s">
+      <c r="I16" s="69" t="s">
         <v>114</v>
       </c>
       <c r="J16" s="62"/>
@@ -2368,23 +2443,23 @@
     <row r="17" spans="1:21" s="4" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="54"/>
       <c r="B17" s="63" t="s">
-        <v>142</v>
-      </c>
-      <c r="C17" s="97" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="82" t="s">
         <v>120</v>
       </c>
-      <c r="D17" s="98"/>
-      <c r="E17" s="87" t="s">
+      <c r="D17" s="111"/>
+      <c r="E17" s="82" t="s">
         <v>121</v>
       </c>
-      <c r="F17" s="99"/>
-      <c r="G17" s="81" t="s">
+      <c r="F17" s="111"/>
+      <c r="G17" s="69" t="s">
         <v>122</v>
       </c>
-      <c r="H17" s="82">
+      <c r="H17" s="70">
         <v>43611</v>
       </c>
-      <c r="I17" s="81" t="s">
+      <c r="I17" s="69" t="s">
         <v>115</v>
       </c>
       <c r="J17" s="62"/>
@@ -2415,45 +2490,45 @@
     </row>
     <row r="19" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="55"/>
-      <c r="B19" s="114" t="s">
+      <c r="B19" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="115"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="115"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="115"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="79"/>
       <c r="K19" s="24"/>
       <c r="L19" s="24"/>
     </row>
     <row r="20" spans="1:21" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A20" s="54"/>
-      <c r="B20" s="71" t="s">
+      <c r="B20" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="102" t="s">
+      <c r="C20" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="103"/>
-      <c r="E20" s="102" t="s">
+      <c r="D20" s="85"/>
+      <c r="E20" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="103"/>
-      <c r="G20" s="102" t="s">
+      <c r="F20" s="85"/>
+      <c r="G20" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="103"/>
-      <c r="I20" s="71" t="s">
+      <c r="H20" s="85"/>
+      <c r="I20" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="J20" s="71" t="s">
+      <c r="J20" s="67" t="s">
         <v>30</v>
       </c>
       <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
+      <c r="L20" s="122"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
@@ -2464,23 +2539,23 @@
       <c r="B21" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="C21" s="87" t="s">
-        <v>138</v>
-      </c>
-      <c r="D21" s="88"/>
-      <c r="E21" s="87" t="s">
-        <v>145</v>
-      </c>
-      <c r="F21" s="88"/>
-      <c r="G21" s="87" t="s">
-        <v>139</v>
-      </c>
-      <c r="H21" s="88"/>
-      <c r="I21" s="65" t="s">
+      <c r="C21" s="82" t="s">
+        <v>129</v>
+      </c>
+      <c r="D21" s="83"/>
+      <c r="E21" s="82" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" s="83"/>
+      <c r="G21" s="82" t="s">
         <v>130</v>
       </c>
-      <c r="J21" s="64" t="s">
-        <v>131</v>
+      <c r="H21" s="83"/>
+      <c r="I21" s="74" t="s">
+        <v>126</v>
+      </c>
+      <c r="J21" s="69" t="s">
+        <v>150</v>
       </c>
       <c r="K21" s="27"/>
       <c r="L21" s="27"/>
@@ -2492,25 +2567,25 @@
     <row r="22" spans="1:21" s="4" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="54"/>
       <c r="B22" s="63" t="s">
-        <v>140</v>
-      </c>
-      <c r="C22" s="87" t="s">
-        <v>146</v>
-      </c>
-      <c r="D22" s="118"/>
-      <c r="E22" s="100" t="s">
-        <v>143</v>
-      </c>
-      <c r="F22" s="101"/>
-      <c r="G22" s="104" t="s">
-        <v>144</v>
-      </c>
-      <c r="H22" s="105"/>
-      <c r="I22" s="66" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="82" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" s="111"/>
+      <c r="E22" s="109" t="s">
         <v>132</v>
       </c>
-      <c r="J22" s="64" t="s">
-        <v>131</v>
+      <c r="F22" s="110"/>
+      <c r="G22" s="112" t="s">
+        <v>133</v>
+      </c>
+      <c r="H22" s="113"/>
+      <c r="I22" s="114" t="s">
+        <v>126</v>
+      </c>
+      <c r="J22" s="69" t="s">
+        <v>127</v>
       </c>
       <c r="K22" s="27"/>
       <c r="L22" s="27"/>
@@ -2522,16 +2597,26 @@
     <row r="23" spans="1:21" s="4" customFormat="1" ht="77.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="54"/>
       <c r="B23" s="63" t="s">
-        <v>141</v>
-      </c>
-      <c r="C23" s="87"/>
-      <c r="D23" s="118"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="101"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="105"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="64"/>
+        <v>138</v>
+      </c>
+      <c r="C23" s="82" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" s="83"/>
+      <c r="E23" s="82" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" s="83"/>
+      <c r="G23" s="82" t="s">
+        <v>125</v>
+      </c>
+      <c r="H23" s="83"/>
+      <c r="I23" s="74" t="s">
+        <v>126</v>
+      </c>
+      <c r="J23" s="69" t="s">
+        <v>150</v>
+      </c>
       <c r="K23" s="27"/>
       <c r="L23" s="27"/>
       <c r="R23" s="5"/>
@@ -2539,28 +2624,28 @@
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
     </row>
-    <row r="24" spans="1:21" s="4" customFormat="1" ht="77.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" s="4" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="54"/>
       <c r="B24" s="63" t="s">
-        <v>135</v>
-      </c>
-      <c r="C24" s="87" t="s">
-        <v>123</v>
-      </c>
-      <c r="D24" s="88"/>
-      <c r="E24" s="87" t="s">
-        <v>124</v>
-      </c>
-      <c r="F24" s="88"/>
-      <c r="G24" s="87" t="s">
-        <v>129</v>
-      </c>
-      <c r="H24" s="88"/>
-      <c r="I24" s="76" t="s">
-        <v>130</v>
-      </c>
-      <c r="J24" s="64" t="s">
-        <v>131</v>
+        <v>138</v>
+      </c>
+      <c r="C24" s="82" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" s="111"/>
+      <c r="E24" s="107" t="s">
+        <v>143</v>
+      </c>
+      <c r="F24" s="108"/>
+      <c r="G24" s="112" t="s">
+        <v>144</v>
+      </c>
+      <c r="H24" s="113"/>
+      <c r="I24" s="121" t="s">
+        <v>128</v>
+      </c>
+      <c r="J24" s="69" t="s">
+        <v>127</v>
       </c>
       <c r="K24" s="27"/>
       <c r="L24" s="27"/>
@@ -2569,28 +2654,28 @@
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
     </row>
-    <row r="25" spans="1:21" s="4" customFormat="1" ht="77.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" s="4" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="54"/>
       <c r="B25" s="63" t="s">
-        <v>136</v>
-      </c>
-      <c r="C25" s="75" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" s="82" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" s="83"/>
+      <c r="E25" s="82" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25" s="115"/>
+      <c r="G25" s="116" t="s">
+        <v>149</v>
+      </c>
+      <c r="H25" s="117"/>
+      <c r="I25" s="114" t="s">
         <v>126</v>
       </c>
-      <c r="D25" s="80"/>
-      <c r="E25" s="73" t="s">
-        <v>125</v>
-      </c>
-      <c r="F25" s="74"/>
-      <c r="G25" s="77" t="s">
-        <v>134</v>
-      </c>
-      <c r="H25" s="78"/>
-      <c r="I25" s="79" t="s">
-        <v>132</v>
-      </c>
-      <c r="J25" s="64" t="s">
-        <v>131</v>
+      <c r="J25" s="69" t="s">
+        <v>141</v>
       </c>
       <c r="K25" s="27"/>
       <c r="L25" s="27"/>
@@ -2599,28 +2684,28 @@
       <c r="T25" s="5"/>
       <c r="U25" s="5"/>
     </row>
-    <row r="26" spans="1:21" s="4" customFormat="1" ht="77.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" s="4" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="54"/>
       <c r="B26" s="63" t="s">
-        <v>136</v>
-      </c>
-      <c r="C26" s="75" t="s">
-        <v>127</v>
-      </c>
-      <c r="D26" s="80"/>
-      <c r="E26" s="73" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" s="82" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" s="111"/>
+      <c r="E26" s="82" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26" s="111"/>
+      <c r="G26" s="116" t="s">
+        <v>151</v>
+      </c>
+      <c r="H26" s="117"/>
+      <c r="I26" s="114" t="s">
         <v>128</v>
       </c>
-      <c r="F26" s="74"/>
-      <c r="G26" s="77" t="s">
-        <v>133</v>
-      </c>
-      <c r="H26" s="78"/>
-      <c r="I26" s="79" t="s">
-        <v>132</v>
-      </c>
-      <c r="J26" s="64" t="s">
-        <v>131</v>
+      <c r="J26" s="69" t="s">
+        <v>150</v>
       </c>
       <c r="K26" s="27"/>
       <c r="L26" s="27"/>
@@ -2629,17 +2714,29 @@
       <c r="T26" s="5"/>
       <c r="U26" s="5"/>
     </row>
-    <row r="27" spans="1:21" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" s="4" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="54"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="116"/>
+      <c r="B27" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27" s="82" t="s">
+        <v>153</v>
+      </c>
+      <c r="D27" s="111"/>
+      <c r="E27" s="82" t="s">
+        <v>155</v>
+      </c>
+      <c r="F27" s="111"/>
+      <c r="G27" s="116" t="s">
+        <v>154</v>
+      </c>
       <c r="H27" s="117"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="64"/>
+      <c r="I27" s="114" t="s">
+        <v>126</v>
+      </c>
+      <c r="J27" s="69" t="s">
+        <v>141</v>
+      </c>
       <c r="K27" s="27"/>
       <c r="L27" s="27"/>
       <c r="R27" s="5"/>
@@ -2647,28 +2744,19 @@
       <c r="T27" s="5"/>
       <c r="U27" s="5"/>
     </row>
-    <row r="28" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="24"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="24"/>
-    </row>
-    <row r="29" spans="1:21" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="24"/>
-      <c r="B29" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="67" t="s">
-        <v>103</v>
-      </c>
+    <row r="28" spans="1:21" s="4" customFormat="1" ht="77.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="54"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+    </row>
+    <row r="29" spans="1:21" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="54"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
       <c r="D29" s="28"/>
       <c r="E29" s="28"/>
       <c r="F29" s="29"/>
@@ -2676,16 +2764,20 @@
       <c r="H29" s="28"/>
       <c r="I29" s="28"/>
       <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="24"/>
-    </row>
-    <row r="30" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+    </row>
+    <row r="30" spans="1:21" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A30" s="24"/>
       <c r="B30" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="86">
-        <v>43598</v>
+        <v>19</v>
+      </c>
+      <c r="C30" s="106" t="s">
+        <v>103</v>
       </c>
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
@@ -2699,8 +2791,12 @@
     </row>
     <row r="31" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="24"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
+      <c r="B31" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="118">
+        <v>43598</v>
+      </c>
       <c r="D31" s="28"/>
       <c r="E31" s="28"/>
       <c r="F31" s="29"/>
@@ -2711,21 +2807,21 @@
       <c r="K31" s="28"/>
       <c r="L31" s="24"/>
     </row>
-    <row r="32" spans="1:21" ht="12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
       <c r="L32" s="24"/>
     </row>
-    <row r="33" spans="1:12" ht="12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="24"/>
       <c r="B33" s="24"/>
       <c r="C33" s="24"/>
@@ -2736,12 +2832,12 @@
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
       <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
+      <c r="K33" s="28"/>
       <c r="L33" s="24"/>
     </row>
     <row r="34" spans="1:12" ht="12" x14ac:dyDescent="0.2">
       <c r="A34" s="24"/>
-      <c r="B34" s="56"/>
+      <c r="B34" s="24"/>
       <c r="C34" s="24"/>
       <c r="D34" s="24"/>
       <c r="E34" s="24"/>
@@ -2755,7 +2851,7 @@
     </row>
     <row r="35" spans="1:12" ht="12" x14ac:dyDescent="0.2">
       <c r="A35" s="24"/>
-      <c r="B35" s="24"/>
+      <c r="B35" s="56"/>
       <c r="C35" s="24"/>
       <c r="D35" s="24"/>
       <c r="E35" s="24"/>
@@ -2781,34 +2877,42 @@
       <c r="K36" s="24"/>
       <c r="L36" s="24"/>
     </row>
+    <row r="37" spans="1:12" ht="12" x14ac:dyDescent="0.2">
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+    </row>
+    <row r="38" spans="1:12" ht="12" x14ac:dyDescent="0.2">
+      <c r="A38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+    </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B19:J19"/>
+  <mergeCells count="45">
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
     <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E27:F27"/>
     <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C24:D24"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
     <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="C5:D5"/>
@@ -2822,15 +2926,32 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I13:I17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I13:I17" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Não Iniciado, Em andamento, Concluído, Pendente"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J21:J27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J21:J27" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Não testado,Testado- NÃO OK,Testado - OK"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I21:I27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I21:I27" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Essencial, Importante, Desejável"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2841,11 +2962,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2952,10 +3073,10 @@
       <c r="A15" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="121" t="s">
+      <c r="B15" s="96" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="121"/>
+      <c r="C15" s="96"/>
       <c r="D15" s="41"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
@@ -2979,31 +3100,31 @@
       </c>
     </row>
     <row r="24" spans="1:20" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A24" s="69" t="s">
+      <c r="A24" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="69" t="s">
+      <c r="B24" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="69" t="s">
+      <c r="C24" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="69" t="s">
+      <c r="D24" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="70" t="s">
+      <c r="E24" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="70" t="s">
+      <c r="F24" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="G24" s="70" t="s">
+      <c r="G24" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="70" t="s">
+      <c r="H24" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="I24" s="70" t="s">
+      <c r="I24" s="66" t="s">
         <v>46</v>
       </c>
       <c r="Q24" s="44"/>
@@ -3264,8 +3385,8 @@
     <mergeCell ref="B15:C15"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1"/>
-    <hyperlink ref="B11" r:id="rId2"/>
+    <hyperlink ref="B10" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B11" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0" footer="9.8611111111111122E-2"/>
@@ -3278,10 +3399,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:F3"/>
     </sheetView>
   </sheetViews>
@@ -3298,21 +3419,21 @@
   <sheetData>
     <row r="1" spans="1:6" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:6" s="17" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="68"/>
-      <c r="B2" s="122" t="s">
+      <c r="A2" s="64"/>
+      <c r="B2" s="97" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="124"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="99"/>
     </row>
     <row r="3" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="125"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="127"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="102"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="8"/>
@@ -3507,30 +3628,30 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="14"/>
-      <c r="C22" s="128"/>
-      <c r="D22" s="128"/>
-      <c r="E22" s="128"/>
+      <c r="C22" s="103"/>
+      <c r="D22" s="103"/>
+      <c r="E22" s="103"/>
       <c r="F22" s="15"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="129" t="s">
+      <c r="B23" s="104" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="130"/>
-      <c r="E23" s="130"/>
-      <c r="F23" s="130"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="105"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="129"/>
+      <c r="B24" s="104"/>
       <c r="C24" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="130"/>
-      <c r="E24" s="130"/>
-      <c r="F24" s="130"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B27" s="12"/>

--- a/Projeto-Documentacao/Planilhas/Plano de UAT - Homol 1 Semestre 2019 v1.xlsx
+++ b/Projeto-Documentacao/Planilhas/Plano de UAT - Homol 1 Semestre 2019 v1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\REGINALDO\Desktop\grupo3-sa\Projeto-Documentacao\Planilhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\grupo3-sa\Projeto-Documentacao\Planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825666E2-5BF2-4308-A724-5AF3DCCF14A6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="503" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="503"/>
   </bookViews>
   <sheets>
     <sheet name="Plano de Homologação" sheetId="5" r:id="rId1"/>
@@ -22,12 +21,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>move0011</author>
   </authors>
   <commentList>
-    <comment ref="I20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="I20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -462,12 +461,6 @@
     <t>Caio César</t>
   </si>
   <si>
-    <t>RF-7-1.0</t>
-  </si>
-  <si>
-    <t>RF10-1.1</t>
-  </si>
-  <si>
     <t>RF13-2.0</t>
   </si>
   <si>
@@ -520,12 +513,18 @@
   </si>
   <si>
     <t xml:space="preserve">Grupo 3 </t>
+  </si>
+  <si>
+    <t>RF-4-1.0</t>
+  </si>
+  <si>
+    <t>RF7-1.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00;[Red]\-[$$-409]#,##0.00"/>
   </numFmts>
@@ -1383,27 +1382,22 @@
     <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1413,17 +1407,36 @@
     <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1449,6 +1462,57 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1480,88 +1544,23 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="15">
-    <cellStyle name="Background" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Card" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Card B" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Card BL" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Card BR" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Card L" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Card R" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Card T" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Card TL" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Card TR" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Column Header" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Background" xfId="1"/>
+    <cellStyle name="Card" xfId="2"/>
+    <cellStyle name="Card B" xfId="3"/>
+    <cellStyle name="Card BL" xfId="4"/>
+    <cellStyle name="Card BR" xfId="5"/>
+    <cellStyle name="Card L" xfId="6"/>
+    <cellStyle name="Card R" xfId="7"/>
+    <cellStyle name="Card T" xfId="8"/>
+    <cellStyle name="Card TL" xfId="9"/>
+    <cellStyle name="Card TR" xfId="10"/>
+    <cellStyle name="Column Header" xfId="11"/>
     <cellStyle name="Hiperlink" xfId="12" builtinId="8"/>
-    <cellStyle name="Input" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Input" xfId="13"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Normal 2" xfId="14"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1847,23 +1846,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1899,23 +1881,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2091,11 +2056,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:D8"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2132,13 +2097,13 @@
     </row>
     <row r="2" spans="1:20" s="22" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="53"/>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="90"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="57"/>
       <c r="H2" s="57"/>
       <c r="I2" s="57"/>
@@ -2148,11 +2113,11 @@
     </row>
     <row r="3" spans="1:20" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="53"/>
-      <c r="B3" s="91"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="93"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="95"/>
       <c r="G3" s="57"/>
       <c r="H3" s="57"/>
       <c r="I3" s="57"/>
@@ -2179,10 +2144,10 @@
       <c r="B5" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="94" t="s">
+      <c r="C5" s="96" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="95"/>
+      <c r="D5" s="97"/>
       <c r="E5" s="28"/>
       <c r="F5" s="29"/>
       <c r="G5" s="28"/>
@@ -2197,8 +2162,8 @@
       <c r="B6" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="94"/>
-      <c r="D6" s="95"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="97"/>
       <c r="E6" s="28"/>
       <c r="F6" s="29"/>
       <c r="G6" s="28"/>
@@ -2213,8 +2178,8 @@
       <c r="B7" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="94"/>
-      <c r="D7" s="95"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="97"/>
       <c r="E7" s="28"/>
       <c r="F7" s="29"/>
       <c r="G7" s="28"/>
@@ -2229,10 +2194,10 @@
       <c r="B8" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="94" t="s">
-        <v>156</v>
-      </c>
-      <c r="D8" s="95"/>
+      <c r="C8" s="96" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="97"/>
       <c r="E8" s="28"/>
       <c r="F8" s="29"/>
       <c r="G8" s="28"/>
@@ -2247,8 +2212,8 @@
       <c r="B9" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="94"/>
-      <c r="D9" s="95"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="97"/>
       <c r="E9" s="28"/>
       <c r="F9" s="29"/>
       <c r="G9" s="28"/>
@@ -2274,16 +2239,16 @@
     </row>
     <row r="11" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24"/>
-      <c r="B11" s="75" t="s">
+      <c r="B11" s="106" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="77"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="108"/>
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
       <c r="L11" s="24"/>
@@ -2295,14 +2260,14 @@
       <c r="B12" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="86" t="s">
+      <c r="C12" s="102" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="87"/>
-      <c r="E12" s="86" t="s">
+      <c r="D12" s="103"/>
+      <c r="E12" s="102" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="87"/>
+      <c r="F12" s="103"/>
       <c r="G12" s="68" t="s">
         <v>25</v>
       </c>
@@ -2325,14 +2290,14 @@
       <c r="B13" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="C13" s="82" t="s">
+      <c r="C13" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="D13" s="111"/>
-      <c r="E13" s="109" t="s">
+      <c r="D13" s="85"/>
+      <c r="E13" s="98" t="s">
         <v>112</v>
       </c>
-      <c r="F13" s="110"/>
+      <c r="F13" s="99"/>
       <c r="G13" s="69" t="s">
         <v>102</v>
       </c>
@@ -2355,14 +2320,14 @@
       <c r="B14" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="80" t="s">
+      <c r="C14" s="111" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="81"/>
-      <c r="E14" s="119" t="s">
+      <c r="D14" s="112"/>
+      <c r="E14" s="104" t="s">
         <v>113</v>
       </c>
-      <c r="F14" s="120"/>
+      <c r="F14" s="105"/>
       <c r="G14" s="72" t="s">
         <v>116</v>
       </c>
@@ -2385,14 +2350,14 @@
       <c r="B15" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="C15" s="82" t="s">
+      <c r="C15" s="80" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="111"/>
-      <c r="E15" s="82" t="s">
+      <c r="D15" s="85"/>
+      <c r="E15" s="80" t="s">
         <v>118</v>
       </c>
-      <c r="F15" s="111"/>
+      <c r="F15" s="85"/>
       <c r="G15" s="69" t="s">
         <v>101</v>
       </c>
@@ -2415,14 +2380,14 @@
       <c r="B16" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="82" t="s">
+      <c r="C16" s="80" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="111"/>
-      <c r="E16" s="82" t="s">
+      <c r="D16" s="85"/>
+      <c r="E16" s="80" t="s">
         <v>119</v>
       </c>
-      <c r="F16" s="111"/>
+      <c r="F16" s="85"/>
       <c r="G16" s="69" t="s">
         <v>136</v>
       </c>
@@ -2445,14 +2410,14 @@
       <c r="B17" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="C17" s="82" t="s">
+      <c r="C17" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="D17" s="111"/>
-      <c r="E17" s="82" t="s">
+      <c r="D17" s="85"/>
+      <c r="E17" s="80" t="s">
         <v>121</v>
       </c>
-      <c r="F17" s="111"/>
+      <c r="F17" s="85"/>
       <c r="G17" s="69" t="s">
         <v>122</v>
       </c>
@@ -2490,17 +2455,17 @@
     </row>
     <row r="19" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="55"/>
-      <c r="B19" s="78" t="s">
+      <c r="B19" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="79"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="110"/>
+      <c r="J19" s="110"/>
       <c r="K19" s="24"/>
       <c r="L19" s="24"/>
     </row>
@@ -2509,18 +2474,18 @@
       <c r="B20" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="84" t="s">
+      <c r="C20" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="85"/>
-      <c r="E20" s="84" t="s">
+      <c r="D20" s="101"/>
+      <c r="E20" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="85"/>
-      <c r="G20" s="84" t="s">
+      <c r="F20" s="101"/>
+      <c r="G20" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="85"/>
+      <c r="H20" s="101"/>
       <c r="I20" s="67" t="s">
         <v>27</v>
       </c>
@@ -2528,7 +2493,7 @@
         <v>30</v>
       </c>
       <c r="K20" s="27"/>
-      <c r="L20" s="122"/>
+      <c r="L20" s="79"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
@@ -2537,25 +2502,25 @@
     <row r="21" spans="1:21" s="4" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="54"/>
       <c r="B21" s="63" t="s">
-        <v>137</v>
-      </c>
-      <c r="C21" s="82" t="s">
+        <v>155</v>
+      </c>
+      <c r="C21" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="D21" s="83"/>
-      <c r="E21" s="82" t="s">
+      <c r="D21" s="81"/>
+      <c r="E21" s="80" t="s">
         <v>134</v>
       </c>
-      <c r="F21" s="83"/>
-      <c r="G21" s="82" t="s">
+      <c r="F21" s="81"/>
+      <c r="G21" s="80" t="s">
         <v>130</v>
       </c>
-      <c r="H21" s="83"/>
+      <c r="H21" s="81"/>
       <c r="I21" s="74" t="s">
         <v>126</v>
       </c>
       <c r="J21" s="69" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K21" s="27"/>
       <c r="L21" s="27"/>
@@ -2567,21 +2532,21 @@
     <row r="22" spans="1:21" s="4" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="54"/>
       <c r="B22" s="63" t="s">
-        <v>137</v>
-      </c>
-      <c r="C22" s="82" t="s">
+        <v>155</v>
+      </c>
+      <c r="C22" s="80" t="s">
         <v>135</v>
       </c>
-      <c r="D22" s="111"/>
-      <c r="E22" s="109" t="s">
+      <c r="D22" s="85"/>
+      <c r="E22" s="98" t="s">
         <v>132</v>
       </c>
-      <c r="F22" s="110"/>
-      <c r="G22" s="112" t="s">
+      <c r="F22" s="99"/>
+      <c r="G22" s="88" t="s">
         <v>133</v>
       </c>
-      <c r="H22" s="113"/>
-      <c r="I22" s="114" t="s">
+      <c r="H22" s="89"/>
+      <c r="I22" s="76" t="s">
         <v>126</v>
       </c>
       <c r="J22" s="69" t="s">
@@ -2597,25 +2562,25 @@
     <row r="23" spans="1:21" s="4" customFormat="1" ht="77.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="54"/>
       <c r="B23" s="63" t="s">
-        <v>138</v>
-      </c>
-      <c r="C23" s="82" t="s">
+        <v>156</v>
+      </c>
+      <c r="C23" s="80" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="83"/>
-      <c r="E23" s="82" t="s">
+      <c r="D23" s="81"/>
+      <c r="E23" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="F23" s="83"/>
-      <c r="G23" s="82" t="s">
+      <c r="F23" s="81"/>
+      <c r="G23" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="H23" s="83"/>
+      <c r="H23" s="81"/>
       <c r="I23" s="74" t="s">
         <v>126</v>
       </c>
       <c r="J23" s="69" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K23" s="27"/>
       <c r="L23" s="27"/>
@@ -2627,21 +2592,21 @@
     <row r="24" spans="1:21" s="4" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="54"/>
       <c r="B24" s="63" t="s">
-        <v>138</v>
-      </c>
-      <c r="C24" s="82" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" s="80" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" s="85"/>
+      <c r="E24" s="86" t="s">
+        <v>141</v>
+      </c>
+      <c r="F24" s="87"/>
+      <c r="G24" s="88" t="s">
         <v>142</v>
       </c>
-      <c r="D24" s="111"/>
-      <c r="E24" s="107" t="s">
-        <v>143</v>
-      </c>
-      <c r="F24" s="108"/>
-      <c r="G24" s="112" t="s">
-        <v>144</v>
-      </c>
-      <c r="H24" s="113"/>
-      <c r="I24" s="121" t="s">
+      <c r="H24" s="89"/>
+      <c r="I24" s="78" t="s">
         <v>128</v>
       </c>
       <c r="J24" s="69" t="s">
@@ -2657,25 +2622,25 @@
     <row r="25" spans="1:21" s="4" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="54"/>
       <c r="B25" s="63" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" s="80" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" s="81"/>
+      <c r="E25" s="80" t="s">
+        <v>138</v>
+      </c>
+      <c r="F25" s="82"/>
+      <c r="G25" s="83" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="84"/>
+      <c r="I25" s="76" t="s">
+        <v>126</v>
+      </c>
+      <c r="J25" s="69" t="s">
         <v>139</v>
-      </c>
-      <c r="C25" s="82" t="s">
-        <v>146</v>
-      </c>
-      <c r="D25" s="83"/>
-      <c r="E25" s="82" t="s">
-        <v>140</v>
-      </c>
-      <c r="F25" s="115"/>
-      <c r="G25" s="116" t="s">
-        <v>149</v>
-      </c>
-      <c r="H25" s="117"/>
-      <c r="I25" s="114" t="s">
-        <v>126</v>
-      </c>
-      <c r="J25" s="69" t="s">
-        <v>141</v>
       </c>
       <c r="K25" s="27"/>
       <c r="L25" s="27"/>
@@ -2687,25 +2652,25 @@
     <row r="26" spans="1:21" s="4" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="54"/>
       <c r="B26" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" s="80" t="s">
         <v>145</v>
       </c>
-      <c r="C26" s="82" t="s">
-        <v>147</v>
-      </c>
-      <c r="D26" s="111"/>
-      <c r="E26" s="82" t="s">
+      <c r="D26" s="85"/>
+      <c r="E26" s="80" t="s">
+        <v>146</v>
+      </c>
+      <c r="F26" s="85"/>
+      <c r="G26" s="83" t="s">
+        <v>149</v>
+      </c>
+      <c r="H26" s="84"/>
+      <c r="I26" s="76" t="s">
+        <v>128</v>
+      </c>
+      <c r="J26" s="69" t="s">
         <v>148</v>
-      </c>
-      <c r="F26" s="111"/>
-      <c r="G26" s="116" t="s">
-        <v>151</v>
-      </c>
-      <c r="H26" s="117"/>
-      <c r="I26" s="114" t="s">
-        <v>128</v>
-      </c>
-      <c r="J26" s="69" t="s">
-        <v>150</v>
       </c>
       <c r="K26" s="27"/>
       <c r="L26" s="27"/>
@@ -2717,25 +2682,25 @@
     <row r="27" spans="1:21" s="4" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="54"/>
       <c r="B27" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" s="80" t="s">
+        <v>151</v>
+      </c>
+      <c r="D27" s="85"/>
+      <c r="E27" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="F27" s="85"/>
+      <c r="G27" s="83" t="s">
         <v>152</v>
       </c>
-      <c r="C27" s="82" t="s">
-        <v>153</v>
-      </c>
-      <c r="D27" s="111"/>
-      <c r="E27" s="82" t="s">
-        <v>155</v>
-      </c>
-      <c r="F27" s="111"/>
-      <c r="G27" s="116" t="s">
-        <v>154</v>
-      </c>
-      <c r="H27" s="117"/>
-      <c r="I27" s="114" t="s">
+      <c r="H27" s="84"/>
+      <c r="I27" s="76" t="s">
         <v>126</v>
       </c>
       <c r="J27" s="69" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K27" s="27"/>
       <c r="L27" s="27"/>
@@ -2776,7 +2741,7 @@
       <c r="B30" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="106" t="s">
+      <c r="C30" s="75" t="s">
         <v>103</v>
       </c>
       <c r="D30" s="28"/>
@@ -2794,7 +2759,7 @@
       <c r="B31" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="118">
+      <c r="C31" s="77">
         <v>43598</v>
       </c>
       <c r="D31" s="28"/>
@@ -2898,6 +2863,42 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="G25:H25"/>
@@ -2907,51 +2908,15 @@
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="G26:H26"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I13:I17" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I13:I17">
       <formula1>"Não Iniciado, Em andamento, Concluído, Pendente"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J21:J27" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J21:J27">
       <formula1>"Não testado,Testado- NÃO OK,Testado - OK"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I21:I27" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I21:I27">
       <formula1>"Essencial, Importante, Desejável"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2962,10 +2927,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -3073,10 +3038,10 @@
       <c r="A15" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="96" t="s">
+      <c r="B15" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="96"/>
+      <c r="C15" s="113"/>
       <c r="D15" s="41"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
@@ -3385,8 +3350,8 @@
     <mergeCell ref="B15:C15"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B11" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B10" r:id="rId1"/>
+    <hyperlink ref="B11" r:id="rId2"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0" footer="9.8611111111111122E-2"/>
@@ -3399,7 +3364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -3420,20 +3385,20 @@
     <row r="1" spans="1:6" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:6" s="17" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="64"/>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="114" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="99"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="116"/>
     </row>
     <row r="3" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="100"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="102"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="119"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="8"/>
@@ -3628,30 +3593,30 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="14"/>
-      <c r="C22" s="103"/>
-      <c r="D22" s="103"/>
-      <c r="E22" s="103"/>
+      <c r="C22" s="120"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="120"/>
       <c r="F22" s="15"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="104" t="s">
+      <c r="B23" s="121" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="105"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="105"/>
+      <c r="D23" s="122"/>
+      <c r="E23" s="122"/>
+      <c r="F23" s="122"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="104"/>
+      <c r="B24" s="121"/>
       <c r="C24" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="105"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
+      <c r="D24" s="122"/>
+      <c r="E24" s="122"/>
+      <c r="F24" s="122"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B27" s="12"/>

--- a/Projeto-Documentacao/Planilhas/Plano de UAT - Homol 1 Semestre 2019 v1.xlsx
+++ b/Projeto-Documentacao/Planilhas/Plano de UAT - Homol 1 Semestre 2019 v1.xlsx
@@ -461,9 +461,6 @@
     <t>Caio César</t>
   </si>
   <si>
-    <t>RF13-2.0</t>
-  </si>
-  <si>
     <t>Os dados do sensor deve ser armazenados em nuvem, tendo assim acesso aos graficos.</t>
   </si>
   <si>
@@ -479,9 +476,6 @@
     <t>nome valido e senha valida, direcionar ao sistema caso contrario emitir alerta (nome não encontrado) ou (senha não encontrada)</t>
   </si>
   <si>
-    <t>RF14-2.1</t>
-  </si>
-  <si>
     <t>Graficos deve aparcer e indicar ao usuario taxas tempereturas e umidades</t>
   </si>
   <si>
@@ -500,9 +494,6 @@
     <t>os dados de temperatura e umidade devem ser visualizados pelo usuario diariamente ao acessar o sistema.</t>
   </si>
   <si>
-    <t>RF15-2.2</t>
-  </si>
-  <si>
     <t>Alerta deve ser enviado ao usuario em caso de risco</t>
   </si>
   <si>
@@ -519,6 +510,15 @@
   </si>
   <si>
     <t>RF7-1.1</t>
+  </si>
+  <si>
+    <t>RF10-2.0</t>
+  </si>
+  <si>
+    <t>RF11-2.1</t>
+  </si>
+  <si>
+    <t>RF12-2.2</t>
   </si>
 </sst>
 </file>
@@ -1400,12 +1400,107 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1415,101 +1510,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2059,8 +2059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2097,13 +2097,13 @@
     </row>
     <row r="2" spans="1:20" s="22" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="53"/>
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="92"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="104"/>
       <c r="G2" s="57"/>
       <c r="H2" s="57"/>
       <c r="I2" s="57"/>
@@ -2113,11 +2113,11 @@
     </row>
     <row r="3" spans="1:20" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="53"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="95"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="107"/>
       <c r="G3" s="57"/>
       <c r="H3" s="57"/>
       <c r="I3" s="57"/>
@@ -2144,10 +2144,10 @@
       <c r="B5" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="96" t="s">
+      <c r="C5" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="97"/>
+      <c r="D5" s="98"/>
       <c r="E5" s="28"/>
       <c r="F5" s="29"/>
       <c r="G5" s="28"/>
@@ -2162,8 +2162,8 @@
       <c r="B6" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="96"/>
-      <c r="D6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="98"/>
       <c r="E6" s="28"/>
       <c r="F6" s="29"/>
       <c r="G6" s="28"/>
@@ -2178,8 +2178,8 @@
       <c r="B7" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="96"/>
-      <c r="D7" s="97"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="98"/>
       <c r="E7" s="28"/>
       <c r="F7" s="29"/>
       <c r="G7" s="28"/>
@@ -2194,10 +2194,10 @@
       <c r="B8" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="96" t="s">
-        <v>154</v>
-      </c>
-      <c r="D8" s="97"/>
+      <c r="C8" s="97" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" s="98"/>
       <c r="E8" s="28"/>
       <c r="F8" s="29"/>
       <c r="G8" s="28"/>
@@ -2212,8 +2212,8 @@
       <c r="B9" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="96"/>
-      <c r="D9" s="97"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="98"/>
       <c r="E9" s="28"/>
       <c r="F9" s="29"/>
       <c r="G9" s="28"/>
@@ -2239,16 +2239,16 @@
     </row>
     <row r="11" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24"/>
-      <c r="B11" s="106" t="s">
+      <c r="B11" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="107"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="108"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="101"/>
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
       <c r="L11" s="24"/>
@@ -2260,14 +2260,14 @@
       <c r="B12" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="102" t="s">
+      <c r="C12" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="103"/>
-      <c r="E12" s="102" t="s">
+      <c r="D12" s="83"/>
+      <c r="E12" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="103"/>
+      <c r="F12" s="83"/>
       <c r="G12" s="68" t="s">
         <v>25</v>
       </c>
@@ -2290,14 +2290,14 @@
       <c r="B13" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="C13" s="80" t="s">
+      <c r="C13" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="D13" s="85"/>
-      <c r="E13" s="98" t="s">
+      <c r="D13" s="92"/>
+      <c r="E13" s="84" t="s">
         <v>112</v>
       </c>
-      <c r="F13" s="99"/>
+      <c r="F13" s="85"/>
       <c r="G13" s="69" t="s">
         <v>102</v>
       </c>
@@ -2320,14 +2320,14 @@
       <c r="B14" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="111" t="s">
+      <c r="C14" s="95" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="112"/>
-      <c r="E14" s="104" t="s">
+      <c r="D14" s="96"/>
+      <c r="E14" s="90" t="s">
         <v>113</v>
       </c>
-      <c r="F14" s="105"/>
+      <c r="F14" s="91"/>
       <c r="G14" s="72" t="s">
         <v>116</v>
       </c>
@@ -2350,14 +2350,14 @@
       <c r="B15" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="C15" s="80" t="s">
+      <c r="C15" s="86" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="85"/>
-      <c r="E15" s="80" t="s">
+      <c r="D15" s="92"/>
+      <c r="E15" s="86" t="s">
         <v>118</v>
       </c>
-      <c r="F15" s="85"/>
+      <c r="F15" s="92"/>
       <c r="G15" s="69" t="s">
         <v>101</v>
       </c>
@@ -2380,14 +2380,14 @@
       <c r="B16" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="80" t="s">
+      <c r="C16" s="86" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="85"/>
-      <c r="E16" s="80" t="s">
+      <c r="D16" s="92"/>
+      <c r="E16" s="86" t="s">
         <v>119</v>
       </c>
-      <c r="F16" s="85"/>
+      <c r="F16" s="92"/>
       <c r="G16" s="69" t="s">
         <v>136</v>
       </c>
@@ -2410,14 +2410,14 @@
       <c r="B17" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="C17" s="80" t="s">
+      <c r="C17" s="86" t="s">
         <v>120</v>
       </c>
-      <c r="D17" s="85"/>
-      <c r="E17" s="80" t="s">
+      <c r="D17" s="92"/>
+      <c r="E17" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="F17" s="85"/>
+      <c r="F17" s="92"/>
       <c r="G17" s="69" t="s">
         <v>122</v>
       </c>
@@ -2455,17 +2455,17 @@
     </row>
     <row r="19" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="55"/>
-      <c r="B19" s="109" t="s">
+      <c r="B19" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="110"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="110"/>
-      <c r="H19" s="110"/>
-      <c r="I19" s="110"/>
-      <c r="J19" s="110"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="94"/>
       <c r="K19" s="24"/>
       <c r="L19" s="24"/>
     </row>
@@ -2474,18 +2474,18 @@
       <c r="B20" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="100" t="s">
+      <c r="C20" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="101"/>
-      <c r="E20" s="100" t="s">
+      <c r="D20" s="81"/>
+      <c r="E20" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="101"/>
-      <c r="G20" s="100" t="s">
+      <c r="F20" s="81"/>
+      <c r="G20" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="101"/>
+      <c r="H20" s="81"/>
       <c r="I20" s="67" t="s">
         <v>27</v>
       </c>
@@ -2502,25 +2502,25 @@
     <row r="21" spans="1:21" s="4" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="54"/>
       <c r="B21" s="63" t="s">
-        <v>155</v>
-      </c>
-      <c r="C21" s="80" t="s">
+        <v>152</v>
+      </c>
+      <c r="C21" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="D21" s="81"/>
-      <c r="E21" s="80" t="s">
+      <c r="D21" s="87"/>
+      <c r="E21" s="86" t="s">
         <v>134</v>
       </c>
-      <c r="F21" s="81"/>
-      <c r="G21" s="80" t="s">
+      <c r="F21" s="87"/>
+      <c r="G21" s="86" t="s">
         <v>130</v>
       </c>
-      <c r="H21" s="81"/>
+      <c r="H21" s="87"/>
       <c r="I21" s="74" t="s">
         <v>126</v>
       </c>
       <c r="J21" s="69" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K21" s="27"/>
       <c r="L21" s="27"/>
@@ -2532,16 +2532,16 @@
     <row r="22" spans="1:21" s="4" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="54"/>
       <c r="B22" s="63" t="s">
-        <v>155</v>
-      </c>
-      <c r="C22" s="80" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" s="86" t="s">
         <v>135</v>
       </c>
-      <c r="D22" s="85"/>
-      <c r="E22" s="98" t="s">
+      <c r="D22" s="92"/>
+      <c r="E22" s="84" t="s">
         <v>132</v>
       </c>
-      <c r="F22" s="99"/>
+      <c r="F22" s="85"/>
       <c r="G22" s="88" t="s">
         <v>133</v>
       </c>
@@ -2562,25 +2562,25 @@
     <row r="23" spans="1:21" s="4" customFormat="1" ht="77.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="54"/>
       <c r="B23" s="63" t="s">
-        <v>156</v>
-      </c>
-      <c r="C23" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="C23" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="81"/>
-      <c r="E23" s="80" t="s">
+      <c r="D23" s="87"/>
+      <c r="E23" s="86" t="s">
         <v>124</v>
       </c>
-      <c r="F23" s="81"/>
-      <c r="G23" s="80" t="s">
+      <c r="F23" s="87"/>
+      <c r="G23" s="86" t="s">
         <v>125</v>
       </c>
-      <c r="H23" s="81"/>
+      <c r="H23" s="87"/>
       <c r="I23" s="74" t="s">
         <v>126</v>
       </c>
       <c r="J23" s="69" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K23" s="27"/>
       <c r="L23" s="27"/>
@@ -2592,18 +2592,18 @@
     <row r="24" spans="1:21" s="4" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="54"/>
       <c r="B24" s="63" t="s">
-        <v>156</v>
-      </c>
-      <c r="C24" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="C24" s="86" t="s">
+        <v>139</v>
+      </c>
+      <c r="D24" s="92"/>
+      <c r="E24" s="108" t="s">
         <v>140</v>
       </c>
-      <c r="D24" s="85"/>
-      <c r="E24" s="86" t="s">
+      <c r="F24" s="109"/>
+      <c r="G24" s="88" t="s">
         <v>141</v>
-      </c>
-      <c r="F24" s="87"/>
-      <c r="G24" s="88" t="s">
-        <v>142</v>
       </c>
       <c r="H24" s="89"/>
       <c r="I24" s="78" t="s">
@@ -2622,25 +2622,25 @@
     <row r="25" spans="1:21" s="4" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="54"/>
       <c r="B25" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="C25" s="86" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" s="87"/>
+      <c r="E25" s="86" t="s">
         <v>137</v>
       </c>
-      <c r="C25" s="80" t="s">
-        <v>144</v>
-      </c>
-      <c r="D25" s="81"/>
-      <c r="E25" s="80" t="s">
-        <v>138</v>
-      </c>
-      <c r="F25" s="82"/>
-      <c r="G25" s="83" t="s">
-        <v>147</v>
-      </c>
-      <c r="H25" s="84"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="111" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" s="112"/>
       <c r="I25" s="76" t="s">
         <v>126</v>
       </c>
       <c r="J25" s="69" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K25" s="27"/>
       <c r="L25" s="27"/>
@@ -2652,25 +2652,25 @@
     <row r="26" spans="1:21" s="4" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="54"/>
       <c r="B26" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="C26" s="86" t="s">
         <v>143</v>
       </c>
-      <c r="C26" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="D26" s="85"/>
-      <c r="E26" s="80" t="s">
-        <v>146</v>
-      </c>
-      <c r="F26" s="85"/>
-      <c r="G26" s="83" t="s">
-        <v>149</v>
-      </c>
-      <c r="H26" s="84"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="86" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" s="92"/>
+      <c r="G26" s="111" t="s">
+        <v>147</v>
+      </c>
+      <c r="H26" s="112"/>
       <c r="I26" s="76" t="s">
         <v>128</v>
       </c>
       <c r="J26" s="69" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K26" s="27"/>
       <c r="L26" s="27"/>
@@ -2682,25 +2682,25 @@
     <row r="27" spans="1:21" s="4" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="54"/>
       <c r="B27" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="C27" s="86" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" s="92"/>
+      <c r="E27" s="86" t="s">
         <v>150</v>
       </c>
-      <c r="C27" s="80" t="s">
-        <v>151</v>
-      </c>
-      <c r="D27" s="85"/>
-      <c r="E27" s="80" t="s">
-        <v>153</v>
-      </c>
-      <c r="F27" s="85"/>
-      <c r="G27" s="83" t="s">
-        <v>152</v>
-      </c>
-      <c r="H27" s="84"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="111" t="s">
+        <v>149</v>
+      </c>
+      <c r="H27" s="112"/>
       <c r="I27" s="76" t="s">
         <v>126</v>
       </c>
       <c r="J27" s="69" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K27" s="27"/>
       <c r="L27" s="27"/>
@@ -2863,6 +2863,35 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B11:I11"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E22:F22"/>
@@ -2879,35 +2908,6 @@
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I13:I17">

--- a/Projeto-Documentacao/Planilhas/Plano de UAT - Homol 1 Semestre 2019 v1.xlsx
+++ b/Projeto-Documentacao/Planilhas/Plano de UAT - Homol 1 Semestre 2019 v1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\grupo3-sa\Projeto-Documentacao\Planilhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\REGINALDO\Desktop\grupo3-sa\Projeto-Documentacao\Planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C7EFE2-46CA-42E0-9B9D-DCCDEBE7D96C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="503"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="503" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plano de Homologação" sheetId="5" r:id="rId1"/>
@@ -21,12 +22,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>move0011</author>
   </authors>
   <commentList>
-    <comment ref="I20" authorId="0" shapeId="0">
+    <comment ref="I20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="164">
   <si>
     <t xml:space="preserve">Projeto: </t>
   </si>
@@ -305,9 +306,6 @@
     <t>Entrar no Site</t>
   </si>
   <si>
-    <t>Entrar no site www.meuprojeto.com</t>
-  </si>
-  <si>
     <t>Login</t>
   </si>
   <si>
@@ -320,27 +318,9 @@
     <t>Digitar uma senha válida e clicar no botão ok/login</t>
   </si>
   <si>
-    <t>Dashboard</t>
-  </si>
-  <si>
-    <t>Visualizar o Dashboard do usuário logado</t>
-  </si>
-  <si>
     <t>Verificar se os sensores exibidos são do usuário logado</t>
   </si>
   <si>
-    <t>Logout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clicar em Logout </t>
-  </si>
-  <si>
-    <t>Site</t>
-  </si>
-  <si>
-    <t>Voltar para página principal do Site</t>
-  </si>
-  <si>
     <t>Nome do Analista Desenvolvedor</t>
   </si>
   <si>
@@ -519,12 +499,54 @@
   </si>
   <si>
     <t>RF12-2.2</t>
+  </si>
+  <si>
+    <t>Entrar no site nexustech.azurewebsites.net</t>
+  </si>
+  <si>
+    <t>Cadastro</t>
+  </si>
+  <si>
+    <t>Grafico</t>
+  </si>
+  <si>
+    <t>Perfeito</t>
+  </si>
+  <si>
+    <t>Visualizar o Grafico do usuário logado</t>
+  </si>
+  <si>
+    <t>Selecionar o menu cadastro</t>
+  </si>
+  <si>
+    <t>preencher formulario de cadastro</t>
+  </si>
+  <si>
+    <t>visualizar alerta em tempo real</t>
+  </si>
+  <si>
+    <t>verificar se alertas estão sendo emitidos via SMS ao usuario</t>
+  </si>
+  <si>
+    <t>Historico</t>
+  </si>
+  <si>
+    <t>visualizar media e mediana do dia em tabelas de historico</t>
+  </si>
+  <si>
+    <t>verificar calculo matematico, aplicação e sensor para que seja relizado.</t>
+  </si>
+  <si>
+    <t>Romão vitor</t>
+  </si>
+  <si>
+    <t>Falta ajustar mais e priciso de ajuda kkk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00;[Red]\-[$$-409]#,##0.00"/>
   </numFmts>
@@ -1136,7 +1158,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1400,26 +1422,6 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1427,6 +1429,29 @@
     <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1435,31 +1460,23 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1467,6 +1484,12 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1476,40 +1499,39 @@
     <xf numFmtId="0" fontId="17" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1544,23 +1566,26 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="15">
-    <cellStyle name="Background" xfId="1"/>
-    <cellStyle name="Card" xfId="2"/>
-    <cellStyle name="Card B" xfId="3"/>
-    <cellStyle name="Card BL" xfId="4"/>
-    <cellStyle name="Card BR" xfId="5"/>
-    <cellStyle name="Card L" xfId="6"/>
-    <cellStyle name="Card R" xfId="7"/>
-    <cellStyle name="Card T" xfId="8"/>
-    <cellStyle name="Card TL" xfId="9"/>
-    <cellStyle name="Card TR" xfId="10"/>
-    <cellStyle name="Column Header" xfId="11"/>
+    <cellStyle name="Background" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Card" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Card B" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Card BL" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Card BR" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Card L" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Card R" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Card T" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Card TL" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Card TR" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Column Header" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Hiperlink" xfId="12" builtinId="8"/>
-    <cellStyle name="Input" xfId="13"/>
+    <cellStyle name="Input" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="14"/>
+    <cellStyle name="Normal 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1846,6 +1871,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1881,6 +1923,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2056,10 +2115,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -2097,13 +2156,13 @@
     </row>
     <row r="2" spans="1:20" s="22" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="53"/>
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="104"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="57"/>
       <c r="H2" s="57"/>
       <c r="I2" s="57"/>
@@ -2113,11 +2172,11 @@
     </row>
     <row r="3" spans="1:20" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="53"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="107"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="95"/>
       <c r="G3" s="57"/>
       <c r="H3" s="57"/>
       <c r="I3" s="57"/>
@@ -2144,10 +2203,10 @@
       <c r="B5" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" s="98"/>
+      <c r="C5" s="96" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="97"/>
       <c r="E5" s="28"/>
       <c r="F5" s="29"/>
       <c r="G5" s="28"/>
@@ -2162,8 +2221,8 @@
       <c r="B6" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="97"/>
-      <c r="D6" s="98"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="97"/>
       <c r="E6" s="28"/>
       <c r="F6" s="29"/>
       <c r="G6" s="28"/>
@@ -2178,8 +2237,8 @@
       <c r="B7" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="97"/>
-      <c r="D7" s="98"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="97"/>
       <c r="E7" s="28"/>
       <c r="F7" s="29"/>
       <c r="G7" s="28"/>
@@ -2194,10 +2253,10 @@
       <c r="B8" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="97" t="s">
-        <v>151</v>
-      </c>
-      <c r="D8" s="98"/>
+      <c r="C8" s="96" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="97"/>
       <c r="E8" s="28"/>
       <c r="F8" s="29"/>
       <c r="G8" s="28"/>
@@ -2210,10 +2269,10 @@
     <row r="9" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="24"/>
       <c r="B9" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="97"/>
-      <c r="D9" s="98"/>
+        <v>92</v>
+      </c>
+      <c r="C9" s="96"/>
+      <c r="D9" s="97"/>
       <c r="E9" s="28"/>
       <c r="F9" s="29"/>
       <c r="G9" s="28"/>
@@ -2239,16 +2298,16 @@
     </row>
     <row r="11" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24"/>
-      <c r="B11" s="99" t="s">
+      <c r="B11" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="101"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="102"/>
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
       <c r="L11" s="24"/>
@@ -2260,14 +2319,14 @@
       <c r="B12" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="82" t="s">
+      <c r="C12" s="103" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="83"/>
-      <c r="E12" s="82" t="s">
+      <c r="D12" s="104"/>
+      <c r="E12" s="103" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="83"/>
+      <c r="F12" s="104"/>
       <c r="G12" s="68" t="s">
         <v>25</v>
       </c>
@@ -2288,24 +2347,24 @@
     <row r="13" spans="1:20" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="54"/>
       <c r="B13" s="63" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13" s="86" t="s">
-        <v>110</v>
-      </c>
-      <c r="D13" s="92"/>
-      <c r="E13" s="84" t="s">
-        <v>112</v>
-      </c>
-      <c r="F13" s="85"/>
+        <v>99</v>
+      </c>
+      <c r="C13" s="80" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="85"/>
+      <c r="E13" s="105" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="106"/>
       <c r="G13" s="69" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="H13" s="70">
         <v>43608</v>
       </c>
       <c r="I13" s="69" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="J13" s="62"/>
       <c r="K13" s="62"/>
@@ -2318,24 +2377,24 @@
     <row r="14" spans="1:20" s="4" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="54"/>
       <c r="B14" s="71" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14" s="95" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" s="96"/>
-      <c r="E14" s="90" t="s">
-        <v>113</v>
-      </c>
-      <c r="F14" s="91"/>
+        <v>100</v>
+      </c>
+      <c r="C14" s="111" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="112"/>
+      <c r="E14" s="107" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="108"/>
       <c r="G14" s="72" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="H14" s="73">
         <v>43610</v>
       </c>
       <c r="I14" s="72" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="J14" s="62"/>
       <c r="K14" s="62"/>
@@ -2348,24 +2407,24 @@
     <row r="15" spans="1:20" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="54"/>
       <c r="B15" s="63" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="86" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="85"/>
+      <c r="E15" s="80" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="92"/>
-      <c r="E15" s="86" t="s">
-        <v>118</v>
-      </c>
-      <c r="F15" s="92"/>
+      <c r="F15" s="85"/>
       <c r="G15" s="69" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="H15" s="70">
         <v>43617</v>
       </c>
       <c r="I15" s="69" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="J15" s="62"/>
       <c r="K15" s="62"/>
@@ -2378,24 +2437,24 @@
     <row r="16" spans="1:20" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="54"/>
       <c r="B16" s="63" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" s="86" t="s">
-        <v>117</v>
-      </c>
-      <c r="D16" s="92"/>
-      <c r="E16" s="86" t="s">
-        <v>119</v>
-      </c>
-      <c r="F16" s="92"/>
+        <v>102</v>
+      </c>
+      <c r="C16" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="85"/>
+      <c r="E16" s="80" t="s">
+        <v>112</v>
+      </c>
+      <c r="F16" s="85"/>
       <c r="G16" s="69" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="H16" s="70">
         <v>43612</v>
       </c>
       <c r="I16" s="69" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="J16" s="62"/>
       <c r="K16" s="62"/>
@@ -2408,24 +2467,24 @@
     <row r="17" spans="1:21" s="4" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="54"/>
       <c r="B17" s="63" t="s">
-        <v>131</v>
-      </c>
-      <c r="C17" s="86" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17" s="92"/>
-      <c r="E17" s="86" t="s">
-        <v>121</v>
-      </c>
-      <c r="F17" s="92"/>
+        <v>124</v>
+      </c>
+      <c r="C17" s="80" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="85"/>
+      <c r="E17" s="80" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="85"/>
       <c r="G17" s="69" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H17" s="70">
         <v>43611</v>
       </c>
       <c r="I17" s="69" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="J17" s="62"/>
       <c r="K17" s="62"/>
@@ -2455,17 +2514,17 @@
     </row>
     <row r="19" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="55"/>
-      <c r="B19" s="93" t="s">
+      <c r="B19" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="94"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="94"/>
-      <c r="H19" s="94"/>
-      <c r="I19" s="94"/>
-      <c r="J19" s="94"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="110"/>
+      <c r="J19" s="110"/>
       <c r="K19" s="24"/>
       <c r="L19" s="24"/>
     </row>
@@ -2474,18 +2533,18 @@
       <c r="B20" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="80" t="s">
+      <c r="C20" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="81"/>
-      <c r="E20" s="80" t="s">
+      <c r="D20" s="99"/>
+      <c r="E20" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="81"/>
-      <c r="G20" s="80" t="s">
+      <c r="F20" s="99"/>
+      <c r="G20" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="81"/>
+      <c r="H20" s="99"/>
       <c r="I20" s="67" t="s">
         <v>27</v>
       </c>
@@ -2502,25 +2561,25 @@
     <row r="21" spans="1:21" s="4" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="54"/>
       <c r="B21" s="63" t="s">
-        <v>152</v>
-      </c>
-      <c r="C21" s="86" t="s">
-        <v>129</v>
-      </c>
-      <c r="D21" s="87"/>
-      <c r="E21" s="86" t="s">
-        <v>134</v>
-      </c>
-      <c r="F21" s="87"/>
-      <c r="G21" s="86" t="s">
-        <v>130</v>
-      </c>
-      <c r="H21" s="87"/>
+        <v>145</v>
+      </c>
+      <c r="C21" s="80" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" s="81"/>
+      <c r="E21" s="80" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21" s="81"/>
+      <c r="G21" s="80" t="s">
+        <v>123</v>
+      </c>
+      <c r="H21" s="81"/>
       <c r="I21" s="74" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="J21" s="69" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="K21" s="27"/>
       <c r="L21" s="27"/>
@@ -2532,25 +2591,25 @@
     <row r="22" spans="1:21" s="4" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="54"/>
       <c r="B22" s="63" t="s">
-        <v>152</v>
-      </c>
-      <c r="C22" s="86" t="s">
-        <v>135</v>
-      </c>
-      <c r="D22" s="92"/>
-      <c r="E22" s="84" t="s">
-        <v>132</v>
-      </c>
-      <c r="F22" s="85"/>
+        <v>145</v>
+      </c>
+      <c r="C22" s="80" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" s="85"/>
+      <c r="E22" s="105" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="106"/>
       <c r="G22" s="88" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="H22" s="89"/>
       <c r="I22" s="76" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="J22" s="69" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="K22" s="27"/>
       <c r="L22" s="27"/>
@@ -2562,25 +2621,25 @@
     <row r="23" spans="1:21" s="4" customFormat="1" ht="77.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="54"/>
       <c r="B23" s="63" t="s">
-        <v>153</v>
-      </c>
-      <c r="C23" s="86" t="s">
-        <v>123</v>
-      </c>
-      <c r="D23" s="87"/>
-      <c r="E23" s="86" t="s">
-        <v>124</v>
-      </c>
-      <c r="F23" s="87"/>
-      <c r="G23" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="H23" s="87"/>
+        <v>146</v>
+      </c>
+      <c r="C23" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="81"/>
+      <c r="E23" s="80" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" s="81"/>
+      <c r="G23" s="80" t="s">
+        <v>118</v>
+      </c>
+      <c r="H23" s="81"/>
       <c r="I23" s="74" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="J23" s="69" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="K23" s="27"/>
       <c r="L23" s="27"/>
@@ -2592,25 +2651,25 @@
     <row r="24" spans="1:21" s="4" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="54"/>
       <c r="B24" s="63" t="s">
-        <v>153</v>
-      </c>
-      <c r="C24" s="86" t="s">
-        <v>139</v>
-      </c>
-      <c r="D24" s="92"/>
-      <c r="E24" s="108" t="s">
-        <v>140</v>
-      </c>
-      <c r="F24" s="109"/>
+        <v>146</v>
+      </c>
+      <c r="C24" s="80" t="s">
+        <v>132</v>
+      </c>
+      <c r="D24" s="85"/>
+      <c r="E24" s="86" t="s">
+        <v>133</v>
+      </c>
+      <c r="F24" s="87"/>
       <c r="G24" s="88" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="H24" s="89"/>
       <c r="I24" s="78" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="J24" s="69" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="K24" s="27"/>
       <c r="L24" s="27"/>
@@ -2622,25 +2681,25 @@
     <row r="25" spans="1:21" s="4" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="54"/>
       <c r="B25" s="63" t="s">
-        <v>154</v>
-      </c>
-      <c r="C25" s="86" t="s">
-        <v>142</v>
-      </c>
-      <c r="D25" s="87"/>
-      <c r="E25" s="86" t="s">
-        <v>137</v>
-      </c>
-      <c r="F25" s="110"/>
-      <c r="G25" s="111" t="s">
-        <v>145</v>
-      </c>
-      <c r="H25" s="112"/>
+        <v>147</v>
+      </c>
+      <c r="C25" s="80" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" s="81"/>
+      <c r="E25" s="80" t="s">
+        <v>130</v>
+      </c>
+      <c r="F25" s="82"/>
+      <c r="G25" s="83" t="s">
+        <v>138</v>
+      </c>
+      <c r="H25" s="84"/>
       <c r="I25" s="76" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="J25" s="69" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="K25" s="27"/>
       <c r="L25" s="27"/>
@@ -2652,25 +2711,25 @@
     <row r="26" spans="1:21" s="4" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="54"/>
       <c r="B26" s="63" t="s">
-        <v>155</v>
-      </c>
-      <c r="C26" s="86" t="s">
-        <v>143</v>
-      </c>
-      <c r="D26" s="92"/>
-      <c r="E26" s="86" t="s">
-        <v>144</v>
-      </c>
-      <c r="F26" s="92"/>
-      <c r="G26" s="111" t="s">
-        <v>147</v>
-      </c>
-      <c r="H26" s="112"/>
+        <v>148</v>
+      </c>
+      <c r="C26" s="80" t="s">
+        <v>136</v>
+      </c>
+      <c r="D26" s="85"/>
+      <c r="E26" s="80" t="s">
+        <v>137</v>
+      </c>
+      <c r="F26" s="85"/>
+      <c r="G26" s="83" t="s">
+        <v>140</v>
+      </c>
+      <c r="H26" s="84"/>
       <c r="I26" s="76" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="J26" s="69" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="K26" s="27"/>
       <c r="L26" s="27"/>
@@ -2682,25 +2741,25 @@
     <row r="27" spans="1:21" s="4" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="54"/>
       <c r="B27" s="63" t="s">
-        <v>156</v>
-      </c>
-      <c r="C27" s="86" t="s">
-        <v>148</v>
-      </c>
-      <c r="D27" s="92"/>
-      <c r="E27" s="86" t="s">
-        <v>150</v>
-      </c>
-      <c r="F27" s="92"/>
-      <c r="G27" s="111" t="s">
         <v>149</v>
       </c>
-      <c r="H27" s="112"/>
+      <c r="C27" s="80" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27" s="85"/>
+      <c r="E27" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="F27" s="85"/>
+      <c r="G27" s="83" t="s">
+        <v>142</v>
+      </c>
+      <c r="H27" s="84"/>
       <c r="I27" s="76" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="J27" s="69" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="K27" s="27"/>
       <c r="L27" s="27"/>
@@ -2742,7 +2801,7 @@
         <v>19</v>
       </c>
       <c r="C30" s="75" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
@@ -2863,37 +2922,6 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C12:D12"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="G21:H21"/>
@@ -2908,15 +2936,46 @@
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I13:I17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I13:I17" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Não Iniciado, Em andamento, Concluído, Pendente"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J21:J27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J21:J27" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Não testado,Testado- NÃO OK,Testado - OK"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I21:I27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I21:I27" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Essencial, Importante, Desejável"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2927,7 +2986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -2975,7 +3034,7 @@
         <v>42</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3007,7 +3066,7 @@
         <v>38</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3331,7 +3390,7 @@
         <v>5</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
@@ -3350,8 +3409,8 @@
     <mergeCell ref="B15:C15"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1"/>
-    <hyperlink ref="B11" r:id="rId2"/>
+    <hyperlink ref="B10" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B11" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0" footer="9.8611111111111122E-2"/>
@@ -3364,11 +3423,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:F3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3430,144 +3489,192 @@
         <v>84</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="21"/>
+      <c r="F6" s="123" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="19">
         <v>2</v>
       </c>
       <c r="C7" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="19" t="s">
         <v>86</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>87</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="21"/>
+      <c r="F7" s="123" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="19">
         <v>3</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="21"/>
+      <c r="F8" s="123" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="19">
         <v>4</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="21"/>
+      <c r="F9" s="123" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="19">
         <v>5</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>90</v>
+        <v>152</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="21"/>
+      <c r="F10" s="123" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="19">
         <v>6</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>90</v>
+        <v>152</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="21"/>
+      <c r="F11" s="123" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="19">
         <v>7</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>93</v>
+        <v>151</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>94</v>
+        <v>155</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="21"/>
+      <c r="F12" s="123" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" s="19">
         <v>8</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>95</v>
+        <v>151</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>96</v>
+        <v>156</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="21"/>
+      <c r="F13" s="123"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="21"/>
+      <c r="B14" s="19">
+        <v>9</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="123"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="21"/>
+      <c r="B15" s="19">
+        <v>10</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="123" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20"/>
+      <c r="B16" s="19">
+        <v>11</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>12</v>
+      </c>
       <c r="F16" s="21"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="20"/>
+      <c r="B17" s="19">
+        <v>12</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>12</v>
+      </c>
       <c r="F17" s="21"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
@@ -3605,7 +3712,9 @@
       <c r="C23" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="122"/>
+      <c r="D23" s="122" t="s">
+        <v>162</v>
+      </c>
       <c r="E23" s="122"/>
       <c r="F23" s="122"/>
     </row>
@@ -3614,7 +3723,9 @@
       <c r="C24" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="122"/>
+      <c r="D24" s="122" t="s">
+        <v>163</v>
+      </c>
       <c r="E24" s="122"/>
       <c r="F24" s="122"/>
     </row>

--- a/Projeto-Documentacao/Planilhas/Plano de UAT - Homol 1 Semestre 2019 v1.xlsx
+++ b/Projeto-Documentacao/Planilhas/Plano de UAT - Homol 1 Semestre 2019 v1.xlsx
@@ -1,33 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\REGINALDO\Desktop\grupo3-sa\Projeto-Documentacao\Planilhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\grupo3-sa\Projeto-Documentacao\Planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C7EFE2-46CA-42E0-9B9D-DCCDEBE7D96C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="503" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="503"/>
   </bookViews>
   <sheets>
     <sheet name="Plano de Homologação" sheetId="5" r:id="rId1"/>
     <sheet name="Cenário 1 - Login" sheetId="6" r:id="rId2"/>
-    <sheet name="Regressão Básica" sheetId="4" r:id="rId3"/>
+    <sheet name="Cenário 2 - Cadastro" sheetId="9" r:id="rId3"/>
+    <sheet name="Cenário 3 - Grafico" sheetId="8" r:id="rId4"/>
+    <sheet name="Regressão Básica" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>move0011</author>
   </authors>
   <commentList>
-    <comment ref="I20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="I20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="166">
   <si>
     <t xml:space="preserve">Projeto: </t>
   </si>
@@ -258,9 +259,6 @@
     <t xml:space="preserve">Consistir o campo "Senha" com dados válidos	</t>
   </si>
   <si>
-    <t>XXXX</t>
-  </si>
-  <si>
     <t>Login.js</t>
   </si>
   <si>
@@ -270,12 +268,6 @@
     <t>Testar o login do usuário</t>
   </si>
   <si>
-    <t>Email do usuário =  brandao@gmail.com</t>
-  </si>
-  <si>
-    <t>Abrir o site www.xxx.com, selecionar a opção/menu LOGIN; digitar email do usuário no  campo Login; ir para campo Senha</t>
-  </si>
-  <si>
     <t>Permitir sair do campo Login sem mensagem de Erro</t>
   </si>
   <si>
@@ -321,9 +313,6 @@
     <t>Verificar se os sensores exibidos são do usuário logado</t>
   </si>
   <si>
-    <t>Nome do Analista Desenvolvedor</t>
-  </si>
-  <si>
     <t>Nome de quem efetuará os testes/Homologação</t>
   </si>
   <si>
@@ -345,9 +334,6 @@
     <t>Nexus Tech</t>
   </si>
   <si>
-    <t>Em andamento</t>
-  </si>
-  <si>
     <t>1.0</t>
   </si>
   <si>
@@ -411,9 +397,6 @@
     <t>Essencial</t>
   </si>
   <si>
-    <t>Não testado</t>
-  </si>
-  <si>
     <t>Importante</t>
   </si>
   <si>
@@ -541,12 +524,36 @@
   </si>
   <si>
     <t>Falta ajustar mais e priciso de ajuda kkk</t>
+  </si>
+  <si>
+    <t>Abrir o site nexustech.azurewebsites.net, selecionar a opção/menu LOGIN; digitar email do usuário no  campo Login; ir para campo Senha</t>
+  </si>
+  <si>
+    <t>Email do usuário =  xxxx@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">romao vitor </t>
+  </si>
+  <si>
+    <t>Testar o Cadastro do usuário</t>
+  </si>
+  <si>
+    <t>RF7-1.1-TC01</t>
+  </si>
+  <si>
+    <t>RF7-1.1-TC02</t>
+  </si>
+  <si>
+    <t>Email do usuário =  Email@gmail.com</t>
+  </si>
+  <si>
+    <t>RF7-1.1-TC03</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00;[Red]\-[$$-409]#,##0.00"/>
   </numFmts>
@@ -1158,7 +1165,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1422,6 +1429,13 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1460,6 +1474,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1484,12 +1510,6 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1499,12 +1519,6 @@
     <xf numFmtId="0" fontId="17" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1566,26 +1580,23 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="15">
-    <cellStyle name="Background" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Card" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Card B" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Card BL" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Card BR" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Card L" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Card R" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Card T" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Card TL" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Card TR" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Column Header" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Background" xfId="1"/>
+    <cellStyle name="Card" xfId="2"/>
+    <cellStyle name="Card B" xfId="3"/>
+    <cellStyle name="Card BL" xfId="4"/>
+    <cellStyle name="Card BR" xfId="5"/>
+    <cellStyle name="Card L" xfId="6"/>
+    <cellStyle name="Card R" xfId="7"/>
+    <cellStyle name="Card T" xfId="8"/>
+    <cellStyle name="Card TL" xfId="9"/>
+    <cellStyle name="Card TR" xfId="10"/>
+    <cellStyle name="Column Header" xfId="11"/>
     <cellStyle name="Hiperlink" xfId="12" builtinId="8"/>
-    <cellStyle name="Input" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Input" xfId="13"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Normal 2" xfId="14"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1795,6 +1806,133 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1554704</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>909119</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1" descr="Resultado de imagem para tela de cadastro">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37D44E19-A07C-4042-8378-F2667AE8DBB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="11677650" y="11877674"/>
+          <a:ext cx="1002254" cy="804345"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>129294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1495425</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>947219</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2" descr="Resultado de imagem para tela de cadastro">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{912CB92F-ACFA-418B-A2FE-A5D0AE3FEF1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="11601450" y="8320794"/>
+          <a:ext cx="1019175" cy="817925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -1871,23 +2009,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1923,23 +2044,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2115,11 +2219,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2156,13 +2260,13 @@
     </row>
     <row r="2" spans="1:20" s="22" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="53"/>
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="92"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="98"/>
       <c r="G2" s="57"/>
       <c r="H2" s="57"/>
       <c r="I2" s="57"/>
@@ -2172,11 +2276,11 @@
     </row>
     <row r="3" spans="1:20" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="53"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="95"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="101"/>
       <c r="G3" s="57"/>
       <c r="H3" s="57"/>
       <c r="I3" s="57"/>
@@ -2203,10 +2307,10 @@
       <c r="B5" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="96" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="97"/>
+      <c r="C5" s="102" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="103"/>
       <c r="E5" s="28"/>
       <c r="F5" s="29"/>
       <c r="G5" s="28"/>
@@ -2221,8 +2325,8 @@
       <c r="B6" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="96"/>
-      <c r="D6" s="97"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="103"/>
       <c r="E6" s="28"/>
       <c r="F6" s="29"/>
       <c r="G6" s="28"/>
@@ -2237,8 +2341,8 @@
       <c r="B7" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="96"/>
-      <c r="D7" s="97"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="103"/>
       <c r="E7" s="28"/>
       <c r="F7" s="29"/>
       <c r="G7" s="28"/>
@@ -2253,10 +2357,10 @@
       <c r="B8" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="96" t="s">
-        <v>144</v>
-      </c>
-      <c r="D8" s="97"/>
+      <c r="C8" s="102" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="103"/>
       <c r="E8" s="28"/>
       <c r="F8" s="29"/>
       <c r="G8" s="28"/>
@@ -2269,10 +2373,10 @@
     <row r="9" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="24"/>
       <c r="B9" s="61" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" s="96"/>
-      <c r="D9" s="97"/>
+        <v>88</v>
+      </c>
+      <c r="C9" s="102"/>
+      <c r="D9" s="103"/>
       <c r="E9" s="28"/>
       <c r="F9" s="29"/>
       <c r="G9" s="28"/>
@@ -2298,16 +2402,16 @@
     </row>
     <row r="11" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24"/>
-      <c r="B11" s="100" t="s">
+      <c r="B11" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="102"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="106"/>
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
       <c r="L11" s="24"/>
@@ -2319,14 +2423,14 @@
       <c r="B12" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="103" t="s">
+      <c r="C12" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="104"/>
-      <c r="E12" s="103" t="s">
+      <c r="D12" s="95"/>
+      <c r="E12" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="104"/>
+      <c r="F12" s="95"/>
       <c r="G12" s="68" t="s">
         <v>25</v>
       </c>
@@ -2347,24 +2451,24 @@
     <row r="13" spans="1:20" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="54"/>
       <c r="B13" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="80" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" s="85"/>
-      <c r="E13" s="105" t="s">
-        <v>105</v>
-      </c>
-      <c r="F13" s="106"/>
+        <v>94</v>
+      </c>
+      <c r="C13" s="82" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="87"/>
+      <c r="E13" s="107" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="108"/>
       <c r="G13" s="69" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H13" s="70">
         <v>43608</v>
       </c>
       <c r="I13" s="69" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="J13" s="62"/>
       <c r="K13" s="62"/>
@@ -2377,24 +2481,24 @@
     <row r="14" spans="1:20" s="4" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="54"/>
       <c r="B14" s="71" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="111" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="112"/>
-      <c r="E14" s="107" t="s">
-        <v>106</v>
-      </c>
-      <c r="F14" s="108"/>
+        <v>95</v>
+      </c>
+      <c r="C14" s="113" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="114"/>
+      <c r="E14" s="109" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="110"/>
       <c r="G14" s="72" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H14" s="73">
         <v>43610</v>
       </c>
       <c r="I14" s="72" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J14" s="62"/>
       <c r="K14" s="62"/>
@@ -2407,24 +2511,24 @@
     <row r="15" spans="1:20" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="54"/>
       <c r="B15" s="63" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" s="80" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="85"/>
-      <c r="E15" s="80" t="s">
-        <v>111</v>
-      </c>
-      <c r="F15" s="85"/>
+        <v>96</v>
+      </c>
+      <c r="C15" s="82" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="87"/>
+      <c r="E15" s="82" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="87"/>
       <c r="G15" s="69" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H15" s="70">
         <v>43617</v>
       </c>
       <c r="I15" s="69" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J15" s="62"/>
       <c r="K15" s="62"/>
@@ -2437,24 +2541,24 @@
     <row r="16" spans="1:20" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="54"/>
       <c r="B16" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" s="80" t="s">
-        <v>110</v>
-      </c>
-      <c r="D16" s="85"/>
-      <c r="E16" s="80" t="s">
-        <v>112</v>
-      </c>
-      <c r="F16" s="85"/>
+        <v>97</v>
+      </c>
+      <c r="C16" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="87"/>
+      <c r="E16" s="82" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="87"/>
       <c r="G16" s="69" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H16" s="70">
         <v>43612</v>
       </c>
       <c r="I16" s="69" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="J16" s="62"/>
       <c r="K16" s="62"/>
@@ -2467,24 +2571,24 @@
     <row r="17" spans="1:21" s="4" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="54"/>
       <c r="B17" s="63" t="s">
-        <v>124</v>
-      </c>
-      <c r="C17" s="80" t="s">
-        <v>113</v>
-      </c>
-      <c r="D17" s="85"/>
-      <c r="E17" s="80" t="s">
-        <v>114</v>
-      </c>
-      <c r="F17" s="85"/>
+        <v>118</v>
+      </c>
+      <c r="C17" s="82" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="87"/>
+      <c r="E17" s="82" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="87"/>
       <c r="G17" s="69" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H17" s="70">
         <v>43611</v>
       </c>
       <c r="I17" s="69" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J17" s="62"/>
       <c r="K17" s="62"/>
@@ -2514,17 +2618,17 @@
     </row>
     <row r="19" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="55"/>
-      <c r="B19" s="109" t="s">
+      <c r="B19" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="110"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="110"/>
-      <c r="H19" s="110"/>
-      <c r="I19" s="110"/>
-      <c r="J19" s="110"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="112"/>
+      <c r="H19" s="112"/>
+      <c r="I19" s="112"/>
+      <c r="J19" s="112"/>
       <c r="K19" s="24"/>
       <c r="L19" s="24"/>
     </row>
@@ -2533,18 +2637,18 @@
       <c r="B20" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="98" t="s">
+      <c r="C20" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="99"/>
-      <c r="E20" s="98" t="s">
+      <c r="D20" s="93"/>
+      <c r="E20" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="99"/>
-      <c r="G20" s="98" t="s">
+      <c r="F20" s="93"/>
+      <c r="G20" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="99"/>
+      <c r="H20" s="93"/>
       <c r="I20" s="67" t="s">
         <v>27</v>
       </c>
@@ -2561,25 +2665,25 @@
     <row r="21" spans="1:21" s="4" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="54"/>
       <c r="B21" s="63" t="s">
-        <v>145</v>
-      </c>
-      <c r="C21" s="80" t="s">
-        <v>122</v>
-      </c>
-      <c r="D21" s="81"/>
-      <c r="E21" s="80" t="s">
-        <v>127</v>
-      </c>
-      <c r="F21" s="81"/>
-      <c r="G21" s="80" t="s">
-        <v>123</v>
-      </c>
-      <c r="H21" s="81"/>
+        <v>139</v>
+      </c>
+      <c r="C21" s="82" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="83"/>
+      <c r="E21" s="82" t="s">
+        <v>121</v>
+      </c>
+      <c r="F21" s="83"/>
+      <c r="G21" s="82" t="s">
+        <v>117</v>
+      </c>
+      <c r="H21" s="83"/>
       <c r="I21" s="74" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="J21" s="69" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="K21" s="27"/>
       <c r="L21" s="27"/>
@@ -2591,25 +2695,25 @@
     <row r="22" spans="1:21" s="4" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="54"/>
       <c r="B22" s="63" t="s">
-        <v>145</v>
-      </c>
-      <c r="C22" s="80" t="s">
-        <v>128</v>
-      </c>
-      <c r="D22" s="85"/>
-      <c r="E22" s="105" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" s="87"/>
+      <c r="E22" s="107" t="s">
+        <v>119</v>
+      </c>
+      <c r="F22" s="108"/>
+      <c r="G22" s="90" t="s">
+        <v>120</v>
+      </c>
+      <c r="H22" s="91"/>
+      <c r="I22" s="76" t="s">
+        <v>114</v>
+      </c>
+      <c r="J22" s="69" t="s">
         <v>125</v>
-      </c>
-      <c r="F22" s="106"/>
-      <c r="G22" s="88" t="s">
-        <v>126</v>
-      </c>
-      <c r="H22" s="89"/>
-      <c r="I22" s="76" t="s">
-        <v>119</v>
-      </c>
-      <c r="J22" s="69" t="s">
-        <v>120</v>
       </c>
       <c r="K22" s="27"/>
       <c r="L22" s="27"/>
@@ -2621,25 +2725,25 @@
     <row r="23" spans="1:21" s="4" customFormat="1" ht="77.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="54"/>
       <c r="B23" s="63" t="s">
-        <v>146</v>
-      </c>
-      <c r="C23" s="80" t="s">
-        <v>116</v>
-      </c>
-      <c r="D23" s="81"/>
-      <c r="E23" s="80" t="s">
-        <v>117</v>
-      </c>
-      <c r="F23" s="81"/>
-      <c r="G23" s="80" t="s">
-        <v>118</v>
-      </c>
-      <c r="H23" s="81"/>
+        <v>140</v>
+      </c>
+      <c r="C23" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="83"/>
+      <c r="E23" s="82" t="s">
+        <v>112</v>
+      </c>
+      <c r="F23" s="83"/>
+      <c r="G23" s="82" t="s">
+        <v>113</v>
+      </c>
+      <c r="H23" s="83"/>
       <c r="I23" s="74" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="J23" s="69" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="K23" s="27"/>
       <c r="L23" s="27"/>
@@ -2651,25 +2755,25 @@
     <row r="24" spans="1:21" s="4" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="54"/>
       <c r="B24" s="63" t="s">
-        <v>146</v>
-      </c>
-      <c r="C24" s="80" t="s">
-        <v>132</v>
-      </c>
-      <c r="D24" s="85"/>
-      <c r="E24" s="86" t="s">
-        <v>133</v>
-      </c>
-      <c r="F24" s="87"/>
-      <c r="G24" s="88" t="s">
-        <v>134</v>
-      </c>
-      <c r="H24" s="89"/>
+        <v>140</v>
+      </c>
+      <c r="C24" s="82" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="87"/>
+      <c r="E24" s="88" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24" s="89"/>
+      <c r="G24" s="90" t="s">
+        <v>128</v>
+      </c>
+      <c r="H24" s="91"/>
       <c r="I24" s="78" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="J24" s="69" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="K24" s="27"/>
       <c r="L24" s="27"/>
@@ -2681,25 +2785,25 @@
     <row r="25" spans="1:21" s="4" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="54"/>
       <c r="B25" s="63" t="s">
-        <v>147</v>
-      </c>
-      <c r="C25" s="80" t="s">
-        <v>135</v>
-      </c>
-      <c r="D25" s="81"/>
-      <c r="E25" s="80" t="s">
-        <v>130</v>
-      </c>
-      <c r="F25" s="82"/>
-      <c r="G25" s="83" t="s">
-        <v>138</v>
-      </c>
-      <c r="H25" s="84"/>
+        <v>141</v>
+      </c>
+      <c r="C25" s="82" t="s">
+        <v>129</v>
+      </c>
+      <c r="D25" s="83"/>
+      <c r="E25" s="82" t="s">
+        <v>124</v>
+      </c>
+      <c r="F25" s="84"/>
+      <c r="G25" s="85" t="s">
+        <v>132</v>
+      </c>
+      <c r="H25" s="86"/>
       <c r="I25" s="76" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="J25" s="69" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="K25" s="27"/>
       <c r="L25" s="27"/>
@@ -2711,25 +2815,25 @@
     <row r="26" spans="1:21" s="4" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="54"/>
       <c r="B26" s="63" t="s">
-        <v>148</v>
-      </c>
-      <c r="C26" s="80" t="s">
-        <v>136</v>
-      </c>
-      <c r="D26" s="85"/>
-      <c r="E26" s="80" t="s">
-        <v>137</v>
-      </c>
-      <c r="F26" s="85"/>
-      <c r="G26" s="83" t="s">
-        <v>140</v>
-      </c>
-      <c r="H26" s="84"/>
+        <v>142</v>
+      </c>
+      <c r="C26" s="82" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" s="87"/>
+      <c r="E26" s="82" t="s">
+        <v>131</v>
+      </c>
+      <c r="F26" s="87"/>
+      <c r="G26" s="85" t="s">
+        <v>134</v>
+      </c>
+      <c r="H26" s="86"/>
       <c r="I26" s="76" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="J26" s="69" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="K26" s="27"/>
       <c r="L26" s="27"/>
@@ -2741,25 +2845,25 @@
     <row r="27" spans="1:21" s="4" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="54"/>
       <c r="B27" s="63" t="s">
-        <v>149</v>
-      </c>
-      <c r="C27" s="80" t="s">
-        <v>141</v>
-      </c>
-      <c r="D27" s="85"/>
-      <c r="E27" s="80" t="s">
         <v>143</v>
       </c>
-      <c r="F27" s="85"/>
-      <c r="G27" s="83" t="s">
-        <v>142</v>
-      </c>
-      <c r="H27" s="84"/>
+      <c r="C27" s="82" t="s">
+        <v>135</v>
+      </c>
+      <c r="D27" s="87"/>
+      <c r="E27" s="82" t="s">
+        <v>137</v>
+      </c>
+      <c r="F27" s="87"/>
+      <c r="G27" s="85" t="s">
+        <v>136</v>
+      </c>
+      <c r="H27" s="86"/>
       <c r="I27" s="76" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="J27" s="69" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="K27" s="27"/>
       <c r="L27" s="27"/>
@@ -2801,7 +2905,7 @@
         <v>19</v>
       </c>
       <c r="C30" s="75" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
@@ -2938,11 +3042,6 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B11:I11"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="B2:F2"/>
@@ -2952,6 +3051,11 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B11:I11"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="C24:D24"/>
@@ -2969,13 +3073,13 @@
     <mergeCell ref="G26:H26"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I13:I17" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I13:I17">
       <formula1>"Não Iniciado, Em andamento, Concluído, Pendente"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J21:J27" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J21:J27">
       <formula1>"Não testado,Testado- NÃO OK,Testado - OK"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I21:I27" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I21:I27">
       <formula1>"Essencial, Importante, Desejável"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2986,11 +3090,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3018,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3034,7 +3138,7 @@
         <v>42</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>90</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3042,7 +3146,7 @@
         <v>41</v>
       </c>
       <c r="B4" s="36">
-        <v>43598</v>
+        <v>43614</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3066,12 +3170,12 @@
         <v>38</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" s="39" t="s">
         <v>37</v>
@@ -3079,7 +3183,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="39" t="s">
         <v>36</v>
@@ -3097,10 +3201,10 @@
       <c r="A15" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="113" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="113"/>
+      <c r="B15" s="115" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="115"/>
       <c r="D15" s="41"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
@@ -3156,21 +3260,21 @@
       <c r="S24" s="44"/>
       <c r="T24" s="44"/>
     </row>
-    <row r="25" spans="1:20" s="43" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" s="43" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A25" s="42" t="s">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="B25" s="42" t="s">
         <v>66</v>
       </c>
       <c r="C25" s="45" t="s">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="D25" s="45" t="s">
-        <v>73</v>
+        <v>164</v>
       </c>
       <c r="E25" s="45" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F25" s="46"/>
       <c r="G25" s="47" t="s">
@@ -3187,28 +3291,28 @@
       <c r="S25" s="44"/>
       <c r="T25" s="44"/>
     </row>
-    <row r="26" spans="1:20" s="43" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" s="43" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A26" s="42" t="s">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="B26" s="42" t="s">
         <v>66</v>
       </c>
       <c r="C26" s="45" t="s">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="D26" s="45" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E26" s="45" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F26" s="46"/>
       <c r="G26" s="47" t="s">
         <v>32</v>
       </c>
       <c r="H26" s="47" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="I26" s="52" t="s">
         <v>58</v>
@@ -3218,28 +3322,28 @@
       <c r="S26" s="44"/>
       <c r="T26" s="44"/>
     </row>
-    <row r="27" spans="1:20" s="43" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" s="43" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A27" s="42" t="s">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="B27" s="42" t="s">
         <v>66</v>
       </c>
       <c r="C27" s="45" t="s">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="D27" s="45" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E27" s="45" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F27" s="46"/>
       <c r="G27" s="47" t="s">
         <v>32</v>
       </c>
       <c r="H27" s="47" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I27" s="52" t="s">
         <v>58</v>
@@ -3390,7 +3494,7 @@
         <v>5</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
@@ -3409,8 +3513,8 @@
     <mergeCell ref="B15:C15"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B11" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B10" r:id="rId1"/>
+    <hyperlink ref="B11" r:id="rId2"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0" footer="9.8611111111111122E-2"/>
@@ -3423,11 +3527,460 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" style="33" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38" style="33" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" style="33" customWidth="1"/>
+    <col min="6" max="6" width="32.42578125" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" style="33" customWidth="1"/>
+    <col min="8" max="9" width="20.85546875" style="33" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" style="33" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" style="33" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="33" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" style="33" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" style="33" customWidth="1"/>
+    <col min="15" max="15" width="32.28515625" style="35" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" style="33" customWidth="1"/>
+    <col min="17" max="16384" width="11.7109375" style="33"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="36">
+        <v>43614</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="31"/>
+      <c r="B6" s="37"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="31"/>
+      <c r="B7" s="37"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="37"/>
+      <c r="B12" s="39"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="37"/>
+      <c r="B13" s="39"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="115" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" s="115"/>
+      <c r="D15" s="81"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" s="38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" s="33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" s="33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" s="33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A24" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="44"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="44"/>
+    </row>
+    <row r="25" spans="1:20" s="43" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+      <c r="A25" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="D25" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="E25" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="46"/>
+      <c r="G25" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="44"/>
+    </row>
+    <row r="26" spans="1:20" s="43" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+      <c r="A26" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="D26" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="46"/>
+      <c r="G26" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="I26" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="44"/>
+    </row>
+    <row r="27" spans="1:20" s="43" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+      <c r="A27" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="D27" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" s="46"/>
+      <c r="G27" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="I27" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="44"/>
+    </row>
+    <row r="28" spans="1:20" s="43" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+      <c r="A28" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="46"/>
+      <c r="G28" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q28" s="44"/>
+      <c r="R28" s="44"/>
+      <c r="S28" s="44"/>
+      <c r="T28" s="44"/>
+    </row>
+    <row r="29" spans="1:20" s="43" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+      <c r="A29" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" s="46"/>
+      <c r="G29" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="44"/>
+      <c r="S29" s="44"/>
+      <c r="T29" s="44"/>
+    </row>
+    <row r="30" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="42"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="52"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="44"/>
+      <c r="S30" s="44"/>
+      <c r="T30" s="44"/>
+    </row>
+    <row r="31" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="42"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="52"/>
+      <c r="Q31" s="44"/>
+      <c r="R31" s="44"/>
+      <c r="S31" s="44"/>
+      <c r="T31" s="44"/>
+    </row>
+    <row r="32" spans="1:20" s="43" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="42"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="52"/>
+      <c r="Q32" s="44"/>
+      <c r="R32" s="44"/>
+      <c r="S32" s="44"/>
+      <c r="T32" s="44"/>
+    </row>
+    <row r="33" spans="1:20" s="43" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="42"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="23"/>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="44"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="44"/>
+    </row>
+    <row r="34" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="Q34" s="44"/>
+      <c r="R34" s="44"/>
+      <c r="S34" s="44"/>
+      <c r="T34" s="44"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A36" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A37" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="51">
+        <v>43172</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A41" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B15:C15"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B10" r:id="rId1"/>
+    <hyperlink ref="B11" r:id="rId2"/>
+  </hyperlinks>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0" footer="9.8611111111111122E-2"/>
+  <pageSetup fitToHeight="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;CSeite &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24:F24"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3444,20 +3997,20 @@
     <row r="1" spans="1:6" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:6" s="17" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="64"/>
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="116"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="118"/>
     </row>
     <row r="3" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="117"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="119"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="8"/>
@@ -3486,16 +4039,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="123" t="s">
-        <v>153</v>
+      <c r="F6" s="80" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -3503,16 +4056,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="123" t="s">
-        <v>153</v>
+      <c r="F7" s="80" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -3520,16 +4073,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="123" t="s">
-        <v>153</v>
+      <c r="F8" s="80" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -3537,16 +4090,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>85</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>88</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="123" t="s">
-        <v>153</v>
+      <c r="F9" s="80" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -3554,16 +4107,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="123" t="s">
-        <v>153</v>
+      <c r="F10" s="80" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -3571,16 +4124,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="123" t="s">
-        <v>153</v>
+      <c r="F11" s="80" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -3588,16 +4141,16 @@
         <v>7</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="123" t="s">
-        <v>153</v>
+      <c r="F12" s="80" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -3605,46 +4158,48 @@
         <v>8</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="123"/>
+      <c r="F13" s="80" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="19">
         <v>9</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="123"/>
+      <c r="F14" s="80"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="19">
         <v>10</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E15" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="123" t="s">
-        <v>153</v>
+      <c r="F15" s="80" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -3652,10 +4207,10 @@
         <v>11</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>12</v>
@@ -3667,10 +4222,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>12</v>
@@ -3700,34 +4255,34 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="14"/>
-      <c r="C22" s="120"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="120"/>
+      <c r="C22" s="122"/>
+      <c r="D22" s="122"/>
+      <c r="E22" s="122"/>
       <c r="F22" s="15"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="121" t="s">
+      <c r="B23" s="123" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="122" t="s">
-        <v>162</v>
-      </c>
-      <c r="E23" s="122"/>
-      <c r="F23" s="122"/>
+      <c r="D23" s="124" t="s">
+        <v>156</v>
+      </c>
+      <c r="E23" s="124"/>
+      <c r="F23" s="124"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="121"/>
+      <c r="B24" s="123"/>
       <c r="C24" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="122" t="s">
-        <v>163</v>
-      </c>
-      <c r="E24" s="122"/>
-      <c r="F24" s="122"/>
+      <c r="D24" s="124" t="s">
+        <v>157</v>
+      </c>
+      <c r="E24" s="124"/>
+      <c r="F24" s="124"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B27" s="12"/>

--- a/Projeto-Documentacao/Planilhas/Plano de UAT - Homol 1 Semestre 2019 v1.xlsx
+++ b/Projeto-Documentacao/Planilhas/Plano de UAT - Homol 1 Semestre 2019 v1.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\grupo3-sa\Projeto-Documentacao\Planilhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\REGINALDO\Desktop\grupo3-sa\Projeto-Documentacao\Planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7827758-73D2-4D92-B0A9-D62B521292C7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="503"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="503" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plano de Homologação" sheetId="5" r:id="rId1"/>
     <sheet name="Cenário 1 - Login" sheetId="6" r:id="rId2"/>
     <sheet name="Cenário 2 - Cadastro" sheetId="9" r:id="rId3"/>
-    <sheet name="Cenário 3 - Grafico" sheetId="8" r:id="rId4"/>
+    <sheet name="Cenário 3 - Grafico" sheetId="10" r:id="rId4"/>
     <sheet name="Regressão Básica" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -23,12 +24,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>move0011</author>
   </authors>
   <commentList>
-    <comment ref="I20" authorId="0" shapeId="0">
+    <comment ref="I20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="187">
   <si>
     <t xml:space="preserve">Projeto: </t>
   </si>
@@ -271,21 +272,12 @@
     <t>Permitir sair do campo Login sem mensagem de Erro</t>
   </si>
   <si>
-    <t>RF002-01-TC01</t>
-  </si>
-  <si>
-    <t>RF002-01-TC02</t>
-  </si>
-  <si>
     <t>Email do usuário =  EmailErrado.gmail.com</t>
   </si>
   <si>
     <t>Exibir a mensagem de erro "Email/Login Inválido"; voltar para campo Login</t>
   </si>
   <si>
-    <t>RF002-01-TC03</t>
-  </si>
-  <si>
     <t>Email do usuário =  null/em branco</t>
   </si>
   <si>
@@ -523,15 +515,9 @@
     <t>Romão vitor</t>
   </si>
   <si>
-    <t>Falta ajustar mais e priciso de ajuda kkk</t>
-  </si>
-  <si>
     <t>Abrir o site nexustech.azurewebsites.net, selecionar a opção/menu LOGIN; digitar email do usuário no  campo Login; ir para campo Senha</t>
   </si>
   <si>
-    <t>Email do usuário =  xxxx@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">romao vitor </t>
   </si>
   <si>
@@ -548,12 +534,90 @@
   </si>
   <si>
     <t>RF7-1.1-TC03</t>
+  </si>
+  <si>
+    <t>Testar o Grafico do usuário</t>
+  </si>
+  <si>
+    <t>Permitir o Cadastro de outros usuarios</t>
+  </si>
+  <si>
+    <t>Abrir o site nexustech.azurewebsites.net, logar no sistema; selecionar a opção/menu do usuário no  campo +Novo; preecher campos de formulario.</t>
+  </si>
+  <si>
+    <t>Abrir o site nexustech.azurewebsites.net, logar no sistema; selecionar a opção/menu do usuário no  campo +Novo; digitar nome, email, Telefone, CPF, CRF, Foto e se pode receber notificações.</t>
+  </si>
+  <si>
+    <t>RF-4-1.0-TC01</t>
+  </si>
+  <si>
+    <t>RF-4-1.0-TC02</t>
+  </si>
+  <si>
+    <t>RF-4-1.0-TC03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campos como nome, email, CPF, CRF, notificação e Foto = usuario valido. </t>
+  </si>
+  <si>
+    <t>Permitir sair do campo Cadastro sem mensagem de Erro ecom usuario cadastrado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campos como nome, email, CPF, CRF, notificação e Foto = usuario invalido. </t>
+  </si>
+  <si>
+    <t>Exibir a mensagem de erro "usuario não encontrado"; voltar para campo Cadastro</t>
+  </si>
+  <si>
+    <t>Formulario de usuário =  null/em branco</t>
+  </si>
+  <si>
+    <t>Exibir a mensagem de erro "Favor digitar Formulario nos campos abaixo"; voltar para campo cadastro</t>
+  </si>
+  <si>
+    <t>RF10-2.0-TC01</t>
+  </si>
+  <si>
+    <t>RF10-2.0-TC02</t>
+  </si>
+  <si>
+    <t>RF10-2.0-TC03</t>
+  </si>
+  <si>
+    <t>Permitir a Visualização de Graficos do usuario</t>
+  </si>
+  <si>
+    <t>Abrir o site nexustech.azurewebsites.net, logar no sistema; selecionar a opção/menu Monitoramento no campo sensor</t>
+  </si>
+  <si>
+    <t>Permitir acesso a visualização dos Graficos</t>
+  </si>
+  <si>
+    <t>sensor do Usuario = não intalado.</t>
+  </si>
+  <si>
+    <t>sensor do Usuario = desligado</t>
+  </si>
+  <si>
+    <t>Exibir a mensagem de erro "Sensor não conectado"; voltar para campo Monitoramento</t>
+  </si>
+  <si>
+    <t>Exibir a mensagem de erro "Sensor não existe"; voltar para campo Monitoramento</t>
+  </si>
+  <si>
+    <t>sensor do Usuario = intalado e recebendo dados na base de banco de dados</t>
+  </si>
+  <si>
+    <t>Desejavél</t>
+  </si>
+  <si>
+    <t>Caminho Feliz concluido</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00;[Red]\-[$$-409]#,##0.00"/>
   </numFmts>
@@ -1165,7 +1229,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1436,6 +1500,24 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1443,6 +1525,87 @@
     <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1454,101 +1617,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1582,21 +1650,21 @@
     </xf>
   </cellXfs>
   <cellStyles count="15">
-    <cellStyle name="Background" xfId="1"/>
-    <cellStyle name="Card" xfId="2"/>
-    <cellStyle name="Card B" xfId="3"/>
-    <cellStyle name="Card BL" xfId="4"/>
-    <cellStyle name="Card BR" xfId="5"/>
-    <cellStyle name="Card L" xfId="6"/>
-    <cellStyle name="Card R" xfId="7"/>
-    <cellStyle name="Card T" xfId="8"/>
-    <cellStyle name="Card TL" xfId="9"/>
-    <cellStyle name="Card TR" xfId="10"/>
-    <cellStyle name="Column Header" xfId="11"/>
+    <cellStyle name="Background" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Card" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Card B" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Card BL" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Card BR" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Card L" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Card R" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Card T" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Card TL" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Card TR" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Column Header" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Hiperlink" xfId="12" builtinId="8"/>
-    <cellStyle name="Input" xfId="13"/>
+    <cellStyle name="Input" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="14"/>
+    <cellStyle name="Normal 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1699,7 +1767,7 @@
         <xdr:cNvPr id="5" name="Imagem 4" descr="Resultado de imagem para tela de cadastro">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37D44E19-A07C-4042-8378-F2667AE8DBB1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1760,7 +1828,7 @@
         <xdr:cNvPr id="6" name="Imagem 5" descr="Resultado de imagem para tela de cadastro">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{912CB92F-ACFA-418B-A2FE-A5D0AE3FEF1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1826,7 +1894,7 @@
         <xdr:cNvPr id="2" name="Imagem 1" descr="Resultado de imagem para tela de cadastro">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37D44E19-A07C-4042-8378-F2667AE8DBB1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1887,7 +1955,134 @@
         <xdr:cNvPr id="3" name="Imagem 2" descr="Resultado de imagem para tela de cadastro">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{912CB92F-ACFA-418B-A2FE-A5D0AE3FEF1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="11601450" y="8320794"/>
+          <a:ext cx="1019175" cy="817925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1554704</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>909119</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1" descr="Resultado de imagem para tela de cadastro">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB6C1577-5D18-4ADE-89DB-8E40ED453BBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="11677650" y="11877674"/>
+          <a:ext cx="1002254" cy="804345"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>129294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1495425</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>947219</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2" descr="Resultado de imagem para tela de cadastro">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DC778C4-EF49-4DBD-9269-56C903300DAC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2009,6 +2204,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2044,6 +2256,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2219,11 +2448,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2260,13 +2489,13 @@
     </row>
     <row r="2" spans="1:20" s="22" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="53"/>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="98"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="102"/>
       <c r="G2" s="57"/>
       <c r="H2" s="57"/>
       <c r="I2" s="57"/>
@@ -2276,11 +2505,11 @@
     </row>
     <row r="3" spans="1:20" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="53"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="101"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105"/>
       <c r="G3" s="57"/>
       <c r="H3" s="57"/>
       <c r="I3" s="57"/>
@@ -2307,10 +2536,10 @@
       <c r="B5" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="102" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="103"/>
+      <c r="C5" s="106" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="107"/>
       <c r="E5" s="28"/>
       <c r="F5" s="29"/>
       <c r="G5" s="28"/>
@@ -2325,8 +2554,8 @@
       <c r="B6" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="102"/>
-      <c r="D6" s="103"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="107"/>
       <c r="E6" s="28"/>
       <c r="F6" s="29"/>
       <c r="G6" s="28"/>
@@ -2341,8 +2570,8 @@
       <c r="B7" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="102"/>
-      <c r="D7" s="103"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="107"/>
       <c r="E7" s="28"/>
       <c r="F7" s="29"/>
       <c r="G7" s="28"/>
@@ -2357,10 +2586,10 @@
       <c r="B8" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="102" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" s="103"/>
+      <c r="C8" s="106" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="107"/>
       <c r="E8" s="28"/>
       <c r="F8" s="29"/>
       <c r="G8" s="28"/>
@@ -2373,10 +2602,10 @@
     <row r="9" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="24"/>
       <c r="B9" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="102"/>
-      <c r="D9" s="103"/>
+        <v>85</v>
+      </c>
+      <c r="C9" s="106"/>
+      <c r="D9" s="107"/>
       <c r="E9" s="28"/>
       <c r="F9" s="29"/>
       <c r="G9" s="28"/>
@@ -2402,16 +2631,16 @@
     </row>
     <row r="11" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24"/>
-      <c r="B11" s="104" t="s">
+      <c r="B11" s="108" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="106"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="110"/>
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
       <c r="L11" s="24"/>
@@ -2423,14 +2652,14 @@
       <c r="B12" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="94" t="s">
+      <c r="C12" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="95"/>
-      <c r="E12" s="94" t="s">
+      <c r="D12" s="92"/>
+      <c r="E12" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="95"/>
+      <c r="F12" s="92"/>
       <c r="G12" s="68" t="s">
         <v>25</v>
       </c>
@@ -2451,24 +2680,24 @@
     <row r="13" spans="1:20" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="54"/>
       <c r="B13" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="82" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" s="87"/>
-      <c r="E13" s="107" t="s">
-        <v>100</v>
-      </c>
-      <c r="F13" s="108"/>
+        <v>91</v>
+      </c>
+      <c r="C13" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="95"/>
+      <c r="E13" s="83" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="84"/>
       <c r="G13" s="69" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H13" s="70">
         <v>43608</v>
       </c>
       <c r="I13" s="69" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J13" s="62"/>
       <c r="K13" s="62"/>
@@ -2481,24 +2710,24 @@
     <row r="14" spans="1:20" s="4" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="54"/>
       <c r="B14" s="71" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" s="113" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" s="114"/>
-      <c r="E14" s="109" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="98" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="99"/>
+      <c r="E14" s="93" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="94"/>
+      <c r="G14" s="72" t="s">
         <v>101</v>
-      </c>
-      <c r="F14" s="110"/>
-      <c r="G14" s="72" t="s">
-        <v>104</v>
       </c>
       <c r="H14" s="73">
         <v>43610</v>
       </c>
       <c r="I14" s="72" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J14" s="62"/>
       <c r="K14" s="62"/>
@@ -2511,24 +2740,24 @@
     <row r="15" spans="1:20" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="54"/>
       <c r="B15" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="82" t="s">
-        <v>99</v>
-      </c>
-      <c r="D15" s="87"/>
-      <c r="E15" s="82" t="s">
-        <v>106</v>
-      </c>
-      <c r="F15" s="87"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="95"/>
       <c r="G15" s="69" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H15" s="70">
         <v>43617</v>
       </c>
       <c r="I15" s="69" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J15" s="62"/>
       <c r="K15" s="62"/>
@@ -2541,24 +2770,24 @@
     <row r="16" spans="1:20" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="54"/>
       <c r="B16" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="82" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" s="87"/>
-      <c r="E16" s="82" t="s">
-        <v>107</v>
-      </c>
-      <c r="F16" s="87"/>
+        <v>94</v>
+      </c>
+      <c r="C16" s="87" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="95"/>
+      <c r="E16" s="87" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="95"/>
       <c r="G16" s="69" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H16" s="70">
         <v>43612</v>
       </c>
       <c r="I16" s="69" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J16" s="62"/>
       <c r="K16" s="62"/>
@@ -2571,24 +2800,24 @@
     <row r="17" spans="1:21" s="4" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="54"/>
       <c r="B17" s="63" t="s">
-        <v>118</v>
-      </c>
-      <c r="C17" s="82" t="s">
-        <v>108</v>
-      </c>
-      <c r="D17" s="87"/>
-      <c r="E17" s="82" t="s">
-        <v>109</v>
-      </c>
-      <c r="F17" s="87"/>
+        <v>115</v>
+      </c>
+      <c r="C17" s="87" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="95"/>
+      <c r="E17" s="87" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="95"/>
       <c r="G17" s="69" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H17" s="70">
         <v>43611</v>
       </c>
       <c r="I17" s="69" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J17" s="62"/>
       <c r="K17" s="62"/>
@@ -2618,17 +2847,17 @@
     </row>
     <row r="19" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="55"/>
-      <c r="B19" s="111" t="s">
+      <c r="B19" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="112"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="112"/>
-      <c r="H19" s="112"/>
-      <c r="I19" s="112"/>
-      <c r="J19" s="112"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="97"/>
+      <c r="I19" s="97"/>
+      <c r="J19" s="97"/>
       <c r="K19" s="24"/>
       <c r="L19" s="24"/>
     </row>
@@ -2637,18 +2866,18 @@
       <c r="B20" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="92" t="s">
+      <c r="C20" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="93"/>
-      <c r="E20" s="92" t="s">
+      <c r="D20" s="86"/>
+      <c r="E20" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="93"/>
-      <c r="G20" s="92" t="s">
+      <c r="F20" s="86"/>
+      <c r="G20" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="93"/>
+      <c r="H20" s="86"/>
       <c r="I20" s="67" t="s">
         <v>27</v>
       </c>
@@ -2665,25 +2894,25 @@
     <row r="21" spans="1:21" s="4" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="54"/>
       <c r="B21" s="63" t="s">
-        <v>139</v>
-      </c>
-      <c r="C21" s="82" t="s">
-        <v>116</v>
-      </c>
-      <c r="D21" s="83"/>
-      <c r="E21" s="82" t="s">
-        <v>121</v>
-      </c>
-      <c r="F21" s="83"/>
-      <c r="G21" s="82" t="s">
-        <v>117</v>
-      </c>
-      <c r="H21" s="83"/>
+        <v>136</v>
+      </c>
+      <c r="C21" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" s="88"/>
+      <c r="E21" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="F21" s="88"/>
+      <c r="G21" s="87" t="s">
+        <v>114</v>
+      </c>
+      <c r="H21" s="88"/>
       <c r="I21" s="74" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J21" s="69" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K21" s="27"/>
       <c r="L21" s="27"/>
@@ -2695,25 +2924,25 @@
     <row r="22" spans="1:21" s="4" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="54"/>
       <c r="B22" s="63" t="s">
-        <v>139</v>
-      </c>
-      <c r="C22" s="82" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" s="87" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" s="95"/>
+      <c r="E22" s="83" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22" s="84"/>
+      <c r="G22" s="89" t="s">
+        <v>117</v>
+      </c>
+      <c r="H22" s="90"/>
+      <c r="I22" s="76" t="s">
+        <v>111</v>
+      </c>
+      <c r="J22" s="69" t="s">
         <v>122</v>
-      </c>
-      <c r="D22" s="87"/>
-      <c r="E22" s="107" t="s">
-        <v>119</v>
-      </c>
-      <c r="F22" s="108"/>
-      <c r="G22" s="90" t="s">
-        <v>120</v>
-      </c>
-      <c r="H22" s="91"/>
-      <c r="I22" s="76" t="s">
-        <v>114</v>
-      </c>
-      <c r="J22" s="69" t="s">
-        <v>125</v>
       </c>
       <c r="K22" s="27"/>
       <c r="L22" s="27"/>
@@ -2725,25 +2954,25 @@
     <row r="23" spans="1:21" s="4" customFormat="1" ht="77.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="54"/>
       <c r="B23" s="63" t="s">
-        <v>140</v>
-      </c>
-      <c r="C23" s="82" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="88"/>
+      <c r="E23" s="87" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="88"/>
+      <c r="G23" s="87" t="s">
+        <v>110</v>
+      </c>
+      <c r="H23" s="88"/>
+      <c r="I23" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="D23" s="83"/>
-      <c r="E23" s="82" t="s">
-        <v>112</v>
-      </c>
-      <c r="F23" s="83"/>
-      <c r="G23" s="82" t="s">
-        <v>113</v>
-      </c>
-      <c r="H23" s="83"/>
-      <c r="I23" s="74" t="s">
-        <v>114</v>
-      </c>
       <c r="J23" s="69" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K23" s="27"/>
       <c r="L23" s="27"/>
@@ -2755,25 +2984,25 @@
     <row r="24" spans="1:21" s="4" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="54"/>
       <c r="B24" s="63" t="s">
-        <v>140</v>
-      </c>
-      <c r="C24" s="82" t="s">
-        <v>126</v>
-      </c>
-      <c r="D24" s="87"/>
-      <c r="E24" s="88" t="s">
-        <v>127</v>
-      </c>
-      <c r="F24" s="89"/>
-      <c r="G24" s="90" t="s">
-        <v>128</v>
-      </c>
-      <c r="H24" s="91"/>
+        <v>137</v>
+      </c>
+      <c r="C24" s="87" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" s="95"/>
+      <c r="E24" s="111" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" s="112"/>
+      <c r="G24" s="89" t="s">
+        <v>125</v>
+      </c>
+      <c r="H24" s="90"/>
       <c r="I24" s="78" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J24" s="69" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K24" s="27"/>
       <c r="L24" s="27"/>
@@ -2785,25 +3014,25 @@
     <row r="25" spans="1:21" s="4" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="54"/>
       <c r="B25" s="63" t="s">
-        <v>141</v>
-      </c>
-      <c r="C25" s="82" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" s="87" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="88"/>
+      <c r="E25" s="87" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" s="113"/>
+      <c r="G25" s="114" t="s">
         <v>129</v>
       </c>
-      <c r="D25" s="83"/>
-      <c r="E25" s="82" t="s">
-        <v>124</v>
-      </c>
-      <c r="F25" s="84"/>
-      <c r="G25" s="85" t="s">
-        <v>132</v>
-      </c>
-      <c r="H25" s="86"/>
+      <c r="H25" s="115"/>
       <c r="I25" s="76" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J25" s="69" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K25" s="27"/>
       <c r="L25" s="27"/>
@@ -2815,25 +3044,25 @@
     <row r="26" spans="1:21" s="4" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="54"/>
       <c r="B26" s="63" t="s">
-        <v>142</v>
-      </c>
-      <c r="C26" s="82" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" s="87" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="95"/>
+      <c r="E26" s="87" t="s">
+        <v>128</v>
+      </c>
+      <c r="F26" s="95"/>
+      <c r="G26" s="114" t="s">
+        <v>131</v>
+      </c>
+      <c r="H26" s="115"/>
+      <c r="I26" s="76" t="s">
+        <v>112</v>
+      </c>
+      <c r="J26" s="69" t="s">
         <v>130</v>
-      </c>
-      <c r="D26" s="87"/>
-      <c r="E26" s="82" t="s">
-        <v>131</v>
-      </c>
-      <c r="F26" s="87"/>
-      <c r="G26" s="85" t="s">
-        <v>134</v>
-      </c>
-      <c r="H26" s="86"/>
-      <c r="I26" s="76" t="s">
-        <v>115</v>
-      </c>
-      <c r="J26" s="69" t="s">
-        <v>133</v>
       </c>
       <c r="K26" s="27"/>
       <c r="L26" s="27"/>
@@ -2845,25 +3074,25 @@
     <row r="27" spans="1:21" s="4" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="54"/>
       <c r="B27" s="63" t="s">
-        <v>143</v>
-      </c>
-      <c r="C27" s="82" t="s">
-        <v>135</v>
-      </c>
-      <c r="D27" s="87"/>
-      <c r="E27" s="82" t="s">
-        <v>137</v>
-      </c>
-      <c r="F27" s="87"/>
-      <c r="G27" s="85" t="s">
-        <v>136</v>
-      </c>
-      <c r="H27" s="86"/>
+        <v>140</v>
+      </c>
+      <c r="C27" s="87" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" s="95"/>
+      <c r="E27" s="87" t="s">
+        <v>134</v>
+      </c>
+      <c r="F27" s="95"/>
+      <c r="G27" s="114" t="s">
+        <v>133</v>
+      </c>
+      <c r="H27" s="115"/>
       <c r="I27" s="76" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J27" s="69" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K27" s="27"/>
       <c r="L27" s="27"/>
@@ -2905,7 +3134,7 @@
         <v>19</v>
       </c>
       <c r="C30" s="75" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
@@ -3026,6 +3255,35 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B11:I11"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="G21:H21"/>
@@ -3042,44 +3300,15 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I13:I17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I13:I17" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Não Iniciado, Em andamento, Concluído, Pendente"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J21:J27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J21:J27" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Não testado,Testado- NÃO OK,Testado - OK"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I21:I27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I21:I27" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Essencial, Importante, Desejável"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3090,11 +3319,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3122,7 +3351,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3138,7 +3367,7 @@
         <v>42</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3170,7 +3399,7 @@
         <v>38</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3201,10 +3430,10 @@
       <c r="A15" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="115" t="s">
+      <c r="B15" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="115"/>
+      <c r="C15" s="116"/>
       <c r="D15" s="41"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
@@ -3262,16 +3491,16 @@
     </row>
     <row r="25" spans="1:20" s="43" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A25" s="42" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B25" s="42" t="s">
         <v>66</v>
       </c>
       <c r="C25" s="45" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D25" s="45" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E25" s="45" t="s">
         <v>72</v>
@@ -3293,19 +3522,19 @@
     </row>
     <row r="26" spans="1:20" s="43" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A26" s="42" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B26" s="42" t="s">
         <v>66</v>
       </c>
       <c r="C26" s="45" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D26" s="45" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E26" s="45" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F26" s="46"/>
       <c r="G26" s="47" t="s">
@@ -3324,26 +3553,26 @@
     </row>
     <row r="27" spans="1:20" s="43" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A27" s="42" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B27" s="42" t="s">
         <v>66</v>
       </c>
       <c r="C27" s="45" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D27" s="45" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E27" s="45" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F27" s="46"/>
       <c r="G27" s="47" t="s">
         <v>32</v>
       </c>
       <c r="H27" s="47" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I27" s="52" t="s">
         <v>58</v>
@@ -3494,7 +3723,7 @@
         <v>5</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
@@ -3513,8 +3742,8 @@
     <mergeCell ref="B15:C15"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1"/>
-    <hyperlink ref="B11" r:id="rId2"/>
+    <hyperlink ref="B10" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B11" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0" footer="9.8611111111111122E-2"/>
@@ -3527,11 +3756,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:C15"/>
+    <sheetView topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3559,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3575,7 +3804,7 @@
         <v>42</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3607,7 +3836,7 @@
         <v>38</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3638,10 +3867,10 @@
       <c r="A15" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="115" t="s">
-        <v>161</v>
-      </c>
-      <c r="C15" s="115"/>
+      <c r="B15" s="116" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="116"/>
       <c r="D15" s="81"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
@@ -3697,21 +3926,21 @@
       <c r="S24" s="44"/>
       <c r="T24" s="44"/>
     </row>
-    <row r="25" spans="1:20" s="43" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" s="43" customFormat="1" ht="120" x14ac:dyDescent="0.2">
       <c r="A25" s="42" t="s">
-        <v>73</v>
+        <v>165</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>66</v>
+        <v>162</v>
       </c>
       <c r="C25" s="45" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D25" s="45" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="E25" s="45" t="s">
-        <v>72</v>
+        <v>169</v>
       </c>
       <c r="F25" s="46"/>
       <c r="G25" s="47" t="s">
@@ -3730,26 +3959,26 @@
     </row>
     <row r="26" spans="1:20" s="43" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A26" s="42" t="s">
-        <v>74</v>
+        <v>166</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>66</v>
+        <v>162</v>
       </c>
       <c r="C26" s="45" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D26" s="45" t="s">
-        <v>75</v>
+        <v>170</v>
       </c>
       <c r="E26" s="45" t="s">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="F26" s="46"/>
       <c r="G26" s="47" t="s">
         <v>32</v>
       </c>
       <c r="H26" s="47" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="I26" s="52" t="s">
         <v>58</v>
@@ -3761,26 +3990,26 @@
     </row>
     <row r="27" spans="1:20" s="43" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A27" s="42" t="s">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>66</v>
+        <v>162</v>
       </c>
       <c r="C27" s="45" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D27" s="45" t="s">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="E27" s="45" t="s">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c r="F27" s="46"/>
       <c r="G27" s="47" t="s">
         <v>32</v>
       </c>
       <c r="H27" s="47" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="I27" s="52" t="s">
         <v>58</v>
@@ -3930,9 +4159,6 @@
       <c r="A36" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="33" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="50" t="s">
@@ -3950,8 +4176,8 @@
     <mergeCell ref="B15:C15"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1"/>
-    <hyperlink ref="B11" r:id="rId2"/>
+    <hyperlink ref="B10" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B11" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0" footer="9.8611111111111122E-2"/>
@@ -3964,23 +4190,448 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9AF24D9-0628-4059-B6F4-A2100ACC8EA3}">
+  <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25:H27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" style="33" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38" style="33" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" style="33" customWidth="1"/>
+    <col min="6" max="6" width="32.42578125" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" style="33" customWidth="1"/>
+    <col min="8" max="9" width="20.85546875" style="33" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" style="33" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" style="33" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="33" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" style="33" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" style="33" customWidth="1"/>
+    <col min="15" max="15" width="32.28515625" style="35" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" style="33" customWidth="1"/>
+    <col min="17" max="16384" width="11.7109375" style="33"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="36">
+        <v>43614</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="31"/>
+      <c r="B6" s="37"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="31"/>
+      <c r="B7" s="37"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="37"/>
+      <c r="B12" s="39"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="37"/>
+      <c r="B13" s="39"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="116" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" s="116"/>
+      <c r="D15" s="82"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" s="38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" s="33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" s="33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" s="33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A24" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="44"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="44"/>
+    </row>
+    <row r="25" spans="1:20" s="43" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+      <c r="A25" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="D25" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="E25" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="F25" s="46"/>
+      <c r="G25" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="44"/>
+    </row>
+    <row r="26" spans="1:20" s="43" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+      <c r="A26" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="D26" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="E26" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="F26" s="46"/>
+      <c r="G26" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="44"/>
+    </row>
+    <row r="27" spans="1:20" s="43" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+      <c r="A27" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="B27" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="D27" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="E27" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="F27" s="46"/>
+      <c r="G27" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="I27" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="44"/>
+    </row>
+    <row r="28" spans="1:20" s="43" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+      <c r="A28" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="46"/>
+      <c r="G28" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q28" s="44"/>
+      <c r="R28" s="44"/>
+      <c r="S28" s="44"/>
+      <c r="T28" s="44"/>
+    </row>
+    <row r="29" spans="1:20" s="43" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+      <c r="A29" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" s="46"/>
+      <c r="G29" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="44"/>
+      <c r="S29" s="44"/>
+      <c r="T29" s="44"/>
+    </row>
+    <row r="30" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="42"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="52"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="44"/>
+      <c r="S30" s="44"/>
+      <c r="T30" s="44"/>
+    </row>
+    <row r="31" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="42"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="52"/>
+      <c r="Q31" s="44"/>
+      <c r="R31" s="44"/>
+      <c r="S31" s="44"/>
+      <c r="T31" s="44"/>
+    </row>
+    <row r="32" spans="1:20" s="43" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="42"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="52"/>
+      <c r="Q32" s="44"/>
+      <c r="R32" s="44"/>
+      <c r="S32" s="44"/>
+      <c r="T32" s="44"/>
+    </row>
+    <row r="33" spans="1:20" s="43" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="42"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="23"/>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="44"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="44"/>
+    </row>
+    <row r="34" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="Q34" s="44"/>
+      <c r="R34" s="44"/>
+      <c r="S34" s="44"/>
+      <c r="T34" s="44"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A36" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A37" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="51">
+        <v>43172</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A41" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B15:C15"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B10" r:id="rId1" xr:uid="{1A2BAB50-BEA9-40BF-BAD5-F74914C09A60}"/>
+    <hyperlink ref="B11" r:id="rId2" xr:uid="{77F215B4-64AB-4F1B-AC55-21F2B490EBB1}"/>
+  </hyperlinks>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0" footer="9.8611111111111122E-2"/>
+  <pageSetup fitToHeight="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;CSeite &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3997,20 +4648,20 @@
     <row r="1" spans="1:6" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:6" s="17" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="64"/>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="117" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="119"/>
     </row>
     <row r="3" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="119"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="B3" s="120"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="122"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="8"/>
@@ -4039,16 +4690,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="80" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -4056,16 +4707,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="80" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -4073,16 +4724,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="80" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -4090,16 +4741,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>82</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>85</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="80" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -4107,16 +4758,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="80" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -4124,16 +4775,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="80" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -4141,16 +4792,16 @@
         <v>7</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="80" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -4158,16 +4809,16 @@
         <v>8</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="80" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -4175,31 +4826,33 @@
         <v>9</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="80"/>
+      <c r="F14" s="80" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="19">
         <v>10</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E15" s="20" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="80" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -4207,30 +4860,34 @@
         <v>11</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="21"/>
+      <c r="F16" s="80" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="19">
         <v>12</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="21"/>
+      <c r="F17" s="80" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="19"/>
@@ -4255,34 +4912,34 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="14"/>
-      <c r="C22" s="122"/>
-      <c r="D22" s="122"/>
-      <c r="E22" s="122"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="123"/>
       <c r="F22" s="15"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="123" t="s">
+      <c r="B23" s="124" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="124" t="s">
-        <v>156</v>
-      </c>
-      <c r="E23" s="124"/>
-      <c r="F23" s="124"/>
+      <c r="D23" s="125" t="s">
+        <v>153</v>
+      </c>
+      <c r="E23" s="125"/>
+      <c r="F23" s="125"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="123"/>
+      <c r="B24" s="124"/>
       <c r="C24" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="124" t="s">
-        <v>157</v>
-      </c>
-      <c r="E24" s="124"/>
-      <c r="F24" s="124"/>
+      <c r="D24" s="125" t="s">
+        <v>186</v>
+      </c>
+      <c r="E24" s="125"/>
+      <c r="F24" s="125"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B27" s="12"/>

--- a/Projeto-Documentacao/Planilhas/Plano de UAT - Homol 1 Semestre 2019 v1.xlsx
+++ b/Projeto-Documentacao/Planilhas/Plano de UAT - Homol 1 Semestre 2019 v1.xlsx
@@ -1,35 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\REGINALDO\Desktop\grupo3-sa\Projeto-Documentacao\Planilhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\grupo3-sa\Projeto-Documentacao\Planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7827758-73D2-4D92-B0A9-D62B521292C7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="503" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="503" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Plano de Homologação" sheetId="5" r:id="rId1"/>
     <sheet name="Cenário 1 - Login" sheetId="6" r:id="rId2"/>
     <sheet name="Cenário 2 - Cadastro" sheetId="9" r:id="rId3"/>
     <sheet name="Cenário 3 - Grafico" sheetId="10" r:id="rId4"/>
-    <sheet name="Regressão Básica" sheetId="4" r:id="rId5"/>
+    <sheet name="Cenário 4 - Alerta" sheetId="12" r:id="rId5"/>
+    <sheet name="Regressão Básica" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>move0011</author>
   </authors>
   <commentList>
-    <comment ref="I20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="I20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="198">
   <si>
     <t xml:space="preserve">Projeto: </t>
   </si>
@@ -203,18 +203,9 @@
     <t>Logar no sistema</t>
   </si>
   <si>
-    <t>Código do Cliente: 123</t>
-  </si>
-  <si>
     <t>O sistema deve preencher o código com zeros a direita: "00123" e apresentar os dados do cliente: "SENHOR DAS ESTRELAS"</t>
   </si>
   <si>
-    <t>Código do Cliente:</t>
-  </si>
-  <si>
-    <t>Logar no sistema, clicar na opção de busca do cliente no menu principal, digitar o CÓDIGO do cliente.</t>
-  </si>
-  <si>
     <t>Ao deixar em branco o campo e preencher, o sistema deverá fornecer um aviso que o código está em branco e não deve permitir a busca.</t>
   </si>
   <si>
@@ -275,18 +266,9 @@
     <t>Email do usuário =  EmailErrado.gmail.com</t>
   </si>
   <si>
-    <t>Exibir a mensagem de erro "Email/Login Inválido"; voltar para campo Login</t>
-  </si>
-  <si>
     <t>Email do usuário =  null/em branco</t>
   </si>
   <si>
-    <t>Exibir a mensagem de erro "Favor digitar email no campo Login"; voltar para campo Login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUG. Não apareceu a mensagem. </t>
-  </si>
-  <si>
     <t>Entrar no Site</t>
   </si>
   <si>
@@ -572,9 +554,6 @@
     <t>Formulario de usuário =  null/em branco</t>
   </si>
   <si>
-    <t>Exibir a mensagem de erro "Favor digitar Formulario nos campos abaixo"; voltar para campo cadastro</t>
-  </si>
-  <si>
     <t>RF10-2.0-TC01</t>
   </si>
   <si>
@@ -593,18 +572,12 @@
     <t>Permitir acesso a visualização dos Graficos</t>
   </si>
   <si>
-    <t>sensor do Usuario = não intalado.</t>
-  </si>
-  <si>
     <t>sensor do Usuario = desligado</t>
   </si>
   <si>
     <t>Exibir a mensagem de erro "Sensor não conectado"; voltar para campo Monitoramento</t>
   </si>
   <si>
-    <t>Exibir a mensagem de erro "Sensor não existe"; voltar para campo Monitoramento</t>
-  </si>
-  <si>
     <t>sensor do Usuario = intalado e recebendo dados na base de banco de dados</t>
   </si>
   <si>
@@ -612,12 +585,72 @@
   </si>
   <si>
     <t>Caminho Feliz concluido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email = valido </t>
+  </si>
+  <si>
+    <t>Logar no sistema, clicar na opção de busca do cliente no menu principal, digitar o email do cliente.</t>
+  </si>
+  <si>
+    <t>senha = valido</t>
+  </si>
+  <si>
+    <t>Logar no sistema, clicar na opção de busca do cliente no menu principal, digitar o senha do cliente.</t>
+  </si>
+  <si>
+    <t>Exibir a mensagem de erro "por favor preencha todos campos"; voltar para campo cadastro</t>
+  </si>
+  <si>
+    <t>Exibir a mensagem de erro "preencha este campo"; voltar para campo Login</t>
+  </si>
+  <si>
+    <t>Exibir a mensagem de erro "Usuario ou senha errada"; voltar para campo Login</t>
+  </si>
+  <si>
+    <t>sensor = variações de temperatura e umidade</t>
+  </si>
+  <si>
+    <t>Exibir temp_atual, umid_atual, max e min de temp e umid tendo variações com o tempo.</t>
+  </si>
+  <si>
+    <t>RF12-2.2-TC02</t>
+  </si>
+  <si>
+    <t>RF12-2.2-TC01</t>
+  </si>
+  <si>
+    <t>Testar o Alerta do usuário</t>
+  </si>
+  <si>
+    <t>emissão de alerta ao usuario</t>
+  </si>
+  <si>
+    <t>caso a Temp e Umid utrapasse as taixas da base do banco de dados, emitir alerta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recebimento de alerta via SMS </t>
+  </si>
+  <si>
+    <t>Ter um celular cadastrado, para o recebimento de SMS.</t>
+  </si>
+  <si>
+    <t>Recebimento de alerta via SMS correspondente ao seu sensor cadastrado</t>
+  </si>
+  <si>
+    <t>caso a Temp e Umid utrapasse as taixas da base do banco de dados do usuario, emitir alerta</t>
+  </si>
+  <si>
+    <t>Brandão</t>
+  </si>
+  <si>
+    <t>A-1000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00;[Red]\-[$$-409]#,##0.00"/>
   </numFmts>
@@ -1229,7 +1262,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1504,6 +1537,10 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1589,6 +1626,9 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="15" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1650,21 +1690,21 @@
     </xf>
   </cellXfs>
   <cellStyles count="15">
-    <cellStyle name="Background" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Card" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Card B" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Card BL" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Card BR" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Card L" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Card R" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Card T" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Card TL" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Card TR" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Column Header" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Background" xfId="1"/>
+    <cellStyle name="Card" xfId="2"/>
+    <cellStyle name="Card B" xfId="3"/>
+    <cellStyle name="Card BL" xfId="4"/>
+    <cellStyle name="Card BR" xfId="5"/>
+    <cellStyle name="Card L" xfId="6"/>
+    <cellStyle name="Card R" xfId="7"/>
+    <cellStyle name="Card T" xfId="8"/>
+    <cellStyle name="Card TL" xfId="9"/>
+    <cellStyle name="Card TR" xfId="10"/>
+    <cellStyle name="Column Header" xfId="11"/>
     <cellStyle name="Hiperlink" xfId="12" builtinId="8"/>
-    <cellStyle name="Input" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Input" xfId="13"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Normal 2" xfId="14"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1752,27 +1792,21 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>100826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1554704</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>909119</xdr:rowOff>
+      <xdr:colOff>1864178</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1098603</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagem 4" descr="Resultado de imagem para tela de cadastro">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Imagem 1"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1783,29 +1817,18 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="11677650" y="11477624"/>
-          <a:ext cx="1002254" cy="804345"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11498036" y="6006326"/>
+          <a:ext cx="1483178" cy="997777"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1813,27 +1836,21 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>129294</xdr:rowOff>
+      <xdr:colOff>326573</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>42625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1495425</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>947219</xdr:rowOff>
+      <xdr:colOff>1823357</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1105307</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Imagem 5" descr="Resultado de imagem para tela de cadastro">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Imagem 2"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1844,29 +1861,150 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="11601450" y="4872744"/>
-          <a:ext cx="1019175" cy="817925"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11443609" y="7091125"/>
+          <a:ext cx="1496784" cy="1062682"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>136890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2027464</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1080029</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagem 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11225893" y="4899390"/>
+          <a:ext cx="1918607" cy="943139"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>108858</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2013857</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1051997</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagem 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11212286" y="8300358"/>
+          <a:ext cx="1918607" cy="943139"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>138793</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>70758</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2057400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1013897</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagem 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11255829" y="9405258"/>
+          <a:ext cx="1918607" cy="943139"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1879,27 +2017,21 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:colOff>68035</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>340178</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1554704</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>909119</xdr:rowOff>
+      <xdr:colOff>2050891</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1309090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1" descr="Resultado de imagem para tela de cadastro">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Imagem 3"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1910,29 +2042,18 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="11677650" y="11877674"/>
-          <a:ext cx="1002254" cy="804345"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11185071" y="5102678"/>
+          <a:ext cx="1982856" cy="968912"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1940,27 +2061,21 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>129294</xdr:rowOff>
+      <xdr:colOff>517071</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>116748</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1495425</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>947219</xdr:rowOff>
+      <xdr:colOff>1768928</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1493582</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 2" descr="Resultado de imagem para tela de cadastro">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="Imagem 4"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1971,29 +2086,62 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="11601450" y="8320794"/>
-          <a:ext cx="1019175" cy="817925"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11634107" y="7559855"/>
+          <a:ext cx="1251857" cy="1376834"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>489859</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>25007</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1687287</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1341188</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagem 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11606895" y="6311507"/>
+          <a:ext cx="1197428" cy="1316181"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2006,27 +2154,21 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:colOff>231324</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>44935</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1554704</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>909119</xdr:rowOff>
+      <xdr:colOff>2313215</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1065290</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1" descr="Resultado de imagem para tela de cadastro">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB6C1577-5D18-4ADE-89DB-8E40ED453BBD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Imagem 3"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2037,29 +2179,18 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="11677650" y="11877674"/>
-          <a:ext cx="1002254" cy="804345"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11348360" y="4807435"/>
+          <a:ext cx="2081891" cy="1020355"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2067,27 +2198,21 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>129294</xdr:rowOff>
+      <xdr:colOff>258537</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>62854</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1495425</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>947219</xdr:rowOff>
+      <xdr:colOff>2272392</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1052814</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 2" descr="Resultado de imagem para tela de cadastro">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DC778C4-EF49-4DBD-9269-56C903300DAC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="Imagem 4"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2098,29 +2223,62 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="11601450" y="8320794"/>
-          <a:ext cx="1019175" cy="817925"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11375573" y="6961675"/>
+          <a:ext cx="2013855" cy="989960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>381001</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2596271</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>639537</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagem 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11144250" y="6232072"/>
+          <a:ext cx="2569057" cy="258536"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2204,23 +2362,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2256,23 +2397,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2448,11 +2572,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2489,13 +2613,13 @@
     </row>
     <row r="2" spans="1:20" s="22" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="53"/>
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="103"/>
       <c r="G2" s="57"/>
       <c r="H2" s="57"/>
       <c r="I2" s="57"/>
@@ -2505,11 +2629,11 @@
     </row>
     <row r="3" spans="1:20" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="53"/>
-      <c r="B3" s="103"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="105"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="106"/>
       <c r="G3" s="57"/>
       <c r="H3" s="57"/>
       <c r="I3" s="57"/>
@@ -2536,10 +2660,10 @@
       <c r="B5" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="106" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="107"/>
+      <c r="C5" s="107" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="108"/>
       <c r="E5" s="28"/>
       <c r="F5" s="29"/>
       <c r="G5" s="28"/>
@@ -2554,8 +2678,10 @@
       <c r="B6" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="106"/>
-      <c r="D6" s="107"/>
+      <c r="C6" s="107" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" s="108"/>
       <c r="E6" s="28"/>
       <c r="F6" s="29"/>
       <c r="G6" s="28"/>
@@ -2570,8 +2696,10 @@
       <c r="B7" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="106"/>
-      <c r="D7" s="107"/>
+      <c r="C7" s="107" t="s">
+        <v>196</v>
+      </c>
+      <c r="D7" s="108"/>
       <c r="E7" s="28"/>
       <c r="F7" s="29"/>
       <c r="G7" s="28"/>
@@ -2586,10 +2714,10 @@
       <c r="B8" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="106" t="s">
-        <v>135</v>
-      </c>
-      <c r="D8" s="107"/>
+      <c r="C8" s="107" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="108"/>
       <c r="E8" s="28"/>
       <c r="F8" s="29"/>
       <c r="G8" s="28"/>
@@ -2602,10 +2730,12 @@
     <row r="9" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="24"/>
       <c r="B9" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="106"/>
-      <c r="D9" s="107"/>
+        <v>79</v>
+      </c>
+      <c r="C9" s="109">
+        <v>43615</v>
+      </c>
+      <c r="D9" s="108"/>
       <c r="E9" s="28"/>
       <c r="F9" s="29"/>
       <c r="G9" s="28"/>
@@ -2631,16 +2761,16 @@
     </row>
     <row r="11" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24"/>
-      <c r="B11" s="108" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="109"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="110"/>
+      <c r="B11" s="110" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="112"/>
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
       <c r="L11" s="24"/>
@@ -2650,16 +2780,16 @@
     <row r="12" spans="1:20" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A12" s="54"/>
       <c r="B12" s="68" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="91" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="92"/>
-      <c r="E12" s="91" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="92"/>
+        <v>57</v>
+      </c>
+      <c r="C12" s="92" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="93"/>
+      <c r="E12" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="93"/>
       <c r="G12" s="68" t="s">
         <v>25</v>
       </c>
@@ -2680,24 +2810,24 @@
     <row r="13" spans="1:20" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="54"/>
       <c r="B13" s="63" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="88" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="96"/>
+      <c r="E13" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="87" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="95"/>
-      <c r="E13" s="83" t="s">
-        <v>97</v>
-      </c>
-      <c r="F13" s="84"/>
+      <c r="F13" s="85"/>
       <c r="G13" s="69" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H13" s="70">
         <v>43608</v>
       </c>
       <c r="I13" s="69" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J13" s="62"/>
       <c r="K13" s="62"/>
@@ -2710,24 +2840,24 @@
     <row r="14" spans="1:20" s="4" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="54"/>
       <c r="B14" s="71" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="100"/>
+      <c r="E14" s="94" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="98" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="99"/>
-      <c r="E14" s="93" t="s">
-        <v>98</v>
-      </c>
-      <c r="F14" s="94"/>
+      <c r="F14" s="95"/>
       <c r="G14" s="72" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="H14" s="73">
         <v>43610</v>
       </c>
       <c r="I14" s="72" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J14" s="62"/>
       <c r="K14" s="62"/>
@@ -2740,24 +2870,24 @@
     <row r="15" spans="1:20" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="54"/>
       <c r="B15" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="87" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="95"/>
-      <c r="E15" s="87" t="s">
-        <v>103</v>
-      </c>
-      <c r="F15" s="95"/>
+        <v>87</v>
+      </c>
+      <c r="C15" s="88" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="96"/>
+      <c r="E15" s="88" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="96"/>
       <c r="G15" s="69" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H15" s="70">
         <v>43617</v>
       </c>
       <c r="I15" s="69" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J15" s="62"/>
       <c r="K15" s="62"/>
@@ -2770,24 +2900,24 @@
     <row r="16" spans="1:20" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="54"/>
       <c r="B16" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="87" t="s">
-        <v>102</v>
-      </c>
-      <c r="D16" s="95"/>
-      <c r="E16" s="87" t="s">
-        <v>104</v>
-      </c>
-      <c r="F16" s="95"/>
+        <v>88</v>
+      </c>
+      <c r="C16" s="88" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="96"/>
+      <c r="E16" s="88" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="96"/>
       <c r="G16" s="69" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H16" s="70">
         <v>43612</v>
       </c>
       <c r="I16" s="69" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J16" s="62"/>
       <c r="K16" s="62"/>
@@ -2800,24 +2930,24 @@
     <row r="17" spans="1:21" s="4" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="54"/>
       <c r="B17" s="63" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" s="87" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" s="95"/>
-      <c r="E17" s="87" t="s">
-        <v>106</v>
-      </c>
-      <c r="F17" s="95"/>
+        <v>109</v>
+      </c>
+      <c r="C17" s="88" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="96"/>
+      <c r="E17" s="88" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="96"/>
       <c r="G17" s="69" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="H17" s="70">
         <v>43611</v>
       </c>
       <c r="I17" s="69" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J17" s="62"/>
       <c r="K17" s="62"/>
@@ -2847,17 +2977,17 @@
     </row>
     <row r="19" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="55"/>
-      <c r="B19" s="96" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="97"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="97"/>
-      <c r="I19" s="97"/>
-      <c r="J19" s="97"/>
+      <c r="B19" s="97" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="98"/>
+      <c r="J19" s="98"/>
       <c r="K19" s="24"/>
       <c r="L19" s="24"/>
     </row>
@@ -2866,18 +2996,18 @@
       <c r="B20" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="85" t="s">
+      <c r="C20" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="86"/>
-      <c r="E20" s="85" t="s">
+      <c r="D20" s="87"/>
+      <c r="E20" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="86"/>
-      <c r="G20" s="85" t="s">
+      <c r="F20" s="87"/>
+      <c r="G20" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="86"/>
+      <c r="H20" s="87"/>
       <c r="I20" s="67" t="s">
         <v>27</v>
       </c>
@@ -2894,25 +3024,25 @@
     <row r="21" spans="1:21" s="4" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="54"/>
       <c r="B21" s="63" t="s">
-        <v>136</v>
-      </c>
-      <c r="C21" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="D21" s="88"/>
-      <c r="E21" s="87" t="s">
-        <v>118</v>
-      </c>
-      <c r="F21" s="88"/>
-      <c r="G21" s="87" t="s">
-        <v>114</v>
-      </c>
-      <c r="H21" s="88"/>
+        <v>130</v>
+      </c>
+      <c r="C21" s="88" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="89"/>
+      <c r="E21" s="88" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="89"/>
+      <c r="G21" s="88" t="s">
+        <v>108</v>
+      </c>
+      <c r="H21" s="89"/>
       <c r="I21" s="74" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="J21" s="69" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="K21" s="27"/>
       <c r="L21" s="27"/>
@@ -2924,25 +3054,25 @@
     <row r="22" spans="1:21" s="4" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="54"/>
       <c r="B22" s="63" t="s">
-        <v>136</v>
-      </c>
-      <c r="C22" s="87" t="s">
-        <v>119</v>
-      </c>
-      <c r="D22" s="95"/>
-      <c r="E22" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="88" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" s="96"/>
+      <c r="E22" s="84" t="s">
+        <v>110</v>
+      </c>
+      <c r="F22" s="85"/>
+      <c r="G22" s="90" t="s">
+        <v>111</v>
+      </c>
+      <c r="H22" s="91"/>
+      <c r="I22" s="76" t="s">
+        <v>105</v>
+      </c>
+      <c r="J22" s="69" t="s">
         <v>116</v>
-      </c>
-      <c r="F22" s="84"/>
-      <c r="G22" s="89" t="s">
-        <v>117</v>
-      </c>
-      <c r="H22" s="90"/>
-      <c r="I22" s="76" t="s">
-        <v>111</v>
-      </c>
-      <c r="J22" s="69" t="s">
-        <v>122</v>
       </c>
       <c r="K22" s="27"/>
       <c r="L22" s="27"/>
@@ -2954,25 +3084,25 @@
     <row r="23" spans="1:21" s="4" customFormat="1" ht="77.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="54"/>
       <c r="B23" s="63" t="s">
-        <v>137</v>
-      </c>
-      <c r="C23" s="87" t="s">
-        <v>108</v>
-      </c>
-      <c r="D23" s="88"/>
-      <c r="E23" s="87" t="s">
-        <v>109</v>
-      </c>
-      <c r="F23" s="88"/>
-      <c r="G23" s="87" t="s">
-        <v>110</v>
-      </c>
-      <c r="H23" s="88"/>
+        <v>131</v>
+      </c>
+      <c r="C23" s="88" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="89"/>
+      <c r="E23" s="88" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" s="89"/>
+      <c r="G23" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="H23" s="89"/>
       <c r="I23" s="74" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="J23" s="69" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="K23" s="27"/>
       <c r="L23" s="27"/>
@@ -2984,25 +3114,25 @@
     <row r="24" spans="1:21" s="4" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="54"/>
       <c r="B24" s="63" t="s">
-        <v>137</v>
-      </c>
-      <c r="C24" s="87" t="s">
-        <v>123</v>
-      </c>
-      <c r="D24" s="95"/>
-      <c r="E24" s="111" t="s">
-        <v>124</v>
-      </c>
-      <c r="F24" s="112"/>
-      <c r="G24" s="89" t="s">
-        <v>125</v>
-      </c>
-      <c r="H24" s="90"/>
+        <v>131</v>
+      </c>
+      <c r="C24" s="88" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="96"/>
+      <c r="E24" s="113" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" s="114"/>
+      <c r="G24" s="90" t="s">
+        <v>119</v>
+      </c>
+      <c r="H24" s="91"/>
       <c r="I24" s="78" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="J24" s="69" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="K24" s="27"/>
       <c r="L24" s="27"/>
@@ -3014,25 +3144,25 @@
     <row r="25" spans="1:21" s="4" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="54"/>
       <c r="B25" s="63" t="s">
-        <v>138</v>
-      </c>
-      <c r="C25" s="87" t="s">
-        <v>126</v>
-      </c>
-      <c r="D25" s="88"/>
-      <c r="E25" s="87" t="s">
-        <v>121</v>
-      </c>
-      <c r="F25" s="113"/>
-      <c r="G25" s="114" t="s">
-        <v>129</v>
-      </c>
-      <c r="H25" s="115"/>
+        <v>132</v>
+      </c>
+      <c r="C25" s="88" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="89"/>
+      <c r="E25" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25" s="115"/>
+      <c r="G25" s="116" t="s">
+        <v>123</v>
+      </c>
+      <c r="H25" s="117"/>
       <c r="I25" s="76" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="J25" s="69" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="K25" s="27"/>
       <c r="L25" s="27"/>
@@ -3044,25 +3174,25 @@
     <row r="26" spans="1:21" s="4" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="54"/>
       <c r="B26" s="63" t="s">
-        <v>139</v>
-      </c>
-      <c r="C26" s="87" t="s">
-        <v>127</v>
-      </c>
-      <c r="D26" s="95"/>
-      <c r="E26" s="87" t="s">
-        <v>128</v>
-      </c>
-      <c r="F26" s="95"/>
-      <c r="G26" s="114" t="s">
-        <v>131</v>
-      </c>
-      <c r="H26" s="115"/>
+        <v>133</v>
+      </c>
+      <c r="C26" s="88" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" s="96"/>
+      <c r="E26" s="88" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" s="96"/>
+      <c r="G26" s="116" t="s">
+        <v>125</v>
+      </c>
+      <c r="H26" s="117"/>
       <c r="I26" s="76" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="J26" s="69" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="K26" s="27"/>
       <c r="L26" s="27"/>
@@ -3074,25 +3204,25 @@
     <row r="27" spans="1:21" s="4" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="54"/>
       <c r="B27" s="63" t="s">
-        <v>140</v>
-      </c>
-      <c r="C27" s="87" t="s">
-        <v>132</v>
-      </c>
-      <c r="D27" s="95"/>
-      <c r="E27" s="87" t="s">
         <v>134</v>
       </c>
-      <c r="F27" s="95"/>
-      <c r="G27" s="114" t="s">
-        <v>133</v>
-      </c>
-      <c r="H27" s="115"/>
+      <c r="C27" s="88" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" s="96"/>
+      <c r="E27" s="88" t="s">
+        <v>128</v>
+      </c>
+      <c r="F27" s="96"/>
+      <c r="G27" s="116" t="s">
+        <v>127</v>
+      </c>
+      <c r="H27" s="117"/>
       <c r="I27" s="76" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="J27" s="69" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="K27" s="27"/>
       <c r="L27" s="27"/>
@@ -3134,7 +3264,7 @@
         <v>19</v>
       </c>
       <c r="C30" s="75" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
@@ -3302,13 +3432,13 @@
     <mergeCell ref="C17:D17"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I13:I17" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I13:I17">
       <formula1>"Não Iniciado, Em andamento, Concluído, Pendente"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J21:J27" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J21:J27">
       <formula1>"Não testado,Testado- NÃO OK,Testado - OK"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I21:I27" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I21:I27">
       <formula1>"Essencial, Importante, Desejável"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3319,11 +3449,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3351,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3367,7 +3497,7 @@
         <v>42</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3399,12 +3529,12 @@
         <v>38</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="37" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B10" s="39" t="s">
         <v>37</v>
@@ -3412,7 +3542,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B11" s="39" t="s">
         <v>36</v>
@@ -3430,10 +3560,10 @@
       <c r="A15" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="116" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="116"/>
+      <c r="B15" s="118" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="118"/>
       <c r="D15" s="41"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
@@ -3491,19 +3621,19 @@
     </row>
     <row r="25" spans="1:20" s="43" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A25" s="42" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C25" s="45" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D25" s="45" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E25" s="45" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F25" s="46"/>
       <c r="G25" s="47" t="s">
@@ -3513,7 +3643,7 @@
         <v>32</v>
       </c>
       <c r="I25" s="52" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q25" s="44"/>
       <c r="R25" s="44"/>
@@ -3522,19 +3652,19 @@
     </row>
     <row r="26" spans="1:20" s="43" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A26" s="42" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C26" s="45" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D26" s="45" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E26" s="45" t="s">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="F26" s="46"/>
       <c r="G26" s="47" t="s">
@@ -3544,7 +3674,7 @@
         <v>32</v>
       </c>
       <c r="I26" s="52" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q26" s="44"/>
       <c r="R26" s="44"/>
@@ -3553,29 +3683,29 @@
     </row>
     <row r="27" spans="1:20" s="43" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A27" s="42" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C27" s="45" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D27" s="45" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E27" s="45" t="s">
-        <v>76</v>
+        <v>183</v>
       </c>
       <c r="F27" s="46"/>
       <c r="G27" s="47" t="s">
         <v>32</v>
       </c>
       <c r="H27" s="47" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="I27" s="52" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q27" s="44"/>
       <c r="R27" s="44"/>
@@ -3584,19 +3714,19 @@
     </row>
     <row r="28" spans="1:20" s="43" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A28" s="42" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C28" s="45" t="s">
-        <v>53</v>
+        <v>179</v>
       </c>
       <c r="D28" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="E28" s="45" t="s">
         <v>50</v>
-      </c>
-      <c r="E28" s="45" t="s">
-        <v>51</v>
       </c>
       <c r="F28" s="46"/>
       <c r="G28" s="47" t="s">
@@ -3606,7 +3736,7 @@
         <v>32</v>
       </c>
       <c r="I28" s="52" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q28" s="44"/>
       <c r="R28" s="44"/>
@@ -3615,19 +3745,19 @@
     </row>
     <row r="29" spans="1:20" s="43" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A29" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="42" t="s">
-        <v>68</v>
-      </c>
       <c r="C29" s="45" t="s">
-        <v>53</v>
+        <v>181</v>
       </c>
       <c r="D29" s="45" t="s">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="E29" s="45" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F29" s="46"/>
       <c r="G29" s="47" t="s">
@@ -3637,7 +3767,7 @@
         <v>32</v>
       </c>
       <c r="I29" s="52" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q29" s="44"/>
       <c r="R29" s="44"/>
@@ -3663,7 +3793,7 @@
     </row>
     <row r="31" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" s="42" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B31" s="42"/>
       <c r="C31" s="45"/>
@@ -3680,7 +3810,7 @@
     </row>
     <row r="32" spans="1:20" s="43" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="42" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B32" s="42"/>
       <c r="C32" s="45"/>
@@ -3697,7 +3827,7 @@
     </row>
     <row r="33" spans="1:20" s="43" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="42" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B33" s="42"/>
       <c r="C33" s="45"/>
@@ -3723,7 +3853,7 @@
         <v>5</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
@@ -3742,8 +3872,8 @@
     <mergeCell ref="B15:C15"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B11" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B10" r:id="rId1"/>
+    <hyperlink ref="B11" r:id="rId2"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0" footer="9.8611111111111122E-2"/>
@@ -3756,11 +3886,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:T41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25:H27"/>
+    <sheetView topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3788,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3804,7 +3934,7 @@
         <v>42</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3836,12 +3966,12 @@
         <v>38</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="37" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B10" s="39" t="s">
         <v>37</v>
@@ -3849,7 +3979,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B11" s="39" t="s">
         <v>36</v>
@@ -3867,10 +3997,10 @@
       <c r="A15" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="116" t="s">
-        <v>156</v>
-      </c>
-      <c r="C15" s="116"/>
+      <c r="B15" s="118" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="118"/>
       <c r="D15" s="81"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
@@ -3928,19 +4058,19 @@
     </row>
     <row r="25" spans="1:20" s="43" customFormat="1" ht="120" x14ac:dyDescent="0.2">
       <c r="A25" s="42" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B25" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="D25" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="C25" s="45" t="s">
-        <v>164</v>
-      </c>
-      <c r="D25" s="45" t="s">
-        <v>168</v>
-      </c>
       <c r="E25" s="45" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F25" s="46"/>
       <c r="G25" s="47" t="s">
@@ -3950,28 +4080,28 @@
         <v>32</v>
       </c>
       <c r="I25" s="52" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q25" s="44"/>
       <c r="R25" s="44"/>
       <c r="S25" s="44"/>
       <c r="T25" s="44"/>
     </row>
-    <row r="26" spans="1:20" s="43" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" s="43" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="42" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C26" s="45" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D26" s="45" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E26" s="45" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F26" s="46"/>
       <c r="G26" s="47" t="s">
@@ -3981,28 +4111,28 @@
         <v>32</v>
       </c>
       <c r="I26" s="52" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q26" s="44"/>
       <c r="R26" s="44"/>
       <c r="S26" s="44"/>
       <c r="T26" s="44"/>
     </row>
-    <row r="27" spans="1:20" s="43" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" s="43" customFormat="1" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="42" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C27" s="45" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D27" s="45" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E27" s="45" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="F27" s="46"/>
       <c r="G27" s="47" t="s">
@@ -4012,70 +4142,42 @@
         <v>32</v>
       </c>
       <c r="I27" s="52" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q27" s="44"/>
       <c r="R27" s="44"/>
       <c r="S27" s="44"/>
       <c r="T27" s="44"/>
     </row>
-    <row r="28" spans="1:20" s="43" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="45" t="s">
-        <v>51</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B28" s="42"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
       <c r="F28" s="46"/>
-      <c r="G28" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="H28" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="I28" s="52" t="s">
-        <v>58</v>
-      </c>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="52"/>
       <c r="Q28" s="44"/>
       <c r="R28" s="44"/>
       <c r="S28" s="44"/>
       <c r="T28" s="44"/>
     </row>
-    <row r="29" spans="1:20" s="43" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A29" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="45" t="s">
-        <v>54</v>
-      </c>
+      <c r="B29" s="42"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
       <c r="F29" s="46"/>
-      <c r="G29" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="H29" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="I29" s="52" t="s">
-        <v>58</v>
-      </c>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="52"/>
       <c r="Q29" s="44"/>
       <c r="R29" s="44"/>
       <c r="S29" s="44"/>
@@ -4083,7 +4185,7 @@
     </row>
     <row r="30" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A30" s="42" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="B30" s="42"/>
       <c r="C30" s="45"/>
@@ -4100,84 +4202,77 @@
     </row>
     <row r="31" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B31" s="42"/>
       <c r="C31" s="45"/>
       <c r="D31" s="45"/>
       <c r="E31" s="45"/>
-      <c r="F31" s="46"/>
+      <c r="F31" s="48"/>
       <c r="G31" s="47"/>
       <c r="H31" s="47"/>
-      <c r="I31" s="52"/>
+      <c r="I31" s="23"/>
       <c r="Q31" s="44"/>
       <c r="R31" s="44"/>
       <c r="S31" s="44"/>
       <c r="T31" s="44"/>
     </row>
     <row r="32" spans="1:20" s="43" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" s="42"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="52"/>
       <c r="Q32" s="44"/>
       <c r="R32" s="44"/>
       <c r="S32" s="44"/>
       <c r="T32" s="44"/>
     </row>
     <row r="33" spans="1:20" s="43" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="42"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="23"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
       <c r="Q33" s="44"/>
       <c r="R33" s="44"/>
       <c r="S33" s="44"/>
       <c r="T33" s="44"/>
     </row>
     <row r="34" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
       <c r="Q34" s="44"/>
       <c r="R34" s="44"/>
       <c r="S34" s="44"/>
       <c r="T34" s="44"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A36" s="49" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A37" s="50" t="s">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A35" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="51">
+      <c r="B35" s="51">
         <v>43172</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A41" s="38"/>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A39" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B15:C15"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="B11" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="B11" r:id="rId1"/>
+    <hyperlink ref="B10" r:id="rId2"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0" footer="9.8611111111111122E-2"/>
@@ -4190,11 +4285,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9AF24D9-0628-4059-B6F4-A2100ACC8EA3}">
-  <dimension ref="A1:T41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25:H27"/>
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4204,7 +4299,7 @@
     <col min="3" max="3" width="38" style="33" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38" style="33" customWidth="1"/>
     <col min="5" max="5" width="33.42578125" style="33" customWidth="1"/>
-    <col min="6" max="6" width="32.42578125" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39" style="34" customWidth="1"/>
     <col min="7" max="7" width="25.5703125" style="33" customWidth="1"/>
     <col min="8" max="9" width="20.85546875" style="33" customWidth="1"/>
     <col min="10" max="10" width="21.42578125" style="33" customWidth="1"/>
@@ -4222,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4238,7 +4333,7 @@
         <v>42</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4270,12 +4365,12 @@
         <v>38</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="37" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B10" s="39" t="s">
         <v>37</v>
@@ -4283,7 +4378,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B11" s="39" t="s">
         <v>36</v>
@@ -4301,10 +4396,10 @@
       <c r="A15" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="116" t="s">
-        <v>161</v>
-      </c>
-      <c r="C15" s="116"/>
+      <c r="B15" s="118" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" s="118"/>
       <c r="D15" s="82"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
@@ -4360,21 +4455,21 @@
       <c r="S24" s="44"/>
       <c r="T24" s="44"/>
     </row>
-    <row r="25" spans="1:20" s="43" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" s="43" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="42" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C25" s="45" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D25" s="45" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E25" s="45" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F25" s="46"/>
       <c r="G25" s="47" t="s">
@@ -4384,28 +4479,28 @@
         <v>32</v>
       </c>
       <c r="I25" s="52" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q25" s="44"/>
       <c r="R25" s="44"/>
       <c r="S25" s="44"/>
       <c r="T25" s="44"/>
     </row>
-    <row r="26" spans="1:20" s="43" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" s="43" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="42" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C26" s="45" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D26" s="45" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E26" s="45" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F26" s="46"/>
       <c r="G26" s="47" t="s">
@@ -4415,28 +4510,28 @@
         <v>32</v>
       </c>
       <c r="I26" s="52" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q26" s="44"/>
       <c r="R26" s="44"/>
       <c r="S26" s="44"/>
       <c r="T26" s="44"/>
     </row>
-    <row r="27" spans="1:20" s="43" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" s="43" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="42" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C27" s="45" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D27" s="45" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E27" s="45" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F27" s="46"/>
       <c r="G27" s="47" t="s">
@@ -4446,70 +4541,42 @@
         <v>32</v>
       </c>
       <c r="I27" s="52" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q27" s="44"/>
       <c r="R27" s="44"/>
       <c r="S27" s="44"/>
       <c r="T27" s="44"/>
     </row>
-    <row r="28" spans="1:20" s="43" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="45" t="s">
-        <v>51</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B28" s="42"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
       <c r="F28" s="46"/>
-      <c r="G28" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="H28" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="I28" s="52" t="s">
-        <v>58</v>
-      </c>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="52"/>
       <c r="Q28" s="44"/>
       <c r="R28" s="44"/>
       <c r="S28" s="44"/>
       <c r="T28" s="44"/>
     </row>
-    <row r="29" spans="1:20" s="43" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A29" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="45" t="s">
-        <v>54</v>
-      </c>
+      <c r="B29" s="42"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
       <c r="F29" s="46"/>
-      <c r="G29" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="H29" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="I29" s="52" t="s">
-        <v>58</v>
-      </c>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="52"/>
       <c r="Q29" s="44"/>
       <c r="R29" s="44"/>
       <c r="S29" s="44"/>
@@ -4517,7 +4584,7 @@
     </row>
     <row r="30" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A30" s="42" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="B30" s="42"/>
       <c r="C30" s="45"/>
@@ -4534,87 +4601,79 @@
     </row>
     <row r="31" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B31" s="42"/>
       <c r="C31" s="45"/>
       <c r="D31" s="45"/>
       <c r="E31" s="45"/>
-      <c r="F31" s="46"/>
+      <c r="F31" s="48"/>
       <c r="G31" s="47"/>
       <c r="H31" s="47"/>
-      <c r="I31" s="52"/>
+      <c r="I31" s="23"/>
       <c r="Q31" s="44"/>
       <c r="R31" s="44"/>
       <c r="S31" s="44"/>
       <c r="T31" s="44"/>
     </row>
     <row r="32" spans="1:20" s="43" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" s="42"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="52"/>
       <c r="Q32" s="44"/>
       <c r="R32" s="44"/>
       <c r="S32" s="44"/>
       <c r="T32" s="44"/>
     </row>
     <row r="33" spans="1:20" s="43" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="42"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="23"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
       <c r="Q33" s="44"/>
       <c r="R33" s="44"/>
       <c r="S33" s="44"/>
       <c r="T33" s="44"/>
     </row>
     <row r="34" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
       <c r="Q34" s="44"/>
       <c r="R34" s="44"/>
       <c r="S34" s="44"/>
       <c r="T34" s="44"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A36" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="33" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A37" s="50" t="s">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A35" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="51">
+      <c r="B35" s="51">
         <v>43172</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A41" s="38"/>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A39" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B15:C15"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1" xr:uid="{1A2BAB50-BEA9-40BF-BAD5-F74914C09A60}"/>
-    <hyperlink ref="B11" r:id="rId2" xr:uid="{77F215B4-64AB-4F1B-AC55-21F2B490EBB1}"/>
+    <hyperlink ref="B10" r:id="rId1"/>
+    <hyperlink ref="B11" r:id="rId2"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0" footer="9.8611111111111122E-2"/>
@@ -4627,11 +4686,391 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" style="33" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38" style="33" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" style="33" customWidth="1"/>
+    <col min="6" max="6" width="39" style="34" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" style="33" customWidth="1"/>
+    <col min="8" max="9" width="20.85546875" style="33" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" style="33" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" style="33" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="33" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" style="33" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" style="33" customWidth="1"/>
+    <col min="15" max="15" width="32.28515625" style="35" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" style="33" customWidth="1"/>
+    <col min="17" max="16384" width="11.7109375" style="33"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="36">
+        <v>43614</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="31"/>
+      <c r="B6" s="37"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="31"/>
+      <c r="B7" s="37"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="37"/>
+      <c r="B12" s="39"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="37"/>
+      <c r="B13" s="39"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="118" t="s">
+        <v>189</v>
+      </c>
+      <c r="C15" s="118"/>
+      <c r="D15" s="83"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" s="38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" s="33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" s="33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" s="33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A24" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="44"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="44"/>
+    </row>
+    <row r="25" spans="1:20" s="43" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="D25" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="E25" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="F25" s="46"/>
+      <c r="G25" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="44"/>
+    </row>
+    <row r="26" spans="1:20" s="43" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="42" t="s">
+        <v>187</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="D26" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="E26" s="45" t="s">
+        <v>194</v>
+      </c>
+      <c r="F26" s="46"/>
+      <c r="G26" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="44"/>
+    </row>
+    <row r="27" spans="1:20" s="43" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="42"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="52"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="44"/>
+    </row>
+    <row r="28" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="42"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="52"/>
+      <c r="Q28" s="44"/>
+      <c r="R28" s="44"/>
+      <c r="S28" s="44"/>
+      <c r="T28" s="44"/>
+    </row>
+    <row r="29" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="42"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="52"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="44"/>
+      <c r="S29" s="44"/>
+      <c r="T29" s="44"/>
+    </row>
+    <row r="30" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="42"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="23"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="44"/>
+      <c r="S30" s="44"/>
+      <c r="T30" s="44"/>
+    </row>
+    <row r="31" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="Q31" s="44"/>
+      <c r="R31" s="44"/>
+      <c r="S31" s="44"/>
+      <c r="T31" s="44"/>
+    </row>
+    <row r="32" spans="1:20" s="43" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="33"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="Q32" s="44"/>
+      <c r="R32" s="44"/>
+      <c r="S32" s="44"/>
+      <c r="T32" s="44"/>
+    </row>
+    <row r="33" spans="1:20" s="43" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="44"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="44"/>
+    </row>
+    <row r="34" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="51">
+        <v>43172</v>
+      </c>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="Q34" s="44"/>
+      <c r="R34" s="44"/>
+      <c r="S34" s="44"/>
+      <c r="T34" s="44"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A38" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B15:C15"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B10" r:id="rId1"/>
+    <hyperlink ref="B11" r:id="rId2"/>
+  </hyperlinks>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0" footer="9.8611111111111122E-2"/>
+  <pageSetup fitToHeight="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;CSeite &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24:F24"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4648,20 +5087,20 @@
     <row r="1" spans="1:6" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:6" s="17" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="64"/>
-      <c r="B2" s="117" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="119"/>
+      <c r="B2" s="119" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="121"/>
     </row>
     <row r="3" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="120"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="122"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="124"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="8"/>
@@ -4690,16 +5129,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="80" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -4707,16 +5146,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="80" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -4724,16 +5163,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="80" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -4741,16 +5180,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="80" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -4758,16 +5197,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="80" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -4775,16 +5214,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="80" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -4792,16 +5231,16 @@
         <v>7</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="80" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -4809,16 +5248,16 @@
         <v>8</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="80" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -4826,16 +5265,16 @@
         <v>9</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="80" t="s">
-        <v>185</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -4843,16 +5282,16 @@
         <v>10</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E15" s="20" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="80" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -4860,16 +5299,16 @@
         <v>11</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="80" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
@@ -4877,16 +5316,16 @@
         <v>12</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="80" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
@@ -4912,34 +5351,34 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="14"/>
-      <c r="C22" s="123"/>
-      <c r="D22" s="123"/>
-      <c r="E22" s="123"/>
+      <c r="C22" s="125"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="125"/>
       <c r="F22" s="15"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="124" t="s">
+      <c r="B23" s="126" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="125" t="s">
-        <v>153</v>
-      </c>
-      <c r="E23" s="125"/>
-      <c r="F23" s="125"/>
+      <c r="D23" s="127" t="s">
+        <v>147</v>
+      </c>
+      <c r="E23" s="127"/>
+      <c r="F23" s="127"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="124"/>
+      <c r="B24" s="126"/>
       <c r="C24" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="125" t="s">
-        <v>186</v>
-      </c>
-      <c r="E24" s="125"/>
-      <c r="F24" s="125"/>
+      <c r="D24" s="127" t="s">
+        <v>177</v>
+      </c>
+      <c r="E24" s="127"/>
+      <c r="F24" s="127"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B27" s="12"/>

--- a/Projeto-Documentacao/Planilhas/Plano de UAT - Homol 1 Semestre 2019 v1.xlsx
+++ b/Projeto-Documentacao/Planilhas/Plano de UAT - Homol 1 Semestre 2019 v1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\grupo3-sa\Projeto-Documentacao\Planilhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leona\Desktop\grupo3-sa\Projeto-Documentacao\Planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C753757-F4CB-44CF-BC03-7E07429808A9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="503" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="503" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plano de Homologação" sheetId="5" r:id="rId1"/>
@@ -24,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>move0011</author>
   </authors>
   <commentList>
-    <comment ref="I20" authorId="0" shapeId="0">
+    <comment ref="I20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -650,11 +651,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00;[Red]\-[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="37">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -724,13 +725,6 @@
       <b/>
       <sz val="10"/>
       <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -818,13 +812,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="Arial"/>
@@ -890,8 +877,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -950,6 +944,11 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
       </patternFill>
     </fill>
   </fills>
@@ -1215,7 +1214,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1261,6 +1260,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="128">
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1">
@@ -1333,342 +1333,316 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="14" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="12" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="31" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="31" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="33" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="15" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="33" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1688,23 +1662,50 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="9" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="8" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="7" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="5" xfId="15" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="5" xfId="15" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="11" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="12" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="13" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="15">
-    <cellStyle name="Background" xfId="1"/>
-    <cellStyle name="Card" xfId="2"/>
-    <cellStyle name="Card B" xfId="3"/>
-    <cellStyle name="Card BL" xfId="4"/>
-    <cellStyle name="Card BR" xfId="5"/>
-    <cellStyle name="Card L" xfId="6"/>
-    <cellStyle name="Card R" xfId="7"/>
-    <cellStyle name="Card T" xfId="8"/>
-    <cellStyle name="Card TL" xfId="9"/>
-    <cellStyle name="Card TR" xfId="10"/>
-    <cellStyle name="Column Header" xfId="11"/>
+  <cellStyles count="16">
+    <cellStyle name="Background" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Card" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Card B" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Card BL" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Card BR" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Card L" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Card R" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Card T" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Card TL" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Card TR" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Column Header" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Ênfase1" xfId="15" builtinId="29"/>
     <cellStyle name="Hiperlink" xfId="12" builtinId="8"/>
-    <cellStyle name="Input" xfId="13"/>
+    <cellStyle name="Input" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="14"/>
+    <cellStyle name="Normal 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1804,7 +1805,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1"/>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1848,7 +1855,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 2"/>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1892,7 +1905,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagem 3"/>
+        <xdr:cNvPr id="4" name="Imagem 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1936,7 +1955,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Imagem 6"/>
+        <xdr:cNvPr id="7" name="Imagem 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1980,7 +2005,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Imagem 7"/>
+        <xdr:cNvPr id="8" name="Imagem 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2029,7 +2060,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagem 3"/>
+        <xdr:cNvPr id="4" name="Imagem 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2073,7 +2110,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagem 4"/>
+        <xdr:cNvPr id="5" name="Imagem 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2117,7 +2160,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Imagem 5"/>
+        <xdr:cNvPr id="6" name="Imagem 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2166,7 +2215,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagem 3"/>
+        <xdr:cNvPr id="4" name="Imagem 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2210,7 +2265,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagem 4"/>
+        <xdr:cNvPr id="5" name="Imagem 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2254,7 +2315,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Imagem 5"/>
+        <xdr:cNvPr id="6" name="Imagem 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2362,6 +2429,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2397,6 +2481,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2572,14 +2673,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="1.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" style="2" customWidth="1"/>
@@ -2597,7 +2698,7 @@
     <col min="18" max="16384" width="11.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="22" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="22" customFormat="1" ht="15.6" customHeight="1">
       <c r="A1" s="53"/>
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
@@ -2611,15 +2712,15 @@
       <c r="K1" s="57"/>
       <c r="L1" s="53"/>
     </row>
-    <row r="2" spans="1:20" s="22" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" s="22" customFormat="1" ht="19.5" customHeight="1">
       <c r="A2" s="53"/>
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="103"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="95"/>
       <c r="G2" s="57"/>
       <c r="H2" s="57"/>
       <c r="I2" s="57"/>
@@ -2627,13 +2728,13 @@
       <c r="K2" s="57"/>
       <c r="L2" s="53"/>
     </row>
-    <row r="3" spans="1:20" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" s="22" customFormat="1" ht="15">
       <c r="A3" s="53"/>
-      <c r="B3" s="104"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="106"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="98"/>
       <c r="G3" s="57"/>
       <c r="H3" s="57"/>
       <c r="I3" s="57"/>
@@ -2641,7 +2742,7 @@
       <c r="K3" s="57"/>
       <c r="L3" s="53"/>
     </row>
-    <row r="4" spans="1:20" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" s="6" customFormat="1" ht="15">
       <c r="A4" s="26"/>
       <c r="B4" s="58"/>
       <c r="C4" s="58"/>
@@ -2655,15 +2756,15 @@
       <c r="K4" s="30"/>
       <c r="L4" s="26"/>
     </row>
-    <row r="5" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" ht="14.25">
       <c r="A5" s="24"/>
       <c r="B5" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="107" t="s">
+      <c r="C5" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="108"/>
+      <c r="D5" s="100"/>
       <c r="E5" s="28"/>
       <c r="F5" s="29"/>
       <c r="G5" s="28"/>
@@ -2673,15 +2774,15 @@
       <c r="K5" s="28"/>
       <c r="L5" s="24"/>
     </row>
-    <row r="6" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" ht="14.25">
       <c r="A6" s="24"/>
       <c r="B6" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="107" t="s">
+      <c r="C6" s="99" t="s">
         <v>197</v>
       </c>
-      <c r="D6" s="108"/>
+      <c r="D6" s="100"/>
       <c r="E6" s="28"/>
       <c r="F6" s="29"/>
       <c r="G6" s="28"/>
@@ -2691,15 +2792,15 @@
       <c r="K6" s="28"/>
       <c r="L6" s="24"/>
     </row>
-    <row r="7" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" ht="14.25">
       <c r="A7" s="24"/>
       <c r="B7" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="107" t="s">
+      <c r="C7" s="99" t="s">
         <v>196</v>
       </c>
-      <c r="D7" s="108"/>
+      <c r="D7" s="100"/>
       <c r="E7" s="28"/>
       <c r="F7" s="29"/>
       <c r="G7" s="28"/>
@@ -2709,15 +2810,15 @@
       <c r="K7" s="28"/>
       <c r="L7" s="24"/>
     </row>
-    <row r="8" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" ht="14.25">
       <c r="A8" s="24"/>
       <c r="B8" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="107" t="s">
+      <c r="C8" s="99" t="s">
         <v>129</v>
       </c>
-      <c r="D8" s="108"/>
+      <c r="D8" s="100"/>
       <c r="E8" s="28"/>
       <c r="F8" s="29"/>
       <c r="G8" s="28"/>
@@ -2727,15 +2828,15 @@
       <c r="K8" s="28"/>
       <c r="L8" s="24"/>
     </row>
-    <row r="9" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" ht="28.5">
       <c r="A9" s="24"/>
       <c r="B9" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="109">
+      <c r="C9" s="101">
         <v>43615</v>
       </c>
-      <c r="D9" s="108"/>
+      <c r="D9" s="100"/>
       <c r="E9" s="28"/>
       <c r="F9" s="29"/>
       <c r="G9" s="28"/>
@@ -2745,7 +2846,7 @@
       <c r="K9" s="28"/>
       <c r="L9" s="24"/>
     </row>
-    <row r="10" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" ht="14.25">
       <c r="A10" s="24"/>
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
@@ -2759,44 +2860,44 @@
       <c r="K10" s="28"/>
       <c r="L10" s="24"/>
     </row>
-    <row r="11" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" ht="14.1" customHeight="1">
       <c r="A11" s="24"/>
-      <c r="B11" s="110" t="s">
+      <c r="B11" s="102" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="112"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="104"/>
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
       <c r="L11" s="24"/>
       <c r="O11" s="3"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:20" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" s="4" customFormat="1" ht="45">
       <c r="A12" s="54"/>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="92" t="s">
+      <c r="C12" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="93"/>
-      <c r="E12" s="92" t="s">
+      <c r="D12" s="92"/>
+      <c r="E12" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="93"/>
-      <c r="G12" s="68" t="s">
+      <c r="F12" s="92"/>
+      <c r="G12" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="68" t="s">
+      <c r="H12" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="68" t="s">
+      <c r="I12" s="65" t="s">
         <v>30</v>
       </c>
       <c r="J12" s="62"/>
@@ -2807,26 +2908,26 @@
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
     </row>
-    <row r="13" spans="1:20" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" s="4" customFormat="1" ht="60" customHeight="1">
       <c r="A13" s="54"/>
       <c r="B13" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="88" t="s">
+      <c r="C13" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="96"/>
-      <c r="E13" s="84" t="s">
+      <c r="D13" s="86"/>
+      <c r="E13" s="105" t="s">
         <v>91</v>
       </c>
-      <c r="F13" s="85"/>
-      <c r="G13" s="69" t="s">
+      <c r="F13" s="106"/>
+      <c r="G13" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="H13" s="70">
+      <c r="H13" s="67">
         <v>43608</v>
       </c>
-      <c r="I13" s="69" t="s">
+      <c r="I13" s="66" t="s">
         <v>94</v>
       </c>
       <c r="J13" s="62"/>
@@ -2837,26 +2938,26 @@
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
     </row>
-    <row r="14" spans="1:20" s="4" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" s="4" customFormat="1" ht="41.45" customHeight="1">
       <c r="A14" s="54"/>
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="99" t="s">
+      <c r="C14" s="111" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="100"/>
-      <c r="E14" s="94" t="s">
+      <c r="D14" s="112"/>
+      <c r="E14" s="107" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="95"/>
-      <c r="G14" s="72" t="s">
+      <c r="F14" s="108"/>
+      <c r="G14" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="H14" s="73">
+      <c r="H14" s="70">
         <v>43610</v>
       </c>
-      <c r="I14" s="72" t="s">
+      <c r="I14" s="69" t="s">
         <v>94</v>
       </c>
       <c r="J14" s="62"/>
@@ -2867,26 +2968,26 @@
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
     </row>
-    <row r="15" spans="1:20" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" s="4" customFormat="1" ht="40.5" customHeight="1">
       <c r="A15" s="54"/>
       <c r="B15" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="88" t="s">
+      <c r="C15" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="96"/>
-      <c r="E15" s="88" t="s">
+      <c r="D15" s="86"/>
+      <c r="E15" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="96"/>
-      <c r="G15" s="69" t="s">
+      <c r="F15" s="86"/>
+      <c r="G15" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="H15" s="70">
+      <c r="H15" s="67">
         <v>43617</v>
       </c>
-      <c r="I15" s="69" t="s">
+      <c r="I15" s="66" t="s">
         <v>94</v>
       </c>
       <c r="J15" s="62"/>
@@ -2897,26 +2998,26 @@
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
     </row>
-    <row r="16" spans="1:20" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" s="4" customFormat="1" ht="40.5" customHeight="1">
       <c r="A16" s="54"/>
       <c r="B16" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="88" t="s">
+      <c r="C16" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="D16" s="96"/>
-      <c r="E16" s="88" t="s">
+      <c r="D16" s="86"/>
+      <c r="E16" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="F16" s="96"/>
-      <c r="G16" s="69" t="s">
+      <c r="F16" s="86"/>
+      <c r="G16" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="H16" s="70">
+      <c r="H16" s="67">
         <v>43612</v>
       </c>
-      <c r="I16" s="69" t="s">
+      <c r="I16" s="66" t="s">
         <v>93</v>
       </c>
       <c r="J16" s="62"/>
@@ -2927,26 +3028,26 @@
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
     </row>
-    <row r="17" spans="1:21" s="4" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" s="4" customFormat="1" ht="37.5" customHeight="1">
       <c r="A17" s="54"/>
       <c r="B17" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="C17" s="88" t="s">
+      <c r="C17" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="D17" s="96"/>
-      <c r="E17" s="88" t="s">
+      <c r="D17" s="86"/>
+      <c r="E17" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="F17" s="96"/>
-      <c r="G17" s="69" t="s">
+      <c r="F17" s="86"/>
+      <c r="G17" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="H17" s="70">
+      <c r="H17" s="67">
         <v>43611</v>
       </c>
-      <c r="I17" s="69" t="s">
+      <c r="I17" s="66" t="s">
         <v>94</v>
       </c>
       <c r="J17" s="62"/>
@@ -2957,7 +3058,7 @@
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
     </row>
-    <row r="18" spans="1:21" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" s="4" customFormat="1" ht="15">
       <c r="A18" s="54"/>
       <c r="B18" s="62"/>
       <c r="C18" s="62"/>
@@ -2975,73 +3076,73 @@
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
     </row>
-    <row r="19" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" ht="14.1" customHeight="1">
       <c r="A19" s="55"/>
-      <c r="B19" s="97" t="s">
+      <c r="B19" s="109" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="98"/>
-      <c r="J19" s="98"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="110"/>
+      <c r="J19" s="110"/>
       <c r="K19" s="24"/>
       <c r="L19" s="24"/>
     </row>
-    <row r="20" spans="1:21" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" s="4" customFormat="1" ht="45">
       <c r="A20" s="54"/>
-      <c r="B20" s="67" t="s">
+      <c r="B20" s="122" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="86" t="s">
+      <c r="C20" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="87"/>
-      <c r="E20" s="86" t="s">
+      <c r="D20" s="121"/>
+      <c r="E20" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="87"/>
-      <c r="G20" s="86" t="s">
+      <c r="F20" s="121"/>
+      <c r="G20" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="87"/>
-      <c r="I20" s="67" t="s">
+      <c r="H20" s="121"/>
+      <c r="I20" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="J20" s="67" t="s">
+      <c r="J20" s="122" t="s">
         <v>30</v>
       </c>
       <c r="K20" s="27"/>
-      <c r="L20" s="79"/>
+      <c r="L20" s="76"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
     </row>
-    <row r="21" spans="1:21" s="4" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" s="4" customFormat="1" ht="73.5" customHeight="1">
       <c r="A21" s="54"/>
       <c r="B21" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="C21" s="88" t="s">
+      <c r="C21" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="D21" s="89"/>
-      <c r="E21" s="88" t="s">
+      <c r="D21" s="82"/>
+      <c r="E21" s="81" t="s">
         <v>112</v>
       </c>
-      <c r="F21" s="89"/>
-      <c r="G21" s="88" t="s">
+      <c r="F21" s="82"/>
+      <c r="G21" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="H21" s="89"/>
-      <c r="I21" s="74" t="s">
+      <c r="H21" s="82"/>
+      <c r="I21" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="J21" s="69" t="s">
+      <c r="J21" s="66" t="s">
         <v>116</v>
       </c>
       <c r="K21" s="27"/>
@@ -3051,27 +3152,27 @@
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
     </row>
-    <row r="22" spans="1:21" s="4" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" s="4" customFormat="1" ht="102" customHeight="1">
       <c r="A22" s="54"/>
       <c r="B22" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="C22" s="88" t="s">
+      <c r="C22" s="81" t="s">
         <v>113</v>
       </c>
-      <c r="D22" s="96"/>
-      <c r="E22" s="84" t="s">
+      <c r="D22" s="86"/>
+      <c r="E22" s="105" t="s">
         <v>110</v>
       </c>
-      <c r="F22" s="85"/>
-      <c r="G22" s="90" t="s">
+      <c r="F22" s="106"/>
+      <c r="G22" s="89" t="s">
         <v>111</v>
       </c>
-      <c r="H22" s="91"/>
-      <c r="I22" s="76" t="s">
+      <c r="H22" s="90"/>
+      <c r="I22" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="J22" s="69" t="s">
+      <c r="J22" s="66" t="s">
         <v>116</v>
       </c>
       <c r="K22" s="27"/>
@@ -3081,27 +3182,27 @@
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
     </row>
-    <row r="23" spans="1:21" s="4" customFormat="1" ht="77.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" s="4" customFormat="1" ht="77.45" customHeight="1">
       <c r="A23" s="54"/>
       <c r="B23" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="C23" s="88" t="s">
+      <c r="C23" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="D23" s="89"/>
-      <c r="E23" s="88" t="s">
+      <c r="D23" s="82"/>
+      <c r="E23" s="81" t="s">
         <v>103</v>
       </c>
-      <c r="F23" s="89"/>
-      <c r="G23" s="88" t="s">
+      <c r="F23" s="82"/>
+      <c r="G23" s="81" t="s">
         <v>104</v>
       </c>
-      <c r="H23" s="89"/>
-      <c r="I23" s="74" t="s">
+      <c r="H23" s="82"/>
+      <c r="I23" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="J23" s="69" t="s">
+      <c r="J23" s="66" t="s">
         <v>116</v>
       </c>
       <c r="K23" s="27"/>
@@ -3111,27 +3212,27 @@
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
     </row>
-    <row r="24" spans="1:21" s="4" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" s="4" customFormat="1" ht="90" customHeight="1">
       <c r="A24" s="54"/>
       <c r="B24" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="C24" s="88" t="s">
+      <c r="C24" s="81" t="s">
         <v>117</v>
       </c>
-      <c r="D24" s="96"/>
-      <c r="E24" s="113" t="s">
+      <c r="D24" s="86"/>
+      <c r="E24" s="87" t="s">
         <v>118</v>
       </c>
-      <c r="F24" s="114"/>
-      <c r="G24" s="90" t="s">
+      <c r="F24" s="88"/>
+      <c r="G24" s="89" t="s">
         <v>119</v>
       </c>
-      <c r="H24" s="91"/>
-      <c r="I24" s="78" t="s">
+      <c r="H24" s="90"/>
+      <c r="I24" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="J24" s="69" t="s">
+      <c r="J24" s="66" t="s">
         <v>116</v>
       </c>
       <c r="K24" s="27"/>
@@ -3141,27 +3242,27 @@
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
     </row>
-    <row r="25" spans="1:21" s="4" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" s="4" customFormat="1" ht="87" customHeight="1">
       <c r="A25" s="54"/>
       <c r="B25" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="C25" s="88" t="s">
+      <c r="C25" s="81" t="s">
         <v>120</v>
       </c>
-      <c r="D25" s="89"/>
-      <c r="E25" s="88" t="s">
+      <c r="D25" s="82"/>
+      <c r="E25" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="F25" s="115"/>
-      <c r="G25" s="116" t="s">
+      <c r="F25" s="83"/>
+      <c r="G25" s="84" t="s">
         <v>123</v>
       </c>
-      <c r="H25" s="117"/>
-      <c r="I25" s="76" t="s">
+      <c r="H25" s="85"/>
+      <c r="I25" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="J25" s="69" t="s">
+      <c r="J25" s="66" t="s">
         <v>116</v>
       </c>
       <c r="K25" s="27"/>
@@ -3171,27 +3272,27 @@
       <c r="T25" s="5"/>
       <c r="U25" s="5"/>
     </row>
-    <row r="26" spans="1:21" s="4" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" s="4" customFormat="1" ht="87" customHeight="1">
       <c r="A26" s="54"/>
       <c r="B26" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="C26" s="88" t="s">
+      <c r="C26" s="81" t="s">
         <v>121</v>
       </c>
-      <c r="D26" s="96"/>
-      <c r="E26" s="88" t="s">
+      <c r="D26" s="86"/>
+      <c r="E26" s="81" t="s">
         <v>122</v>
       </c>
-      <c r="F26" s="96"/>
-      <c r="G26" s="116" t="s">
+      <c r="F26" s="86"/>
+      <c r="G26" s="84" t="s">
         <v>125</v>
       </c>
-      <c r="H26" s="117"/>
-      <c r="I26" s="76" t="s">
+      <c r="H26" s="85"/>
+      <c r="I26" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="J26" s="69" t="s">
+      <c r="J26" s="66" t="s">
         <v>124</v>
       </c>
       <c r="K26" s="27"/>
@@ -3201,27 +3302,27 @@
       <c r="T26" s="5"/>
       <c r="U26" s="5"/>
     </row>
-    <row r="27" spans="1:21" s="4" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" s="4" customFormat="1" ht="87" customHeight="1">
       <c r="A27" s="54"/>
       <c r="B27" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="C27" s="88" t="s">
+      <c r="C27" s="81" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="96"/>
-      <c r="E27" s="88" t="s">
+      <c r="D27" s="86"/>
+      <c r="E27" s="81" t="s">
         <v>128</v>
       </c>
-      <c r="F27" s="96"/>
-      <c r="G27" s="116" t="s">
+      <c r="F27" s="86"/>
+      <c r="G27" s="84" t="s">
         <v>127</v>
       </c>
-      <c r="H27" s="117"/>
-      <c r="I27" s="76" t="s">
+      <c r="H27" s="85"/>
+      <c r="I27" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="J27" s="69" t="s">
+      <c r="J27" s="66" t="s">
         <v>116</v>
       </c>
       <c r="K27" s="27"/>
@@ -3231,7 +3332,7 @@
       <c r="T27" s="5"/>
       <c r="U27" s="5"/>
     </row>
-    <row r="28" spans="1:21" s="4" customFormat="1" ht="77.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" s="4" customFormat="1" ht="77.45" customHeight="1">
       <c r="A28" s="54"/>
       <c r="K28" s="27"/>
       <c r="L28" s="27"/>
@@ -3240,7 +3341,7 @@
       <c r="T28" s="5"/>
       <c r="U28" s="5"/>
     </row>
-    <row r="29" spans="1:21" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" s="4" customFormat="1" ht="14.25">
       <c r="A29" s="54"/>
       <c r="B29" s="28"/>
       <c r="C29" s="28"/>
@@ -3258,12 +3359,12 @@
       <c r="T29" s="5"/>
       <c r="U29" s="5"/>
     </row>
-    <row r="30" spans="1:21" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" ht="28.5">
       <c r="A30" s="24"/>
       <c r="B30" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="75" t="s">
+      <c r="C30" s="72" t="s">
         <v>83</v>
       </c>
       <c r="D30" s="28"/>
@@ -3276,12 +3377,12 @@
       <c r="K30" s="28"/>
       <c r="L30" s="24"/>
     </row>
-    <row r="31" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" ht="14.25">
       <c r="A31" s="24"/>
       <c r="B31" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="77">
+      <c r="C31" s="74">
         <v>43598</v>
       </c>
       <c r="D31" s="28"/>
@@ -3294,7 +3395,7 @@
       <c r="K31" s="28"/>
       <c r="L31" s="24"/>
     </row>
-    <row r="32" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" ht="14.25">
       <c r="A32" s="24"/>
       <c r="B32" s="28"/>
       <c r="C32" s="28"/>
@@ -3308,7 +3409,7 @@
       <c r="K32" s="28"/>
       <c r="L32" s="24"/>
     </row>
-    <row r="33" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="14.25">
       <c r="A33" s="24"/>
       <c r="B33" s="24"/>
       <c r="C33" s="24"/>
@@ -3322,7 +3423,7 @@
       <c r="K33" s="28"/>
       <c r="L33" s="24"/>
     </row>
-    <row r="34" spans="1:12" ht="12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="12">
       <c r="A34" s="24"/>
       <c r="B34" s="24"/>
       <c r="C34" s="24"/>
@@ -3336,7 +3437,7 @@
       <c r="K34" s="24"/>
       <c r="L34" s="24"/>
     </row>
-    <row r="35" spans="1:12" ht="12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="12">
       <c r="A35" s="24"/>
       <c r="B35" s="56"/>
       <c r="C35" s="24"/>
@@ -3350,7 +3451,7 @@
       <c r="K35" s="24"/>
       <c r="L35" s="24"/>
     </row>
-    <row r="36" spans="1:12" ht="12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="12">
       <c r="A36" s="24"/>
       <c r="B36" s="24"/>
       <c r="C36" s="24"/>
@@ -3364,7 +3465,7 @@
       <c r="K36" s="24"/>
       <c r="L36" s="24"/>
     </row>
-    <row r="37" spans="1:12" ht="12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="12">
       <c r="A37" s="24"/>
       <c r="B37" s="24"/>
       <c r="C37" s="24"/>
@@ -3378,42 +3479,13 @@
       <c r="K37" s="24"/>
       <c r="L37" s="24"/>
     </row>
-    <row r="38" spans="1:12" ht="12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="12">
       <c r="A38" s="24"/>
       <c r="K38" s="24"/>
       <c r="L38" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B11:I11"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="G21:H21"/>
@@ -3430,15 +3502,44 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I13:I17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I13:I17" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Não Iniciado, Em andamento, Concluído, Pendente"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J21:J27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J21:J27" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Não testado,Testado- NÃO OK,Testado - OK"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I21:I27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I21:I27" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Essencial, Importante, Desejável"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3449,14 +3550,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView topLeftCell="C22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.7109375" style="33" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" style="33" bestFit="1" customWidth="1"/>
@@ -3476,7 +3577,7 @@
     <col min="17" max="16384" width="11.7109375" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -3484,7 +3585,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="31" t="s">
         <v>44</v>
       </c>
@@ -3492,7 +3593,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="31" t="s">
         <v>42</v>
       </c>
@@ -3500,7 +3601,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="31" t="s">
         <v>41</v>
       </c>
@@ -3508,7 +3609,7 @@
         <v>43614</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="31" t="s">
         <v>40</v>
       </c>
@@ -3516,15 +3617,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="31"/>
       <c r="B6" s="37"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="31"/>
       <c r="B7" s="37"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="38" t="s">
         <v>38</v>
       </c>
@@ -3532,7 +3633,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="37" t="s">
         <v>66</v>
       </c>
@@ -3540,7 +3641,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="37" t="s">
         <v>67</v>
       </c>
@@ -3548,70 +3649,70 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="37"/>
       <c r="B12" s="39"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="37"/>
       <c r="B13" s="39"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="118" t="s">
+      <c r="B15" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="118"/>
+      <c r="C15" s="113"/>
       <c r="D15" s="41"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20">
       <c r="A17" s="38" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20">
       <c r="A18" s="33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20">
       <c r="A19" s="33" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20">
       <c r="A20" s="33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:20" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A24" s="65" t="s">
+    <row r="24" spans="1:20" s="43" customFormat="1" ht="15.75">
+      <c r="A24" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="65" t="s">
+      <c r="B24" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="65" t="s">
+      <c r="C24" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="65" t="s">
+      <c r="D24" s="123" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="66" t="s">
+      <c r="E24" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="66" t="s">
+      <c r="F24" s="124" t="s">
         <v>45</v>
       </c>
-      <c r="G24" s="66" t="s">
+      <c r="G24" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="66" t="s">
+      <c r="H24" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="I24" s="66" t="s">
+      <c r="I24" s="124" t="s">
         <v>46</v>
       </c>
       <c r="Q24" s="44"/>
@@ -3619,7 +3720,7 @@
       <c r="S24" s="44"/>
       <c r="T24" s="44"/>
     </row>
-    <row r="25" spans="1:20" s="43" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" s="43" customFormat="1" ht="90">
       <c r="A25" s="42" t="s">
         <v>151</v>
       </c>
@@ -3650,7 +3751,7 @@
       <c r="S25" s="44"/>
       <c r="T25" s="44"/>
     </row>
-    <row r="26" spans="1:20" s="43" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" s="43" customFormat="1" ht="90">
       <c r="A26" s="42" t="s">
         <v>152</v>
       </c>
@@ -3681,7 +3782,7 @@
       <c r="S26" s="44"/>
       <c r="T26" s="44"/>
     </row>
-    <row r="27" spans="1:20" s="43" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" s="43" customFormat="1" ht="90">
       <c r="A27" s="42" t="s">
         <v>154</v>
       </c>
@@ -3712,7 +3813,7 @@
       <c r="S27" s="44"/>
       <c r="T27" s="44"/>
     </row>
-    <row r="28" spans="1:20" s="43" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" s="43" customFormat="1" ht="90">
       <c r="A28" s="42" t="s">
         <v>62</v>
       </c>
@@ -3743,7 +3844,7 @@
       <c r="S28" s="44"/>
       <c r="T28" s="44"/>
     </row>
-    <row r="29" spans="1:20" s="43" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" s="43" customFormat="1" ht="90">
       <c r="A29" s="42" t="s">
         <v>62</v>
       </c>
@@ -3774,7 +3875,7 @@
       <c r="S29" s="44"/>
       <c r="T29" s="44"/>
     </row>
-    <row r="30" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" s="43" customFormat="1" ht="15.75">
       <c r="A30" s="42" t="s">
         <v>17</v>
       </c>
@@ -3791,7 +3892,7 @@
       <c r="S30" s="44"/>
       <c r="T30" s="44"/>
     </row>
-    <row r="31" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" s="43" customFormat="1" ht="15.75">
       <c r="A31" s="42" t="s">
         <v>52</v>
       </c>
@@ -3808,7 +3909,7 @@
       <c r="S31" s="44"/>
       <c r="T31" s="44"/>
     </row>
-    <row r="32" spans="1:20" s="43" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" s="43" customFormat="1" ht="70.5" customHeight="1">
       <c r="A32" s="42" t="s">
         <v>53</v>
       </c>
@@ -3825,7 +3926,7 @@
       <c r="S32" s="44"/>
       <c r="T32" s="44"/>
     </row>
-    <row r="33" spans="1:20" s="43" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" s="43" customFormat="1" ht="75.75" customHeight="1">
       <c r="A33" s="42" t="s">
         <v>54</v>
       </c>
@@ -3842,13 +3943,13 @@
       <c r="S33" s="44"/>
       <c r="T33" s="44"/>
     </row>
-    <row r="34" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" s="43" customFormat="1" ht="15.75">
       <c r="Q34" s="44"/>
       <c r="R34" s="44"/>
       <c r="S34" s="44"/>
       <c r="T34" s="44"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20">
       <c r="A36" s="49" t="s">
         <v>5</v>
       </c>
@@ -3856,7 +3957,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20">
       <c r="A37" s="50" t="s">
         <v>6</v>
       </c>
@@ -3864,7 +3965,7 @@
         <v>43172</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20">
       <c r="A41" s="38"/>
     </row>
   </sheetData>
@@ -3872,8 +3973,8 @@
     <mergeCell ref="B15:C15"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1"/>
-    <hyperlink ref="B11" r:id="rId2"/>
+    <hyperlink ref="B10" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B11" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0" footer="9.8611111111111122E-2"/>
@@ -3886,14 +3987,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:I29"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.7109375" style="33" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" style="33" bestFit="1" customWidth="1"/>
@@ -3913,7 +4014,7 @@
     <col min="17" max="16384" width="11.7109375" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -3921,7 +4022,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="31" t="s">
         <v>44</v>
       </c>
@@ -3929,7 +4030,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="31" t="s">
         <v>42</v>
       </c>
@@ -3937,7 +4038,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="31" t="s">
         <v>41</v>
       </c>
@@ -3945,7 +4046,7 @@
         <v>43614</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="31" t="s">
         <v>40</v>
       </c>
@@ -3953,15 +4054,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="31"/>
       <c r="B6" s="37"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="31"/>
       <c r="B7" s="37"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="38" t="s">
         <v>38</v>
       </c>
@@ -3969,7 +4070,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="37" t="s">
         <v>66</v>
       </c>
@@ -3977,7 +4078,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="37" t="s">
         <v>67</v>
       </c>
@@ -3985,70 +4086,70 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="37"/>
       <c r="B12" s="39"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="37"/>
       <c r="B13" s="39"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="118" t="s">
+      <c r="B15" s="113" t="s">
         <v>150</v>
       </c>
-      <c r="C15" s="118"/>
-      <c r="D15" s="81"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C15" s="113"/>
+      <c r="D15" s="78"/>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="38" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20">
       <c r="A18" s="33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20">
       <c r="A19" s="33" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20">
       <c r="A20" s="33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:20" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A24" s="65" t="s">
+    <row r="24" spans="1:20" s="43" customFormat="1" ht="15.75">
+      <c r="A24" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="65" t="s">
+      <c r="B24" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="65" t="s">
+      <c r="C24" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="65" t="s">
+      <c r="D24" s="123" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="66" t="s">
+      <c r="E24" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="66" t="s">
+      <c r="F24" s="124" t="s">
         <v>45</v>
       </c>
-      <c r="G24" s="66" t="s">
+      <c r="G24" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="66" t="s">
+      <c r="H24" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="I24" s="66" t="s">
+      <c r="I24" s="124" t="s">
         <v>46</v>
       </c>
       <c r="Q24" s="44"/>
@@ -4056,7 +4157,7 @@
       <c r="S24" s="44"/>
       <c r="T24" s="44"/>
     </row>
-    <row r="25" spans="1:20" s="43" customFormat="1" ht="120" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" s="43" customFormat="1" ht="120">
       <c r="A25" s="42" t="s">
         <v>159</v>
       </c>
@@ -4087,7 +4188,7 @@
       <c r="S25" s="44"/>
       <c r="T25" s="44"/>
     </row>
-    <row r="26" spans="1:20" s="43" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" s="43" customFormat="1" ht="115.5" customHeight="1">
       <c r="A26" s="42" t="s">
         <v>160</v>
       </c>
@@ -4118,7 +4219,7 @@
       <c r="S26" s="44"/>
       <c r="T26" s="44"/>
     </row>
-    <row r="27" spans="1:20" s="43" customFormat="1" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" s="43" customFormat="1" ht="124.5" customHeight="1">
       <c r="A27" s="42" t="s">
         <v>161</v>
       </c>
@@ -4149,7 +4250,7 @@
       <c r="S27" s="44"/>
       <c r="T27" s="44"/>
     </row>
-    <row r="28" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" s="43" customFormat="1" ht="15.75">
       <c r="A28" s="42" t="s">
         <v>17</v>
       </c>
@@ -4166,7 +4267,7 @@
       <c r="S28" s="44"/>
       <c r="T28" s="44"/>
     </row>
-    <row r="29" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" s="43" customFormat="1" ht="15.75">
       <c r="A29" s="42" t="s">
         <v>52</v>
       </c>
@@ -4183,7 +4284,7 @@
       <c r="S29" s="44"/>
       <c r="T29" s="44"/>
     </row>
-    <row r="30" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" s="43" customFormat="1" ht="15.75">
       <c r="A30" s="42" t="s">
         <v>53</v>
       </c>
@@ -4200,7 +4301,7 @@
       <c r="S30" s="44"/>
       <c r="T30" s="44"/>
     </row>
-    <row r="31" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" s="43" customFormat="1" ht="15.75">
       <c r="A31" s="42" t="s">
         <v>54</v>
       </c>
@@ -4217,13 +4318,13 @@
       <c r="S31" s="44"/>
       <c r="T31" s="44"/>
     </row>
-    <row r="32" spans="1:20" s="43" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" s="43" customFormat="1" ht="70.5" customHeight="1">
       <c r="Q32" s="44"/>
       <c r="R32" s="44"/>
       <c r="S32" s="44"/>
       <c r="T32" s="44"/>
     </row>
-    <row r="33" spans="1:20" s="43" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" s="43" customFormat="1" ht="75.75" customHeight="1">
       <c r="A33" s="33"/>
       <c r="B33" s="33"/>
       <c r="C33" s="33"/>
@@ -4238,7 +4339,7 @@
       <c r="S33" s="44"/>
       <c r="T33" s="44"/>
     </row>
-    <row r="34" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" s="43" customFormat="1" ht="15.75">
       <c r="A34" s="49" t="s">
         <v>5</v>
       </c>
@@ -4255,7 +4356,7 @@
       <c r="S34" s="44"/>
       <c r="T34" s="44"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20">
       <c r="A35" s="50" t="s">
         <v>6</v>
       </c>
@@ -4263,7 +4364,7 @@
         <v>43172</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20">
       <c r="A39" s="38"/>
     </row>
   </sheetData>
@@ -4271,8 +4372,8 @@
     <mergeCell ref="B15:C15"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1"/>
-    <hyperlink ref="B10" r:id="rId2"/>
+    <hyperlink ref="B11" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B10" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0" footer="9.8611111111111122E-2"/>
@@ -4285,14 +4386,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T39"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:I29"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.7109375" style="33" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" style="33" bestFit="1" customWidth="1"/>
@@ -4312,7 +4413,7 @@
     <col min="17" max="16384" width="11.7109375" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -4320,7 +4421,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="31" t="s">
         <v>44</v>
       </c>
@@ -4328,7 +4429,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="31" t="s">
         <v>42</v>
       </c>
@@ -4336,7 +4437,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="31" t="s">
         <v>41</v>
       </c>
@@ -4344,7 +4445,7 @@
         <v>43614</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="31" t="s">
         <v>40</v>
       </c>
@@ -4352,15 +4453,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="31"/>
       <c r="B6" s="37"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="31"/>
       <c r="B7" s="37"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="38" t="s">
         <v>38</v>
       </c>
@@ -4368,7 +4469,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="37" t="s">
         <v>66</v>
       </c>
@@ -4376,7 +4477,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="37" t="s">
         <v>67</v>
       </c>
@@ -4384,70 +4485,70 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="37"/>
       <c r="B12" s="39"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="37"/>
       <c r="B13" s="39"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="118" t="s">
+      <c r="B15" s="113" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="118"/>
-      <c r="D15" s="82"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C15" s="113"/>
+      <c r="D15" s="79"/>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="38" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20">
       <c r="A18" s="33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20">
       <c r="A19" s="33" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20">
       <c r="A20" s="33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:20" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A24" s="65" t="s">
+    <row r="24" spans="1:20" s="43" customFormat="1" ht="15.75">
+      <c r="A24" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="65" t="s">
+      <c r="B24" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="65" t="s">
+      <c r="C24" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="65" t="s">
+      <c r="D24" s="123" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="66" t="s">
+      <c r="E24" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="66" t="s">
+      <c r="F24" s="124" t="s">
         <v>45</v>
       </c>
-      <c r="G24" s="66" t="s">
+      <c r="G24" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="66" t="s">
+      <c r="H24" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="I24" s="66" t="s">
+      <c r="I24" s="124" t="s">
         <v>46</v>
       </c>
       <c r="Q24" s="44"/>
@@ -4455,7 +4556,7 @@
       <c r="S24" s="44"/>
       <c r="T24" s="44"/>
     </row>
-    <row r="25" spans="1:20" s="43" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" s="43" customFormat="1" ht="85.5" customHeight="1">
       <c r="A25" s="42" t="s">
         <v>167</v>
       </c>
@@ -4486,7 +4587,7 @@
       <c r="S25" s="44"/>
       <c r="T25" s="44"/>
     </row>
-    <row r="26" spans="1:20" s="43" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" s="43" customFormat="1" ht="82.5" customHeight="1">
       <c r="A26" s="42" t="s">
         <v>168</v>
       </c>
@@ -4517,7 +4618,7 @@
       <c r="S26" s="44"/>
       <c r="T26" s="44"/>
     </row>
-    <row r="27" spans="1:20" s="43" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" s="43" customFormat="1" ht="87.75" customHeight="1">
       <c r="A27" s="42" t="s">
         <v>169</v>
       </c>
@@ -4548,7 +4649,7 @@
       <c r="S27" s="44"/>
       <c r="T27" s="44"/>
     </row>
-    <row r="28" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" s="43" customFormat="1" ht="15.75">
       <c r="A28" s="42" t="s">
         <v>17</v>
       </c>
@@ -4565,7 +4666,7 @@
       <c r="S28" s="44"/>
       <c r="T28" s="44"/>
     </row>
-    <row r="29" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" s="43" customFormat="1" ht="15.75">
       <c r="A29" s="42" t="s">
         <v>52</v>
       </c>
@@ -4582,7 +4683,7 @@
       <c r="S29" s="44"/>
       <c r="T29" s="44"/>
     </row>
-    <row r="30" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" s="43" customFormat="1" ht="15.75">
       <c r="A30" s="42" t="s">
         <v>53</v>
       </c>
@@ -4599,7 +4700,7 @@
       <c r="S30" s="44"/>
       <c r="T30" s="44"/>
     </row>
-    <row r="31" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" s="43" customFormat="1" ht="15.75">
       <c r="A31" s="42" t="s">
         <v>54</v>
       </c>
@@ -4616,13 +4717,13 @@
       <c r="S31" s="44"/>
       <c r="T31" s="44"/>
     </row>
-    <row r="32" spans="1:20" s="43" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" s="43" customFormat="1" ht="70.5" customHeight="1">
       <c r="Q32" s="44"/>
       <c r="R32" s="44"/>
       <c r="S32" s="44"/>
       <c r="T32" s="44"/>
     </row>
-    <row r="33" spans="1:20" s="43" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" s="43" customFormat="1" ht="75.75" customHeight="1">
       <c r="A33" s="33"/>
       <c r="B33" s="33"/>
       <c r="C33" s="33"/>
@@ -4637,7 +4738,7 @@
       <c r="S33" s="44"/>
       <c r="T33" s="44"/>
     </row>
-    <row r="34" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" s="43" customFormat="1" ht="15.75">
       <c r="A34" s="49" t="s">
         <v>5</v>
       </c>
@@ -4656,7 +4757,7 @@
       <c r="S34" s="44"/>
       <c r="T34" s="44"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20">
       <c r="A35" s="50" t="s">
         <v>6</v>
       </c>
@@ -4664,7 +4765,7 @@
         <v>43172</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20">
       <c r="A39" s="38"/>
     </row>
   </sheetData>
@@ -4672,8 +4773,8 @@
     <mergeCell ref="B15:C15"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1"/>
-    <hyperlink ref="B11" r:id="rId2"/>
+    <hyperlink ref="B10" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="B11" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0" footer="9.8611111111111122E-2"/>
@@ -4686,14 +4787,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.7109375" style="33" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" style="33" bestFit="1" customWidth="1"/>
@@ -4713,7 +4814,7 @@
     <col min="17" max="16384" width="11.7109375" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -4721,7 +4822,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="31" t="s">
         <v>44</v>
       </c>
@@ -4729,7 +4830,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="31" t="s">
         <v>42</v>
       </c>
@@ -4737,7 +4838,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="31" t="s">
         <v>41</v>
       </c>
@@ -4745,7 +4846,7 @@
         <v>43614</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="31" t="s">
         <v>40</v>
       </c>
@@ -4753,15 +4854,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="31"/>
       <c r="B6" s="37"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="31"/>
       <c r="B7" s="37"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="38" t="s">
         <v>38</v>
       </c>
@@ -4769,7 +4870,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="37" t="s">
         <v>66</v>
       </c>
@@ -4777,7 +4878,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="37" t="s">
         <v>67</v>
       </c>
@@ -4785,70 +4886,70 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="37"/>
       <c r="B12" s="39"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="37"/>
       <c r="B13" s="39"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="118" t="s">
+      <c r="B15" s="113" t="s">
         <v>189</v>
       </c>
-      <c r="C15" s="118"/>
-      <c r="D15" s="83"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C15" s="113"/>
+      <c r="D15" s="80"/>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="38" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20">
       <c r="A18" s="33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20">
       <c r="A19" s="33" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20">
       <c r="A20" s="33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:20" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A24" s="65" t="s">
+    <row r="24" spans="1:20" s="43" customFormat="1" ht="15.75">
+      <c r="A24" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="65" t="s">
+      <c r="B24" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="65" t="s">
+      <c r="C24" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="65" t="s">
+      <c r="D24" s="123" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="66" t="s">
+      <c r="E24" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="66" t="s">
+      <c r="F24" s="124" t="s">
         <v>45</v>
       </c>
-      <c r="G24" s="66" t="s">
+      <c r="G24" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="66" t="s">
+      <c r="H24" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="I24" s="66" t="s">
+      <c r="I24" s="124" t="s">
         <v>46</v>
       </c>
       <c r="Q24" s="44"/>
@@ -4856,7 +4957,7 @@
       <c r="S24" s="44"/>
       <c r="T24" s="44"/>
     </row>
-    <row r="25" spans="1:20" s="43" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" s="43" customFormat="1" ht="85.5" customHeight="1">
       <c r="A25" s="42" t="s">
         <v>188</v>
       </c>
@@ -4887,7 +4988,7 @@
       <c r="S25" s="44"/>
       <c r="T25" s="44"/>
     </row>
-    <row r="26" spans="1:20" s="43" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" s="43" customFormat="1" ht="82.5" customHeight="1">
       <c r="A26" s="42" t="s">
         <v>187</v>
       </c>
@@ -4918,7 +5019,7 @@
       <c r="S26" s="44"/>
       <c r="T26" s="44"/>
     </row>
-    <row r="27" spans="1:20" s="43" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" s="43" customFormat="1" ht="87.75" customHeight="1">
       <c r="A27" s="42" t="s">
         <v>17</v>
       </c>
@@ -4935,7 +5036,7 @@
       <c r="S27" s="44"/>
       <c r="T27" s="44"/>
     </row>
-    <row r="28" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" s="43" customFormat="1" ht="15.75">
       <c r="A28" s="42" t="s">
         <v>52</v>
       </c>
@@ -4952,7 +5053,7 @@
       <c r="S28" s="44"/>
       <c r="T28" s="44"/>
     </row>
-    <row r="29" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" s="43" customFormat="1" ht="15.75">
       <c r="A29" s="42" t="s">
         <v>53</v>
       </c>
@@ -4969,7 +5070,7 @@
       <c r="S29" s="44"/>
       <c r="T29" s="44"/>
     </row>
-    <row r="30" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" s="43" customFormat="1" ht="15.75">
       <c r="A30" s="42" t="s">
         <v>54</v>
       </c>
@@ -4986,13 +5087,13 @@
       <c r="S30" s="44"/>
       <c r="T30" s="44"/>
     </row>
-    <row r="31" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" s="43" customFormat="1" ht="15.75">
       <c r="Q31" s="44"/>
       <c r="R31" s="44"/>
       <c r="S31" s="44"/>
       <c r="T31" s="44"/>
     </row>
-    <row r="32" spans="1:20" s="43" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" s="43" customFormat="1" ht="70.5" customHeight="1">
       <c r="A32" s="33"/>
       <c r="B32" s="33"/>
       <c r="C32" s="33"/>
@@ -5007,7 +5108,7 @@
       <c r="S32" s="44"/>
       <c r="T32" s="44"/>
     </row>
-    <row r="33" spans="1:20" s="43" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" s="43" customFormat="1" ht="75.75" customHeight="1">
       <c r="A33" s="49" t="s">
         <v>5</v>
       </c>
@@ -5026,7 +5127,7 @@
       <c r="S33" s="44"/>
       <c r="T33" s="44"/>
     </row>
-    <row r="34" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" s="43" customFormat="1" ht="15.75">
       <c r="A34" s="50" t="s">
         <v>6</v>
       </c>
@@ -5045,7 +5146,7 @@
       <c r="S34" s="44"/>
       <c r="T34" s="44"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20">
       <c r="A38" s="38"/>
     </row>
   </sheetData>
@@ -5053,8 +5154,8 @@
     <mergeCell ref="B15:C15"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1"/>
-    <hyperlink ref="B11" r:id="rId2"/>
+    <hyperlink ref="B10" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="B11" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0" footer="9.8611111111111122E-2"/>
@@ -5066,14 +5167,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="1.7109375" style="7" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" style="11" bestFit="1" customWidth="1"/>
@@ -5084,30 +5185,30 @@
     <col min="7" max="16384" width="11.7109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:6" s="17" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="17" customFormat="1" ht="40.5" customHeight="1"/>
+    <row r="2" spans="1:6" s="17" customFormat="1" ht="19.5" customHeight="1">
       <c r="A2" s="64"/>
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="125" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="121"/>
-    </row>
-    <row r="3" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="122"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="124"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="127"/>
+    </row>
+    <row r="3" spans="1:6" s="17" customFormat="1">
+      <c r="B3" s="114"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="116"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="B5" s="18" t="s">
         <v>9</v>
       </c>
@@ -5124,7 +5225,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="B6" s="19">
         <v>1</v>
       </c>
@@ -5137,11 +5238,11 @@
       <c r="E6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="80" t="s">
+      <c r="F6" s="77" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="B7" s="19">
         <v>2</v>
       </c>
@@ -5154,11 +5255,11 @@
       <c r="E7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="80" t="s">
+      <c r="F7" s="77" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="B8" s="19">
         <v>3</v>
       </c>
@@ -5171,11 +5272,11 @@
       <c r="E8" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="80" t="s">
+      <c r="F8" s="77" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="B9" s="19">
         <v>4</v>
       </c>
@@ -5188,11 +5289,11 @@
       <c r="E9" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="80" t="s">
+      <c r="F9" s="77" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="B10" s="19">
         <v>5</v>
       </c>
@@ -5205,11 +5306,11 @@
       <c r="E10" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="80" t="s">
+      <c r="F10" s="77" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="B11" s="19">
         <v>6</v>
       </c>
@@ -5222,11 +5323,11 @@
       <c r="E11" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="80" t="s">
+      <c r="F11" s="77" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="B12" s="19">
         <v>7</v>
       </c>
@@ -5239,11 +5340,11 @@
       <c r="E12" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="80" t="s">
+      <c r="F12" s="77" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="B13" s="19">
         <v>8</v>
       </c>
@@ -5256,11 +5357,11 @@
       <c r="E13" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="80" t="s">
+      <c r="F13" s="77" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="B14" s="19">
         <v>9</v>
       </c>
@@ -5273,11 +5374,11 @@
       <c r="E14" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="80" t="s">
+      <c r="F14" s="77" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="B15" s="19">
         <v>10</v>
       </c>
@@ -5290,11 +5391,11 @@
       <c r="E15" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="80" t="s">
+      <c r="F15" s="77" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="B16" s="19">
         <v>11</v>
       </c>
@@ -5307,11 +5408,11 @@
       <c r="E16" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="80" t="s">
+      <c r="F16" s="77" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6">
       <c r="B17" s="19">
         <v>12</v>
       </c>
@@ -5324,183 +5425,183 @@
       <c r="E17" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="80" t="s">
+      <c r="F17" s="77" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6">
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="20"/>
       <c r="F18" s="21"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6">
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="20"/>
       <c r="F19" s="21"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6">
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
       <c r="E20" s="20"/>
       <c r="F20" s="21"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6">
       <c r="B22" s="14"/>
-      <c r="C22" s="125"/>
-      <c r="D22" s="125"/>
-      <c r="E22" s="125"/>
+      <c r="C22" s="117"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="117"/>
       <c r="F22" s="15"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="126" t="s">
+    <row r="23" spans="2:6">
+      <c r="B23" s="118" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="127" t="s">
+      <c r="D23" s="119" t="s">
         <v>147</v>
       </c>
-      <c r="E23" s="127"/>
-      <c r="F23" s="127"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="126"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="119"/>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="118"/>
       <c r="C24" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="127" t="s">
+      <c r="D24" s="119" t="s">
         <v>177</v>
       </c>
-      <c r="E24" s="127"/>
-      <c r="F24" s="127"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E24" s="119"/>
+      <c r="F24" s="119"/>
+    </row>
+    <row r="27" spans="2:6">
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
       <c r="E27" s="13"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:6">
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
       <c r="E28" s="13"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:6">
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="13"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:6">
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
       <c r="E30" s="13"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:6">
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
       <c r="E31" s="13"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:6">
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
       <c r="E32" s="13"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:5">
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
       <c r="E33" s="13"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:5">
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
       <c r="E34" s="13"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:5">
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
       <c r="E35" s="13"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:5">
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
       <c r="E36" s="13"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:5">
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
       <c r="E37" s="13"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:5">
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
       <c r="E38" s="13"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:5">
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
       <c r="E39" s="13"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:5">
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
       <c r="E40" s="13"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:5">
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
       <c r="E41" s="13"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:5">
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
       <c r="E42" s="13"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:5">
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
       <c r="E43" s="13"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:5">
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
       <c r="E44" s="13"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:5">
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
       <c r="E45" s="13"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:5">
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
       <c r="E46" s="13"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:5">
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>

--- a/Projeto-Documentacao/Planilhas/Plano de UAT - Homol 1 Semestre 2019 v1.xlsx
+++ b/Projeto-Documentacao/Planilhas/Plano de UAT - Homol 1 Semestre 2019 v1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leona\Desktop\grupo3-sa\Projeto-Documentacao\Planilhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Desktop\grupo3-sa\Projeto-Documentacao\Planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C753757-F4CB-44CF-BC03-7E07429808A9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C98698-E36C-4A40-A40E-57A71FB60E2A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="503" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="503" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plano de Homologação" sheetId="5" r:id="rId1"/>
@@ -655,7 +655,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00;[Red]\-[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1530,6 +1530,17 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="7" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="5" xfId="15" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="5" xfId="15" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1568,6 +1579,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="9" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="8" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1644,6 +1661,15 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="11" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="12" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="13" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1660,32 +1686,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="9" xfId="15" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="8" xfId="15" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="7" xfId="15" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="5" xfId="15" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="5" xfId="15" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="11" xfId="15" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="12" xfId="15" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="13" xfId="15" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1893,56 +1893,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>108857</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>136890</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2027464</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>1080029</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagem 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11225893" y="4899390"/>
-          <a:ext cx="1918607" cy="943139"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>108858</xdr:rowOff>
@@ -2032,6 +1982,56 @@
         <a:xfrm>
           <a:off x="11255829" y="9405258"/>
           <a:ext cx="1918607" cy="943139"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>167738</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2009775</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1086967</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagem 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E11E689-5038-438F-BA34-CF40B82A3C18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11239500" y="4749263"/>
+          <a:ext cx="1895475" cy="919229"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2303,22 +2303,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>27214</xdr:colOff>
+      <xdr:colOff>54428</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>381001</xdr:rowOff>
+      <xdr:rowOff>437027</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>2596271</xdr:colOff>
+      <xdr:colOff>2571750</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>639537</xdr:rowOff>
+      <xdr:rowOff>674466</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Imagem 5">
+        <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9851B3F-6208-4F90-B440-7F636C781E21}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2339,9 +2339,114 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11171464" y="6111206"/>
+          <a:ext cx="2517322" cy="237439"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>149678</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>11554</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2517321</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1081768</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagem 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6A61927-9E16-4151-A825-0DD053603FA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="11144250" y="6232072"/>
-          <a:ext cx="2569057" cy="258536"/>
+          <a:off x="11266714" y="4597161"/>
+          <a:ext cx="2367643" cy="1070214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>870857</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1731767</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1894112</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagem 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11E72412-7A6C-4F4D-96A1-7F3129333EBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11987893" y="5796643"/>
+          <a:ext cx="860910" cy="1771648"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2680,7 +2785,7 @@
       <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" style="2" customWidth="1"/>
@@ -2698,7 +2803,7 @@
     <col min="18" max="16384" width="11.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="22" customFormat="1" ht="15.6" customHeight="1">
+    <row r="1" spans="1:20" s="22" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="53"/>
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
@@ -2712,15 +2817,15 @@
       <c r="K1" s="57"/>
       <c r="L1" s="53"/>
     </row>
-    <row r="2" spans="1:20" s="22" customFormat="1" ht="19.5" customHeight="1">
+    <row r="2" spans="1:20" s="22" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="53"/>
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="95"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="100"/>
       <c r="G2" s="57"/>
       <c r="H2" s="57"/>
       <c r="I2" s="57"/>
@@ -2728,13 +2833,13 @@
       <c r="K2" s="57"/>
       <c r="L2" s="53"/>
     </row>
-    <row r="3" spans="1:20" s="22" customFormat="1" ht="15">
+    <row r="3" spans="1:20" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="53"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="98"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="103"/>
       <c r="G3" s="57"/>
       <c r="H3" s="57"/>
       <c r="I3" s="57"/>
@@ -2742,7 +2847,7 @@
       <c r="K3" s="57"/>
       <c r="L3" s="53"/>
     </row>
-    <row r="4" spans="1:20" s="6" customFormat="1" ht="15">
+    <row r="4" spans="1:20" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="26"/>
       <c r="B4" s="58"/>
       <c r="C4" s="58"/>
@@ -2756,15 +2861,15 @@
       <c r="K4" s="30"/>
       <c r="L4" s="26"/>
     </row>
-    <row r="5" spans="1:20" ht="14.25">
+    <row r="5" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="24"/>
       <c r="B5" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="99" t="s">
+      <c r="C5" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="100"/>
+      <c r="D5" s="105"/>
       <c r="E5" s="28"/>
       <c r="F5" s="29"/>
       <c r="G5" s="28"/>
@@ -2774,15 +2879,15 @@
       <c r="K5" s="28"/>
       <c r="L5" s="24"/>
     </row>
-    <row r="6" spans="1:20" ht="14.25">
+    <row r="6" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="24"/>
       <c r="B6" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="99" t="s">
+      <c r="C6" s="104" t="s">
         <v>197</v>
       </c>
-      <c r="D6" s="100"/>
+      <c r="D6" s="105"/>
       <c r="E6" s="28"/>
       <c r="F6" s="29"/>
       <c r="G6" s="28"/>
@@ -2792,15 +2897,15 @@
       <c r="K6" s="28"/>
       <c r="L6" s="24"/>
     </row>
-    <row r="7" spans="1:20" ht="14.25">
+    <row r="7" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="24"/>
       <c r="B7" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="99" t="s">
+      <c r="C7" s="104" t="s">
         <v>196</v>
       </c>
-      <c r="D7" s="100"/>
+      <c r="D7" s="105"/>
       <c r="E7" s="28"/>
       <c r="F7" s="29"/>
       <c r="G7" s="28"/>
@@ -2810,15 +2915,15 @@
       <c r="K7" s="28"/>
       <c r="L7" s="24"/>
     </row>
-    <row r="8" spans="1:20" ht="14.25">
+    <row r="8" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="24"/>
       <c r="B8" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="99" t="s">
+      <c r="C8" s="104" t="s">
         <v>129</v>
       </c>
-      <c r="D8" s="100"/>
+      <c r="D8" s="105"/>
       <c r="E8" s="28"/>
       <c r="F8" s="29"/>
       <c r="G8" s="28"/>
@@ -2828,15 +2933,15 @@
       <c r="K8" s="28"/>
       <c r="L8" s="24"/>
     </row>
-    <row r="9" spans="1:20" ht="28.5">
+    <row r="9" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="24"/>
       <c r="B9" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="101">
+      <c r="C9" s="106">
         <v>43615</v>
       </c>
-      <c r="D9" s="100"/>
+      <c r="D9" s="105"/>
       <c r="E9" s="28"/>
       <c r="F9" s="29"/>
       <c r="G9" s="28"/>
@@ -2846,7 +2951,7 @@
       <c r="K9" s="28"/>
       <c r="L9" s="24"/>
     </row>
-    <row r="10" spans="1:20" ht="14.25">
+    <row r="10" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="24"/>
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
@@ -2860,37 +2965,37 @@
       <c r="K10" s="28"/>
       <c r="L10" s="24"/>
     </row>
-    <row r="11" spans="1:20" ht="14.1" customHeight="1">
+    <row r="11" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24"/>
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="107" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="104"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="109"/>
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
       <c r="L11" s="24"/>
       <c r="O11" s="3"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:20" s="4" customFormat="1" ht="45">
+    <row r="12" spans="1:20" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A12" s="54"/>
       <c r="B12" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="91" t="s">
+      <c r="C12" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="92"/>
-      <c r="E12" s="91" t="s">
+      <c r="D12" s="97"/>
+      <c r="E12" s="96" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="92"/>
+      <c r="F12" s="97"/>
       <c r="G12" s="65" t="s">
         <v>25</v>
       </c>
@@ -2908,19 +3013,19 @@
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
     </row>
-    <row r="13" spans="1:20" s="4" customFormat="1" ht="60" customHeight="1">
+    <row r="13" spans="1:20" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="54"/>
       <c r="B13" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="81" t="s">
+      <c r="C13" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="86"/>
-      <c r="E13" s="105" t="s">
+      <c r="D13" s="89"/>
+      <c r="E13" s="110" t="s">
         <v>91</v>
       </c>
-      <c r="F13" s="106"/>
+      <c r="F13" s="111"/>
       <c r="G13" s="66" t="s">
         <v>82</v>
       </c>
@@ -2938,19 +3043,19 @@
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
     </row>
-    <row r="14" spans="1:20" s="4" customFormat="1" ht="41.45" customHeight="1">
+    <row r="14" spans="1:20" s="4" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="54"/>
       <c r="B14" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="111" t="s">
+      <c r="C14" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="112"/>
-      <c r="E14" s="107" t="s">
+      <c r="D14" s="117"/>
+      <c r="E14" s="112" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="108"/>
+      <c r="F14" s="113"/>
       <c r="G14" s="69" t="s">
         <v>95</v>
       </c>
@@ -2968,19 +3073,19 @@
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
     </row>
-    <row r="15" spans="1:20" s="4" customFormat="1" ht="40.5" customHeight="1">
+    <row r="15" spans="1:20" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="54"/>
       <c r="B15" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="81" t="s">
+      <c r="C15" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="86"/>
-      <c r="E15" s="81" t="s">
+      <c r="D15" s="89"/>
+      <c r="E15" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="86"/>
+      <c r="F15" s="89"/>
       <c r="G15" s="66" t="s">
         <v>81</v>
       </c>
@@ -2998,19 +3103,19 @@
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
     </row>
-    <row r="16" spans="1:20" s="4" customFormat="1" ht="40.5" customHeight="1">
+    <row r="16" spans="1:20" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="54"/>
       <c r="B16" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="81" t="s">
+      <c r="C16" s="84" t="s">
         <v>96</v>
       </c>
-      <c r="D16" s="86"/>
-      <c r="E16" s="81" t="s">
+      <c r="D16" s="89"/>
+      <c r="E16" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="F16" s="86"/>
+      <c r="F16" s="89"/>
       <c r="G16" s="66" t="s">
         <v>114</v>
       </c>
@@ -3028,19 +3133,19 @@
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
     </row>
-    <row r="17" spans="1:21" s="4" customFormat="1" ht="37.5" customHeight="1">
+    <row r="17" spans="1:21" s="4" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="54"/>
       <c r="B17" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="C17" s="81" t="s">
+      <c r="C17" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="D17" s="86"/>
-      <c r="E17" s="81" t="s">
+      <c r="D17" s="89"/>
+      <c r="E17" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="F17" s="86"/>
+      <c r="F17" s="89"/>
       <c r="G17" s="66" t="s">
         <v>101</v>
       </c>
@@ -3058,7 +3163,7 @@
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
     </row>
-    <row r="18" spans="1:21" s="4" customFormat="1" ht="15">
+    <row r="18" spans="1:21" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="54"/>
       <c r="B18" s="62"/>
       <c r="C18" s="62"/>
@@ -3076,43 +3181,43 @@
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
     </row>
-    <row r="19" spans="1:21" ht="14.1" customHeight="1">
+    <row r="19" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="55"/>
-      <c r="B19" s="109" t="s">
+      <c r="B19" s="114" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="110"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="110"/>
-      <c r="H19" s="110"/>
-      <c r="I19" s="110"/>
-      <c r="J19" s="110"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="115"/>
+      <c r="J19" s="115"/>
       <c r="K19" s="24"/>
       <c r="L19" s="24"/>
     </row>
-    <row r="20" spans="1:21" s="4" customFormat="1" ht="45">
+    <row r="20" spans="1:21" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A20" s="54"/>
-      <c r="B20" s="122" t="s">
+      <c r="B20" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="120" t="s">
+      <c r="C20" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="121"/>
-      <c r="E20" s="120" t="s">
+      <c r="D20" s="95"/>
+      <c r="E20" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="121"/>
-      <c r="G20" s="120" t="s">
+      <c r="F20" s="95"/>
+      <c r="G20" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="121"/>
-      <c r="I20" s="122" t="s">
+      <c r="H20" s="95"/>
+      <c r="I20" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="J20" s="122" t="s">
+      <c r="J20" s="81" t="s">
         <v>30</v>
       </c>
       <c r="K20" s="27"/>
@@ -3122,23 +3227,23 @@
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
     </row>
-    <row r="21" spans="1:21" s="4" customFormat="1" ht="73.5" customHeight="1">
+    <row r="21" spans="1:21" s="4" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="54"/>
       <c r="B21" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="C21" s="81" t="s">
+      <c r="C21" s="84" t="s">
         <v>107</v>
       </c>
-      <c r="D21" s="82"/>
-      <c r="E21" s="81" t="s">
+      <c r="D21" s="85"/>
+      <c r="E21" s="84" t="s">
         <v>112</v>
       </c>
-      <c r="F21" s="82"/>
-      <c r="G21" s="81" t="s">
+      <c r="F21" s="85"/>
+      <c r="G21" s="84" t="s">
         <v>108</v>
       </c>
-      <c r="H21" s="82"/>
+      <c r="H21" s="85"/>
       <c r="I21" s="71" t="s">
         <v>105</v>
       </c>
@@ -3152,23 +3257,23 @@
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
     </row>
-    <row r="22" spans="1:21" s="4" customFormat="1" ht="102" customHeight="1">
+    <row r="22" spans="1:21" s="4" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="54"/>
       <c r="B22" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="C22" s="81" t="s">
+      <c r="C22" s="84" t="s">
         <v>113</v>
       </c>
-      <c r="D22" s="86"/>
-      <c r="E22" s="105" t="s">
+      <c r="D22" s="89"/>
+      <c r="E22" s="110" t="s">
         <v>110</v>
       </c>
-      <c r="F22" s="106"/>
-      <c r="G22" s="89" t="s">
+      <c r="F22" s="111"/>
+      <c r="G22" s="92" t="s">
         <v>111</v>
       </c>
-      <c r="H22" s="90"/>
+      <c r="H22" s="93"/>
       <c r="I22" s="73" t="s">
         <v>105</v>
       </c>
@@ -3182,23 +3287,23 @@
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
     </row>
-    <row r="23" spans="1:21" s="4" customFormat="1" ht="77.45" customHeight="1">
+    <row r="23" spans="1:21" s="4" customFormat="1" ht="77.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="54"/>
       <c r="B23" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="C23" s="81" t="s">
+      <c r="C23" s="84" t="s">
         <v>102</v>
       </c>
-      <c r="D23" s="82"/>
-      <c r="E23" s="81" t="s">
+      <c r="D23" s="85"/>
+      <c r="E23" s="84" t="s">
         <v>103</v>
       </c>
-      <c r="F23" s="82"/>
-      <c r="G23" s="81" t="s">
+      <c r="F23" s="85"/>
+      <c r="G23" s="84" t="s">
         <v>104</v>
       </c>
-      <c r="H23" s="82"/>
+      <c r="H23" s="85"/>
       <c r="I23" s="71" t="s">
         <v>105</v>
       </c>
@@ -3212,23 +3317,23 @@
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
     </row>
-    <row r="24" spans="1:21" s="4" customFormat="1" ht="90" customHeight="1">
+    <row r="24" spans="1:21" s="4" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="54"/>
       <c r="B24" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="C24" s="81" t="s">
+      <c r="C24" s="84" t="s">
         <v>117</v>
       </c>
-      <c r="D24" s="86"/>
-      <c r="E24" s="87" t="s">
+      <c r="D24" s="89"/>
+      <c r="E24" s="90" t="s">
         <v>118</v>
       </c>
-      <c r="F24" s="88"/>
-      <c r="G24" s="89" t="s">
+      <c r="F24" s="91"/>
+      <c r="G24" s="92" t="s">
         <v>119</v>
       </c>
-      <c r="H24" s="90"/>
+      <c r="H24" s="93"/>
       <c r="I24" s="75" t="s">
         <v>106</v>
       </c>
@@ -3242,23 +3347,23 @@
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
     </row>
-    <row r="25" spans="1:21" s="4" customFormat="1" ht="87" customHeight="1">
+    <row r="25" spans="1:21" s="4" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="54"/>
       <c r="B25" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="C25" s="81" t="s">
+      <c r="C25" s="84" t="s">
         <v>120</v>
       </c>
-      <c r="D25" s="82"/>
-      <c r="E25" s="81" t="s">
+      <c r="D25" s="85"/>
+      <c r="E25" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="F25" s="83"/>
-      <c r="G25" s="84" t="s">
+      <c r="F25" s="86"/>
+      <c r="G25" s="87" t="s">
         <v>123</v>
       </c>
-      <c r="H25" s="85"/>
+      <c r="H25" s="88"/>
       <c r="I25" s="73" t="s">
         <v>105</v>
       </c>
@@ -3272,23 +3377,23 @@
       <c r="T25" s="5"/>
       <c r="U25" s="5"/>
     </row>
-    <row r="26" spans="1:21" s="4" customFormat="1" ht="87" customHeight="1">
+    <row r="26" spans="1:21" s="4" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="54"/>
       <c r="B26" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="C26" s="81" t="s">
+      <c r="C26" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="D26" s="86"/>
-      <c r="E26" s="81" t="s">
+      <c r="D26" s="89"/>
+      <c r="E26" s="84" t="s">
         <v>122</v>
       </c>
-      <c r="F26" s="86"/>
-      <c r="G26" s="84" t="s">
+      <c r="F26" s="89"/>
+      <c r="G26" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="H26" s="85"/>
+      <c r="H26" s="88"/>
       <c r="I26" s="73" t="s">
         <v>106</v>
       </c>
@@ -3302,23 +3407,23 @@
       <c r="T26" s="5"/>
       <c r="U26" s="5"/>
     </row>
-    <row r="27" spans="1:21" s="4" customFormat="1" ht="87" customHeight="1">
+    <row r="27" spans="1:21" s="4" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="54"/>
       <c r="B27" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="C27" s="81" t="s">
+      <c r="C27" s="84" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="86"/>
-      <c r="E27" s="81" t="s">
+      <c r="D27" s="89"/>
+      <c r="E27" s="84" t="s">
         <v>128</v>
       </c>
-      <c r="F27" s="86"/>
-      <c r="G27" s="84" t="s">
+      <c r="F27" s="89"/>
+      <c r="G27" s="87" t="s">
         <v>127</v>
       </c>
-      <c r="H27" s="85"/>
+      <c r="H27" s="88"/>
       <c r="I27" s="73" t="s">
         <v>105</v>
       </c>
@@ -3332,7 +3437,7 @@
       <c r="T27" s="5"/>
       <c r="U27" s="5"/>
     </row>
-    <row r="28" spans="1:21" s="4" customFormat="1" ht="77.45" customHeight="1">
+    <row r="28" spans="1:21" s="4" customFormat="1" ht="77.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="54"/>
       <c r="K28" s="27"/>
       <c r="L28" s="27"/>
@@ -3341,7 +3446,7 @@
       <c r="T28" s="5"/>
       <c r="U28" s="5"/>
     </row>
-    <row r="29" spans="1:21" s="4" customFormat="1" ht="14.25">
+    <row r="29" spans="1:21" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="54"/>
       <c r="B29" s="28"/>
       <c r="C29" s="28"/>
@@ -3359,7 +3464,7 @@
       <c r="T29" s="5"/>
       <c r="U29" s="5"/>
     </row>
-    <row r="30" spans="1:21" ht="28.5">
+    <row r="30" spans="1:21" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A30" s="24"/>
       <c r="B30" s="61" t="s">
         <v>19</v>
@@ -3377,7 +3482,7 @@
       <c r="K30" s="28"/>
       <c r="L30" s="24"/>
     </row>
-    <row r="31" spans="1:21" ht="14.25">
+    <row r="31" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="24"/>
       <c r="B31" s="61" t="s">
         <v>20</v>
@@ -3395,7 +3500,7 @@
       <c r="K31" s="28"/>
       <c r="L31" s="24"/>
     </row>
-    <row r="32" spans="1:21" ht="14.25">
+    <row r="32" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="24"/>
       <c r="B32" s="28"/>
       <c r="C32" s="28"/>
@@ -3409,7 +3514,7 @@
       <c r="K32" s="28"/>
       <c r="L32" s="24"/>
     </row>
-    <row r="33" spans="1:12" ht="14.25">
+    <row r="33" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="24"/>
       <c r="B33" s="24"/>
       <c r="C33" s="24"/>
@@ -3423,7 +3528,7 @@
       <c r="K33" s="28"/>
       <c r="L33" s="24"/>
     </row>
-    <row r="34" spans="1:12" ht="12">
+    <row r="34" spans="1:12" ht="12" x14ac:dyDescent="0.2">
       <c r="A34" s="24"/>
       <c r="B34" s="24"/>
       <c r="C34" s="24"/>
@@ -3437,7 +3542,7 @@
       <c r="K34" s="24"/>
       <c r="L34" s="24"/>
     </row>
-    <row r="35" spans="1:12" ht="12">
+    <row r="35" spans="1:12" ht="12" x14ac:dyDescent="0.2">
       <c r="A35" s="24"/>
       <c r="B35" s="56"/>
       <c r="C35" s="24"/>
@@ -3451,7 +3556,7 @@
       <c r="K35" s="24"/>
       <c r="L35" s="24"/>
     </row>
-    <row r="36" spans="1:12" ht="12">
+    <row r="36" spans="1:12" ht="12" x14ac:dyDescent="0.2">
       <c r="A36" s="24"/>
       <c r="B36" s="24"/>
       <c r="C36" s="24"/>
@@ -3465,7 +3570,7 @@
       <c r="K36" s="24"/>
       <c r="L36" s="24"/>
     </row>
-    <row r="37" spans="1:12" ht="12">
+    <row r="37" spans="1:12" ht="12" x14ac:dyDescent="0.2">
       <c r="A37" s="24"/>
       <c r="B37" s="24"/>
       <c r="C37" s="24"/>
@@ -3479,7 +3584,7 @@
       <c r="K37" s="24"/>
       <c r="L37" s="24"/>
     </row>
-    <row r="38" spans="1:12" ht="12">
+    <row r="38" spans="1:12" ht="12" x14ac:dyDescent="0.2">
       <c r="A38" s="24"/>
       <c r="K38" s="24"/>
       <c r="L38" s="24"/>
@@ -3553,11 +3658,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView topLeftCell="C22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D21" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.7109375" style="33" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" style="33" bestFit="1" customWidth="1"/>
@@ -3577,7 +3682,7 @@
     <col min="17" max="16384" width="11.7109375" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -3585,7 +3690,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
         <v>44</v>
       </c>
@@ -3593,7 +3698,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
         <v>42</v>
       </c>
@@ -3601,7 +3706,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="31" t="s">
         <v>41</v>
       </c>
@@ -3609,7 +3714,7 @@
         <v>43614</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="31" t="s">
         <v>40</v>
       </c>
@@ -3617,15 +3722,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="31"/>
       <c r="B6" s="37"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="31"/>
       <c r="B7" s="37"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="38" t="s">
         <v>38</v>
       </c>
@@ -3633,7 +3738,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="37" t="s">
         <v>66</v>
       </c>
@@ -3641,7 +3746,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
         <v>67</v>
       </c>
@@ -3649,70 +3754,70 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="37"/>
       <c r="B12" s="39"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="37"/>
       <c r="B13" s="39"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="113" t="s">
+      <c r="B15" s="118" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="113"/>
+      <c r="C15" s="118"/>
       <c r="D15" s="41"/>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="33" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:20" s="43" customFormat="1" ht="15.75">
-      <c r="A24" s="123" t="s">
+    <row r="24" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="123" t="s">
+      <c r="B24" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="123" t="s">
+      <c r="C24" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="123" t="s">
+      <c r="D24" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="124" t="s">
+      <c r="E24" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="124" t="s">
+      <c r="F24" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="G24" s="124" t="s">
+      <c r="G24" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="124" t="s">
+      <c r="H24" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="I24" s="124" t="s">
+      <c r="I24" s="83" t="s">
         <v>46</v>
       </c>
       <c r="Q24" s="44"/>
@@ -3720,7 +3825,7 @@
       <c r="S24" s="44"/>
       <c r="T24" s="44"/>
     </row>
-    <row r="25" spans="1:20" s="43" customFormat="1" ht="90">
+    <row r="25" spans="1:20" s="43" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A25" s="42" t="s">
         <v>151</v>
       </c>
@@ -3751,7 +3856,7 @@
       <c r="S25" s="44"/>
       <c r="T25" s="44"/>
     </row>
-    <row r="26" spans="1:20" s="43" customFormat="1" ht="90">
+    <row r="26" spans="1:20" s="43" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A26" s="42" t="s">
         <v>152</v>
       </c>
@@ -3782,7 +3887,7 @@
       <c r="S26" s="44"/>
       <c r="T26" s="44"/>
     </row>
-    <row r="27" spans="1:20" s="43" customFormat="1" ht="90">
+    <row r="27" spans="1:20" s="43" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A27" s="42" t="s">
         <v>154</v>
       </c>
@@ -3813,7 +3918,7 @@
       <c r="S27" s="44"/>
       <c r="T27" s="44"/>
     </row>
-    <row r="28" spans="1:20" s="43" customFormat="1" ht="90">
+    <row r="28" spans="1:20" s="43" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A28" s="42" t="s">
         <v>62</v>
       </c>
@@ -3844,7 +3949,7 @@
       <c r="S28" s="44"/>
       <c r="T28" s="44"/>
     </row>
-    <row r="29" spans="1:20" s="43" customFormat="1" ht="90">
+    <row r="29" spans="1:20" s="43" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A29" s="42" t="s">
         <v>62</v>
       </c>
@@ -3875,7 +3980,7 @@
       <c r="S29" s="44"/>
       <c r="T29" s="44"/>
     </row>
-    <row r="30" spans="1:20" s="43" customFormat="1" ht="15.75">
+    <row r="30" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A30" s="42" t="s">
         <v>17</v>
       </c>
@@ -3892,7 +3997,7 @@
       <c r="S30" s="44"/>
       <c r="T30" s="44"/>
     </row>
-    <row r="31" spans="1:20" s="43" customFormat="1" ht="15.75">
+    <row r="31" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" s="42" t="s">
         <v>52</v>
       </c>
@@ -3909,7 +4014,7 @@
       <c r="S31" s="44"/>
       <c r="T31" s="44"/>
     </row>
-    <row r="32" spans="1:20" s="43" customFormat="1" ht="70.5" customHeight="1">
+    <row r="32" spans="1:20" s="43" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="42" t="s">
         <v>53</v>
       </c>
@@ -3926,7 +4031,7 @@
       <c r="S32" s="44"/>
       <c r="T32" s="44"/>
     </row>
-    <row r="33" spans="1:20" s="43" customFormat="1" ht="75.75" customHeight="1">
+    <row r="33" spans="1:20" s="43" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="42" t="s">
         <v>54</v>
       </c>
@@ -3943,13 +4048,13 @@
       <c r="S33" s="44"/>
       <c r="T33" s="44"/>
     </row>
-    <row r="34" spans="1:20" s="43" customFormat="1" ht="15.75">
+    <row r="34" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="Q34" s="44"/>
       <c r="R34" s="44"/>
       <c r="S34" s="44"/>
       <c r="T34" s="44"/>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="49" t="s">
         <v>5</v>
       </c>
@@ -3957,7 +4062,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="50" t="s">
         <v>6</v>
       </c>
@@ -3965,7 +4070,7 @@
         <v>43172</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="38"/>
     </row>
   </sheetData>
@@ -3990,11 +4095,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.7109375" style="33" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" style="33" bestFit="1" customWidth="1"/>
@@ -4014,7 +4119,7 @@
     <col min="17" max="16384" width="11.7109375" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -4022,7 +4127,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
         <v>44</v>
       </c>
@@ -4030,7 +4135,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
         <v>42</v>
       </c>
@@ -4038,7 +4143,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="31" t="s">
         <v>41</v>
       </c>
@@ -4046,7 +4151,7 @@
         <v>43614</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="31" t="s">
         <v>40</v>
       </c>
@@ -4054,15 +4159,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="31"/>
       <c r="B6" s="37"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="31"/>
       <c r="B7" s="37"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="38" t="s">
         <v>38</v>
       </c>
@@ -4070,7 +4175,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="37" t="s">
         <v>66</v>
       </c>
@@ -4078,7 +4183,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
         <v>67</v>
       </c>
@@ -4086,70 +4191,70 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="37"/>
       <c r="B12" s="39"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="37"/>
       <c r="B13" s="39"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="113" t="s">
+      <c r="B15" s="118" t="s">
         <v>150</v>
       </c>
-      <c r="C15" s="113"/>
+      <c r="C15" s="118"/>
       <c r="D15" s="78"/>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="33" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:20" s="43" customFormat="1" ht="15.75">
-      <c r="A24" s="123" t="s">
+    <row r="24" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="123" t="s">
+      <c r="B24" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="123" t="s">
+      <c r="C24" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="123" t="s">
+      <c r="D24" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="124" t="s">
+      <c r="E24" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="124" t="s">
+      <c r="F24" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="G24" s="124" t="s">
+      <c r="G24" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="124" t="s">
+      <c r="H24" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="I24" s="124" t="s">
+      <c r="I24" s="83" t="s">
         <v>46</v>
       </c>
       <c r="Q24" s="44"/>
@@ -4157,7 +4262,7 @@
       <c r="S24" s="44"/>
       <c r="T24" s="44"/>
     </row>
-    <row r="25" spans="1:20" s="43" customFormat="1" ht="120">
+    <row r="25" spans="1:20" s="43" customFormat="1" ht="120" x14ac:dyDescent="0.2">
       <c r="A25" s="42" t="s">
         <v>159</v>
       </c>
@@ -4188,7 +4293,7 @@
       <c r="S25" s="44"/>
       <c r="T25" s="44"/>
     </row>
-    <row r="26" spans="1:20" s="43" customFormat="1" ht="115.5" customHeight="1">
+    <row r="26" spans="1:20" s="43" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="42" t="s">
         <v>160</v>
       </c>
@@ -4219,7 +4324,7 @@
       <c r="S26" s="44"/>
       <c r="T26" s="44"/>
     </row>
-    <row r="27" spans="1:20" s="43" customFormat="1" ht="124.5" customHeight="1">
+    <row r="27" spans="1:20" s="43" customFormat="1" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="42" t="s">
         <v>161</v>
       </c>
@@ -4250,7 +4355,7 @@
       <c r="S27" s="44"/>
       <c r="T27" s="44"/>
     </row>
-    <row r="28" spans="1:20" s="43" customFormat="1" ht="15.75">
+    <row r="28" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" s="42" t="s">
         <v>17</v>
       </c>
@@ -4267,7 +4372,7 @@
       <c r="S28" s="44"/>
       <c r="T28" s="44"/>
     </row>
-    <row r="29" spans="1:20" s="43" customFormat="1" ht="15.75">
+    <row r="29" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A29" s="42" t="s">
         <v>52</v>
       </c>
@@ -4284,7 +4389,7 @@
       <c r="S29" s="44"/>
       <c r="T29" s="44"/>
     </row>
-    <row r="30" spans="1:20" s="43" customFormat="1" ht="15.75">
+    <row r="30" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A30" s="42" t="s">
         <v>53</v>
       </c>
@@ -4301,7 +4406,7 @@
       <c r="S30" s="44"/>
       <c r="T30" s="44"/>
     </row>
-    <row r="31" spans="1:20" s="43" customFormat="1" ht="15.75">
+    <row r="31" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" s="42" t="s">
         <v>54</v>
       </c>
@@ -4318,13 +4423,13 @@
       <c r="S31" s="44"/>
       <c r="T31" s="44"/>
     </row>
-    <row r="32" spans="1:20" s="43" customFormat="1" ht="70.5" customHeight="1">
+    <row r="32" spans="1:20" s="43" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q32" s="44"/>
       <c r="R32" s="44"/>
       <c r="S32" s="44"/>
       <c r="T32" s="44"/>
     </row>
-    <row r="33" spans="1:20" s="43" customFormat="1" ht="75.75" customHeight="1">
+    <row r="33" spans="1:20" s="43" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="33"/>
       <c r="B33" s="33"/>
       <c r="C33" s="33"/>
@@ -4339,7 +4444,7 @@
       <c r="S33" s="44"/>
       <c r="T33" s="44"/>
     </row>
-    <row r="34" spans="1:20" s="43" customFormat="1" ht="15.75">
+    <row r="34" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A34" s="49" t="s">
         <v>5</v>
       </c>
@@ -4356,7 +4461,7 @@
       <c r="S34" s="44"/>
       <c r="T34" s="44"/>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="50" t="s">
         <v>6</v>
       </c>
@@ -4364,7 +4469,7 @@
         <v>43172</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="38"/>
     </row>
   </sheetData>
@@ -4389,11 +4494,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.7109375" style="33" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" style="33" bestFit="1" customWidth="1"/>
@@ -4413,7 +4518,7 @@
     <col min="17" max="16384" width="11.7109375" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -4421,7 +4526,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
         <v>44</v>
       </c>
@@ -4429,7 +4534,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
         <v>42</v>
       </c>
@@ -4437,7 +4542,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="31" t="s">
         <v>41</v>
       </c>
@@ -4445,7 +4550,7 @@
         <v>43614</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="31" t="s">
         <v>40</v>
       </c>
@@ -4453,15 +4558,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="31"/>
       <c r="B6" s="37"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="31"/>
       <c r="B7" s="37"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="38" t="s">
         <v>38</v>
       </c>
@@ -4469,7 +4574,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="37" t="s">
         <v>66</v>
       </c>
@@ -4477,7 +4582,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
         <v>67</v>
       </c>
@@ -4485,70 +4590,70 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="37"/>
       <c r="B12" s="39"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="37"/>
       <c r="B13" s="39"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="113" t="s">
+      <c r="B15" s="118" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="113"/>
+      <c r="C15" s="118"/>
       <c r="D15" s="79"/>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="33" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:20" s="43" customFormat="1" ht="15.75">
-      <c r="A24" s="123" t="s">
+    <row r="24" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="123" t="s">
+      <c r="B24" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="123" t="s">
+      <c r="C24" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="123" t="s">
+      <c r="D24" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="124" t="s">
+      <c r="E24" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="124" t="s">
+      <c r="F24" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="G24" s="124" t="s">
+      <c r="G24" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="124" t="s">
+      <c r="H24" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="I24" s="124" t="s">
+      <c r="I24" s="83" t="s">
         <v>46</v>
       </c>
       <c r="Q24" s="44"/>
@@ -4556,7 +4661,7 @@
       <c r="S24" s="44"/>
       <c r="T24" s="44"/>
     </row>
-    <row r="25" spans="1:20" s="43" customFormat="1" ht="85.5" customHeight="1">
+    <row r="25" spans="1:20" s="43" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="42" t="s">
         <v>167</v>
       </c>
@@ -4587,7 +4692,7 @@
       <c r="S25" s="44"/>
       <c r="T25" s="44"/>
     </row>
-    <row r="26" spans="1:20" s="43" customFormat="1" ht="82.5" customHeight="1">
+    <row r="26" spans="1:20" s="43" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="42" t="s">
         <v>168</v>
       </c>
@@ -4618,7 +4723,7 @@
       <c r="S26" s="44"/>
       <c r="T26" s="44"/>
     </row>
-    <row r="27" spans="1:20" s="43" customFormat="1" ht="87.75" customHeight="1">
+    <row r="27" spans="1:20" s="43" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="42" t="s">
         <v>169</v>
       </c>
@@ -4649,7 +4754,7 @@
       <c r="S27" s="44"/>
       <c r="T27" s="44"/>
     </row>
-    <row r="28" spans="1:20" s="43" customFormat="1" ht="15.75">
+    <row r="28" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" s="42" t="s">
         <v>17</v>
       </c>
@@ -4666,7 +4771,7 @@
       <c r="S28" s="44"/>
       <c r="T28" s="44"/>
     </row>
-    <row r="29" spans="1:20" s="43" customFormat="1" ht="15.75">
+    <row r="29" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A29" s="42" t="s">
         <v>52</v>
       </c>
@@ -4683,7 +4788,7 @@
       <c r="S29" s="44"/>
       <c r="T29" s="44"/>
     </row>
-    <row r="30" spans="1:20" s="43" customFormat="1" ht="15.75">
+    <row r="30" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A30" s="42" t="s">
         <v>53</v>
       </c>
@@ -4700,7 +4805,7 @@
       <c r="S30" s="44"/>
       <c r="T30" s="44"/>
     </row>
-    <row r="31" spans="1:20" s="43" customFormat="1" ht="15.75">
+    <row r="31" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" s="42" t="s">
         <v>54</v>
       </c>
@@ -4717,13 +4822,13 @@
       <c r="S31" s="44"/>
       <c r="T31" s="44"/>
     </row>
-    <row r="32" spans="1:20" s="43" customFormat="1" ht="70.5" customHeight="1">
+    <row r="32" spans="1:20" s="43" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q32" s="44"/>
       <c r="R32" s="44"/>
       <c r="S32" s="44"/>
       <c r="T32" s="44"/>
     </row>
-    <row r="33" spans="1:20" s="43" customFormat="1" ht="75.75" customHeight="1">
+    <row r="33" spans="1:20" s="43" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="33"/>
       <c r="B33" s="33"/>
       <c r="C33" s="33"/>
@@ -4738,7 +4843,7 @@
       <c r="S33" s="44"/>
       <c r="T33" s="44"/>
     </row>
-    <row r="34" spans="1:20" s="43" customFormat="1" ht="15.75">
+    <row r="34" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A34" s="49" t="s">
         <v>5</v>
       </c>
@@ -4757,7 +4862,7 @@
       <c r="S34" s="44"/>
       <c r="T34" s="44"/>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="50" t="s">
         <v>6</v>
       </c>
@@ -4765,7 +4870,7 @@
         <v>43172</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="38"/>
     </row>
   </sheetData>
@@ -4790,11 +4895,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.7109375" style="33" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" style="33" bestFit="1" customWidth="1"/>
@@ -4814,7 +4919,7 @@
     <col min="17" max="16384" width="11.7109375" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -4822,7 +4927,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
         <v>44</v>
       </c>
@@ -4830,7 +4935,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
         <v>42</v>
       </c>
@@ -4838,7 +4943,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="31" t="s">
         <v>41</v>
       </c>
@@ -4846,7 +4951,7 @@
         <v>43614</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="31" t="s">
         <v>40</v>
       </c>
@@ -4854,15 +4959,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="31"/>
       <c r="B6" s="37"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="31"/>
       <c r="B7" s="37"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="38" t="s">
         <v>38</v>
       </c>
@@ -4870,7 +4975,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="37" t="s">
         <v>66</v>
       </c>
@@ -4878,7 +4983,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
         <v>67</v>
       </c>
@@ -4886,70 +4991,70 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="37"/>
       <c r="B12" s="39"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="37"/>
       <c r="B13" s="39"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="113" t="s">
+      <c r="B15" s="118" t="s">
         <v>189</v>
       </c>
-      <c r="C15" s="113"/>
+      <c r="C15" s="118"/>
       <c r="D15" s="80"/>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="33" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:20" s="43" customFormat="1" ht="15.75">
-      <c r="A24" s="123" t="s">
+    <row r="24" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="123" t="s">
+      <c r="B24" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="123" t="s">
+      <c r="C24" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="123" t="s">
+      <c r="D24" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="124" t="s">
+      <c r="E24" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="124" t="s">
+      <c r="F24" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="G24" s="124" t="s">
+      <c r="G24" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="124" t="s">
+      <c r="H24" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="I24" s="124" t="s">
+      <c r="I24" s="83" t="s">
         <v>46</v>
       </c>
       <c r="Q24" s="44"/>
@@ -4957,7 +5062,7 @@
       <c r="S24" s="44"/>
       <c r="T24" s="44"/>
     </row>
-    <row r="25" spans="1:20" s="43" customFormat="1" ht="85.5" customHeight="1">
+    <row r="25" spans="1:20" s="43" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="42" t="s">
         <v>188</v>
       </c>
@@ -4988,7 +5093,7 @@
       <c r="S25" s="44"/>
       <c r="T25" s="44"/>
     </row>
-    <row r="26" spans="1:20" s="43" customFormat="1" ht="82.5" customHeight="1">
+    <row r="26" spans="1:20" s="43" customFormat="1" ht="156.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="42" t="s">
         <v>187</v>
       </c>
@@ -5019,7 +5124,7 @@
       <c r="S26" s="44"/>
       <c r="T26" s="44"/>
     </row>
-    <row r="27" spans="1:20" s="43" customFormat="1" ht="87.75" customHeight="1">
+    <row r="27" spans="1:20" s="43" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="42" t="s">
         <v>17</v>
       </c>
@@ -5036,7 +5141,7 @@
       <c r="S27" s="44"/>
       <c r="T27" s="44"/>
     </row>
-    <row r="28" spans="1:20" s="43" customFormat="1" ht="15.75">
+    <row r="28" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" s="42" t="s">
         <v>52</v>
       </c>
@@ -5053,7 +5158,7 @@
       <c r="S28" s="44"/>
       <c r="T28" s="44"/>
     </row>
-    <row r="29" spans="1:20" s="43" customFormat="1" ht="15.75">
+    <row r="29" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A29" s="42" t="s">
         <v>53</v>
       </c>
@@ -5070,7 +5175,7 @@
       <c r="S29" s="44"/>
       <c r="T29" s="44"/>
     </row>
-    <row r="30" spans="1:20" s="43" customFormat="1" ht="15.75">
+    <row r="30" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A30" s="42" t="s">
         <v>54</v>
       </c>
@@ -5087,13 +5192,13 @@
       <c r="S30" s="44"/>
       <c r="T30" s="44"/>
     </row>
-    <row r="31" spans="1:20" s="43" customFormat="1" ht="15.75">
+    <row r="31" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="Q31" s="44"/>
       <c r="R31" s="44"/>
       <c r="S31" s="44"/>
       <c r="T31" s="44"/>
     </row>
-    <row r="32" spans="1:20" s="43" customFormat="1" ht="70.5" customHeight="1">
+    <row r="32" spans="1:20" s="43" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="33"/>
       <c r="B32" s="33"/>
       <c r="C32" s="33"/>
@@ -5108,7 +5213,7 @@
       <c r="S32" s="44"/>
       <c r="T32" s="44"/>
     </row>
-    <row r="33" spans="1:20" s="43" customFormat="1" ht="75.75" customHeight="1">
+    <row r="33" spans="1:20" s="43" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="49" t="s">
         <v>5</v>
       </c>
@@ -5127,7 +5232,7 @@
       <c r="S33" s="44"/>
       <c r="T33" s="44"/>
     </row>
-    <row r="34" spans="1:20" s="43" customFormat="1" ht="15.75">
+    <row r="34" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A34" s="50" t="s">
         <v>6</v>
       </c>
@@ -5146,7 +5251,7 @@
       <c r="S34" s="44"/>
       <c r="T34" s="44"/>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="38"/>
     </row>
   </sheetData>
@@ -5163,6 +5268,7 @@
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;CSeite &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -5174,7 +5280,7 @@
       <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.7109375" style="7" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" style="11" bestFit="1" customWidth="1"/>
@@ -5185,30 +5291,30 @@
     <col min="7" max="16384" width="11.7109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="17" customFormat="1" ht="40.5" customHeight="1"/>
-    <row r="2" spans="1:6" s="17" customFormat="1" ht="19.5" customHeight="1">
+    <row r="1" spans="1:6" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:6" s="17" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="64"/>
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="119" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="127"/>
-    </row>
-    <row r="3" spans="1:6" s="17" customFormat="1">
-      <c r="B3" s="114"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="116"/>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="121"/>
+    </row>
+    <row r="3" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="122"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="124"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="18" t="s">
         <v>9</v>
       </c>
@@ -5225,7 +5331,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="19">
         <v>1</v>
       </c>
@@ -5242,7 +5348,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="19">
         <v>2</v>
       </c>
@@ -5259,7 +5365,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="19">
         <v>3</v>
       </c>
@@ -5276,7 +5382,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="19">
         <v>4</v>
       </c>
@@ -5293,7 +5399,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="19">
         <v>5</v>
       </c>
@@ -5310,7 +5416,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="19">
         <v>6</v>
       </c>
@@ -5327,7 +5433,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="19">
         <v>7</v>
       </c>
@@ -5344,7 +5450,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" s="19">
         <v>8</v>
       </c>
@@ -5361,7 +5467,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="19">
         <v>9</v>
       </c>
@@ -5378,7 +5484,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="19">
         <v>10</v>
       </c>
@@ -5395,7 +5501,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="19">
         <v>11</v>
       </c>
@@ -5412,7 +5518,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="19">
         <v>12</v>
       </c>
@@ -5429,179 +5535,179 @@
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="20"/>
       <c r="F18" s="21"/>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="20"/>
       <c r="F19" s="21"/>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
       <c r="E20" s="20"/>
       <c r="F20" s="21"/>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="14"/>
-      <c r="C22" s="117"/>
-      <c r="D22" s="117"/>
-      <c r="E22" s="117"/>
+      <c r="C22" s="125"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="125"/>
       <c r="F22" s="15"/>
     </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="118" t="s">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="126" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="119" t="s">
+      <c r="D23" s="127" t="s">
         <v>147</v>
       </c>
-      <c r="E23" s="119"/>
-      <c r="F23" s="119"/>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="118"/>
+      <c r="E23" s="127"/>
+      <c r="F23" s="127"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="126"/>
       <c r="C24" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="119" t="s">
+      <c r="D24" s="127" t="s">
         <v>177</v>
       </c>
-      <c r="E24" s="119"/>
-      <c r="F24" s="119"/>
-    </row>
-    <row r="27" spans="2:6">
+      <c r="E24" s="127"/>
+      <c r="F24" s="127"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
       <c r="E27" s="13"/>
     </row>
-    <row r="28" spans="2:6">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
       <c r="E28" s="13"/>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="13"/>
     </row>
-    <row r="30" spans="2:6">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
       <c r="E30" s="13"/>
     </row>
-    <row r="31" spans="2:6">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
       <c r="E31" s="13"/>
     </row>
-    <row r="32" spans="2:6">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
       <c r="E32" s="13"/>
     </row>
-    <row r="33" spans="2:5">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
       <c r="E33" s="13"/>
     </row>
-    <row r="34" spans="2:5">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
       <c r="E34" s="13"/>
     </row>
-    <row r="35" spans="2:5">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
       <c r="E35" s="13"/>
     </row>
-    <row r="36" spans="2:5">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
       <c r="E36" s="13"/>
     </row>
-    <row r="37" spans="2:5">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
       <c r="E37" s="13"/>
     </row>
-    <row r="38" spans="2:5">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
       <c r="E38" s="13"/>
     </row>
-    <row r="39" spans="2:5">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
       <c r="E39" s="13"/>
     </row>
-    <row r="40" spans="2:5">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
       <c r="E40" s="13"/>
     </row>
-    <row r="41" spans="2:5">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
       <c r="E41" s="13"/>
     </row>
-    <row r="42" spans="2:5">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
       <c r="E42" s="13"/>
     </row>
-    <row r="43" spans="2:5">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
       <c r="E43" s="13"/>
     </row>
-    <row r="44" spans="2:5">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
       <c r="E44" s="13"/>
     </row>
-    <row r="45" spans="2:5">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
       <c r="E45" s="13"/>
     </row>
-    <row r="46" spans="2:5">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
       <c r="E46" s="13"/>
     </row>
-    <row r="47" spans="2:5">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>

--- a/Projeto-Documentacao/Planilhas/Plano de UAT - Homol 1 Semestre 2019 v1.xlsx
+++ b/Projeto-Documentacao/Planilhas/Plano de UAT - Homol 1 Semestre 2019 v1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Desktop\grupo3-sa\Projeto-Documentacao\Planilhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Igor\Desktop\grupo3-sa\Projeto-Documentacao\Planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C98698-E36C-4A40-A40E-57A71FB60E2A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F425D8-EDB8-4F32-9DEF-701AE473A5E6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="503" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="503" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plano de Homologação" sheetId="5" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="198">
   <si>
     <t xml:space="preserve">Projeto: </t>
   </si>
@@ -1541,6 +1541,20 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="9" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="8" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1548,6 +1562,90 @@
     <xf numFmtId="0" fontId="31" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1556,104 +1654,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="9" xfId="15" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="8" xfId="15" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2819,13 +2819,13 @@
     </row>
     <row r="2" spans="1:20" s="22" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="53"/>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="100"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="103"/>
       <c r="G2" s="57"/>
       <c r="H2" s="57"/>
       <c r="I2" s="57"/>
@@ -2835,11 +2835,11 @@
     </row>
     <row r="3" spans="1:20" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="53"/>
-      <c r="B3" s="101"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="103"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="106"/>
       <c r="G3" s="57"/>
       <c r="H3" s="57"/>
       <c r="I3" s="57"/>
@@ -2866,10 +2866,10 @@
       <c r="B5" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="104" t="s">
+      <c r="C5" s="107" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="105"/>
+      <c r="D5" s="108"/>
       <c r="E5" s="28"/>
       <c r="F5" s="29"/>
       <c r="G5" s="28"/>
@@ -2884,10 +2884,10 @@
       <c r="B6" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="104" t="s">
+      <c r="C6" s="107" t="s">
         <v>197</v>
       </c>
-      <c r="D6" s="105"/>
+      <c r="D6" s="108"/>
       <c r="E6" s="28"/>
       <c r="F6" s="29"/>
       <c r="G6" s="28"/>
@@ -2902,10 +2902,10 @@
       <c r="B7" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="104" t="s">
+      <c r="C7" s="107" t="s">
         <v>196</v>
       </c>
-      <c r="D7" s="105"/>
+      <c r="D7" s="108"/>
       <c r="E7" s="28"/>
       <c r="F7" s="29"/>
       <c r="G7" s="28"/>
@@ -2920,10 +2920,10 @@
       <c r="B8" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="104" t="s">
+      <c r="C8" s="107" t="s">
         <v>129</v>
       </c>
-      <c r="D8" s="105"/>
+      <c r="D8" s="108"/>
       <c r="E8" s="28"/>
       <c r="F8" s="29"/>
       <c r="G8" s="28"/>
@@ -2938,10 +2938,10 @@
       <c r="B9" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="106">
+      <c r="C9" s="109">
         <v>43615</v>
       </c>
-      <c r="D9" s="105"/>
+      <c r="D9" s="108"/>
       <c r="E9" s="28"/>
       <c r="F9" s="29"/>
       <c r="G9" s="28"/>
@@ -2967,16 +2967,16 @@
     </row>
     <row r="11" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24"/>
-      <c r="B11" s="107" t="s">
+      <c r="B11" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="108"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="109"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="112"/>
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
       <c r="L11" s="24"/>
@@ -2988,14 +2988,14 @@
       <c r="B12" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="96" t="s">
+      <c r="C12" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="97"/>
-      <c r="E12" s="96" t="s">
+      <c r="D12" s="93"/>
+      <c r="E12" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="97"/>
+      <c r="F12" s="93"/>
       <c r="G12" s="65" t="s">
         <v>25</v>
       </c>
@@ -3018,14 +3018,14 @@
       <c r="B13" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="84" t="s">
+      <c r="C13" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="89"/>
-      <c r="E13" s="110" t="s">
+      <c r="D13" s="96"/>
+      <c r="E13" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="F13" s="111"/>
+      <c r="F13" s="85"/>
       <c r="G13" s="66" t="s">
         <v>82</v>
       </c>
@@ -3048,14 +3048,14 @@
       <c r="B14" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="116" t="s">
+      <c r="C14" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="117"/>
-      <c r="E14" s="112" t="s">
+      <c r="D14" s="100"/>
+      <c r="E14" s="94" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="113"/>
+      <c r="F14" s="95"/>
       <c r="G14" s="69" t="s">
         <v>95</v>
       </c>
@@ -3078,14 +3078,14 @@
       <c r="B15" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="84" t="s">
+      <c r="C15" s="88" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="89"/>
-      <c r="E15" s="84" t="s">
+      <c r="D15" s="96"/>
+      <c r="E15" s="88" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="89"/>
+      <c r="F15" s="96"/>
       <c r="G15" s="66" t="s">
         <v>81</v>
       </c>
@@ -3108,14 +3108,14 @@
       <c r="B16" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="84" t="s">
+      <c r="C16" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="D16" s="89"/>
-      <c r="E16" s="84" t="s">
+      <c r="D16" s="96"/>
+      <c r="E16" s="88" t="s">
         <v>98</v>
       </c>
-      <c r="F16" s="89"/>
+      <c r="F16" s="96"/>
       <c r="G16" s="66" t="s">
         <v>114</v>
       </c>
@@ -3138,14 +3138,14 @@
       <c r="B17" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="C17" s="84" t="s">
+      <c r="C17" s="88" t="s">
         <v>99</v>
       </c>
-      <c r="D17" s="89"/>
-      <c r="E17" s="84" t="s">
+      <c r="D17" s="96"/>
+      <c r="E17" s="88" t="s">
         <v>100</v>
       </c>
-      <c r="F17" s="89"/>
+      <c r="F17" s="96"/>
       <c r="G17" s="66" t="s">
         <v>101</v>
       </c>
@@ -3183,17 +3183,17 @@
     </row>
     <row r="19" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="55"/>
-      <c r="B19" s="114" t="s">
+      <c r="B19" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="115"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="115"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="115"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="98"/>
+      <c r="J19" s="98"/>
       <c r="K19" s="24"/>
       <c r="L19" s="24"/>
     </row>
@@ -3202,18 +3202,18 @@
       <c r="B20" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="94" t="s">
+      <c r="C20" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="95"/>
-      <c r="E20" s="94" t="s">
+      <c r="D20" s="87"/>
+      <c r="E20" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="95"/>
-      <c r="G20" s="94" t="s">
+      <c r="F20" s="87"/>
+      <c r="G20" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="95"/>
+      <c r="H20" s="87"/>
       <c r="I20" s="81" t="s">
         <v>27</v>
       </c>
@@ -3232,18 +3232,18 @@
       <c r="B21" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="C21" s="84" t="s">
+      <c r="C21" s="88" t="s">
         <v>107</v>
       </c>
-      <c r="D21" s="85"/>
-      <c r="E21" s="84" t="s">
+      <c r="D21" s="89"/>
+      <c r="E21" s="88" t="s">
         <v>112</v>
       </c>
-      <c r="F21" s="85"/>
-      <c r="G21" s="84" t="s">
+      <c r="F21" s="89"/>
+      <c r="G21" s="88" t="s">
         <v>108</v>
       </c>
-      <c r="H21" s="85"/>
+      <c r="H21" s="89"/>
       <c r="I21" s="71" t="s">
         <v>105</v>
       </c>
@@ -3262,18 +3262,18 @@
       <c r="B22" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="C22" s="84" t="s">
+      <c r="C22" s="88" t="s">
         <v>113</v>
       </c>
-      <c r="D22" s="89"/>
-      <c r="E22" s="110" t="s">
+      <c r="D22" s="96"/>
+      <c r="E22" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="F22" s="111"/>
-      <c r="G22" s="92" t="s">
+      <c r="F22" s="85"/>
+      <c r="G22" s="90" t="s">
         <v>111</v>
       </c>
-      <c r="H22" s="93"/>
+      <c r="H22" s="91"/>
       <c r="I22" s="73" t="s">
         <v>105</v>
       </c>
@@ -3292,18 +3292,18 @@
       <c r="B23" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="C23" s="84" t="s">
+      <c r="C23" s="88" t="s">
         <v>102</v>
       </c>
-      <c r="D23" s="85"/>
-      <c r="E23" s="84" t="s">
+      <c r="D23" s="89"/>
+      <c r="E23" s="88" t="s">
         <v>103</v>
       </c>
-      <c r="F23" s="85"/>
-      <c r="G23" s="84" t="s">
+      <c r="F23" s="89"/>
+      <c r="G23" s="88" t="s">
         <v>104</v>
       </c>
-      <c r="H23" s="85"/>
+      <c r="H23" s="89"/>
       <c r="I23" s="71" t="s">
         <v>105</v>
       </c>
@@ -3322,18 +3322,18 @@
       <c r="B24" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="C24" s="84" t="s">
+      <c r="C24" s="88" t="s">
         <v>117</v>
       </c>
-      <c r="D24" s="89"/>
-      <c r="E24" s="90" t="s">
+      <c r="D24" s="96"/>
+      <c r="E24" s="113" t="s">
         <v>118</v>
       </c>
-      <c r="F24" s="91"/>
-      <c r="G24" s="92" t="s">
+      <c r="F24" s="114"/>
+      <c r="G24" s="90" t="s">
         <v>119</v>
       </c>
-      <c r="H24" s="93"/>
+      <c r="H24" s="91"/>
       <c r="I24" s="75" t="s">
         <v>106</v>
       </c>
@@ -3352,18 +3352,18 @@
       <c r="B25" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="C25" s="84" t="s">
+      <c r="C25" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="D25" s="85"/>
-      <c r="E25" s="84" t="s">
+      <c r="D25" s="89"/>
+      <c r="E25" s="88" t="s">
         <v>115</v>
       </c>
-      <c r="F25" s="86"/>
-      <c r="G25" s="87" t="s">
+      <c r="F25" s="115"/>
+      <c r="G25" s="116" t="s">
         <v>123</v>
       </c>
-      <c r="H25" s="88"/>
+      <c r="H25" s="117"/>
       <c r="I25" s="73" t="s">
         <v>105</v>
       </c>
@@ -3382,18 +3382,18 @@
       <c r="B26" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="C26" s="84" t="s">
+      <c r="C26" s="88" t="s">
         <v>121</v>
       </c>
-      <c r="D26" s="89"/>
-      <c r="E26" s="84" t="s">
+      <c r="D26" s="96"/>
+      <c r="E26" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="F26" s="89"/>
-      <c r="G26" s="87" t="s">
+      <c r="F26" s="96"/>
+      <c r="G26" s="116" t="s">
         <v>125</v>
       </c>
-      <c r="H26" s="88"/>
+      <c r="H26" s="117"/>
       <c r="I26" s="73" t="s">
         <v>106</v>
       </c>
@@ -3412,18 +3412,18 @@
       <c r="B27" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="C27" s="84" t="s">
+      <c r="C27" s="88" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="89"/>
-      <c r="E27" s="84" t="s">
+      <c r="D27" s="96"/>
+      <c r="E27" s="88" t="s">
         <v>128</v>
       </c>
-      <c r="F27" s="89"/>
-      <c r="G27" s="87" t="s">
+      <c r="F27" s="96"/>
+      <c r="G27" s="116" t="s">
         <v>127</v>
       </c>
-      <c r="H27" s="88"/>
+      <c r="H27" s="117"/>
       <c r="I27" s="73" t="s">
         <v>105</v>
       </c>
@@ -3591,6 +3591,35 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B11:I11"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="G21:H21"/>
@@ -3607,35 +3636,6 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I13:I17" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -3656,10 +3656,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:T41"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView topLeftCell="A22" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3981,97 +3981,22 @@
       <c r="T29" s="44"/>
     </row>
     <row r="30" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="52"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
       <c r="Q30" s="44"/>
       <c r="R30" s="44"/>
       <c r="S30" s="44"/>
       <c r="T30" s="44"/>
     </row>
-    <row r="31" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" s="42"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="52"/>
-      <c r="Q31" s="44"/>
-      <c r="R31" s="44"/>
-      <c r="S31" s="44"/>
-      <c r="T31" s="44"/>
-    </row>
-    <row r="32" spans="1:20" s="43" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="42"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="52"/>
-      <c r="Q32" s="44"/>
-      <c r="R32" s="44"/>
-      <c r="S32" s="44"/>
-      <c r="T32" s="44"/>
-    </row>
-    <row r="33" spans="1:20" s="43" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="42"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="23"/>
-      <c r="Q33" s="44"/>
-      <c r="R33" s="44"/>
-      <c r="S33" s="44"/>
-      <c r="T33" s="44"/>
-    </row>
-    <row r="34" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="Q34" s="44"/>
-      <c r="R34" s="44"/>
-      <c r="S34" s="44"/>
-      <c r="T34" s="44"/>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A36" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="33" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A37" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" s="51">
-        <v>43172</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A41" s="38"/>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4095,8 +4020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
